--- a/Data/FinalData.xlsx
+++ b/Data/FinalData.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c1929351461b30c/Documents/coursework/Data Raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c1929351461b30c/Documents/ECON436_SalesTax/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="8_{E815BA57-0DC4-3B41-8B48-0C03A86D5E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BDF3D39-5831-4A05-9ADA-0F1C936BF703}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{9BEAF4C7-2D6F-B841-97EE-52EB59062A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92724872-23BB-4870-8C24-08BB99CEA7B0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly" sheetId="1" r:id="rId1"/>
-    <sheet name="Annual" sheetId="3" r:id="rId2"/>
-    <sheet name="Information" sheetId="2" r:id="rId3"/>
+    <sheet name="Information" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>NF</t>
   </si>
@@ -244,6 +243,9 @@
     <t>Already included in a sector or super-sector</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>Lead_STF</t>
   </si>
   <si>
@@ -252,31 +254,22 @@
   <si>
     <t>year</t>
   </si>
-  <si>
-    <t>Year</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -442,12 +435,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="36">
@@ -789,102 +776,94 @@
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -944,10 +923,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1249,13 +1224,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL158"/>
   <sheetViews>
-    <sheetView topLeftCell="Q151" zoomScale="78" workbookViewId="0">
-      <selection activeCell="AD158" sqref="AD158"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="AG150" sqref="AG150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="13"/>
+    <col min="1" max="1" width="10.796875" style="12"/>
     <col min="28" max="28" width="10.796875" style="3"/>
     <col min="30" max="30" width="11.69921875" style="3" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10.796875" style="3"/>
@@ -1266,7 +1241,7 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>0</v>
@@ -1343,21 +1318,21 @@
       <c r="AA1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AB1" s="16" t="s">
         <v>28</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="AE1" s="19" t="s">
-        <v>70</v>
+      <c r="AE1" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:31">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>40909</v>
       </c>
       <c r="B2">
@@ -1438,11 +1413,11 @@
       <c r="AA2">
         <v>6.9</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="14">
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="13">
         <v>6.6045829999999999</v>
       </c>
-      <c r="AD2" s="23">
+      <c r="AD2" s="20">
         <v>227.84200000000001</v>
       </c>
       <c r="AE2" s="3">
@@ -1451,7 +1426,7 @@
       </c>
     </row>
     <row r="3" spans="1:31">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>40940</v>
       </c>
       <c r="B3">
@@ -1532,11 +1507,11 @@
       <c r="AA3">
         <v>7.3</v>
       </c>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="14">
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="13">
         <v>6.3961079999999999</v>
       </c>
-      <c r="AD3" s="23">
+      <c r="AD3" s="20">
         <v>228.32900000000001</v>
       </c>
       <c r="AE3" s="3">
@@ -1545,7 +1520,7 @@
       </c>
     </row>
     <row r="4" spans="1:31">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>40969</v>
       </c>
       <c r="B4">
@@ -1626,11 +1601,11 @@
       <c r="AA4">
         <v>7.2</v>
       </c>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="14">
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="13">
         <v>7.3584649999999998</v>
       </c>
-      <c r="AD4" s="23">
+      <c r="AD4" s="20">
         <v>228.80699999999999</v>
       </c>
       <c r="AE4" s="3">
@@ -1639,7 +1614,7 @@
       </c>
     </row>
     <row r="5" spans="1:31">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>41000</v>
       </c>
       <c r="B5">
@@ -1720,11 +1695,11 @@
       <c r="AA5">
         <v>7.3</v>
       </c>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="14">
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="13">
         <v>6.8497760000000003</v>
       </c>
-      <c r="AD5" s="23">
+      <c r="AD5" s="20">
         <v>229.18700000000001</v>
       </c>
       <c r="AE5" s="3">
@@ -1733,7 +1708,7 @@
       </c>
     </row>
     <row r="6" spans="1:31">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>41030</v>
       </c>
       <c r="B6">
@@ -1814,11 +1789,11 @@
       <c r="AA6">
         <v>7.3</v>
       </c>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="14">
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="13">
         <v>7.2043400000000002</v>
       </c>
-      <c r="AD6" s="23">
+      <c r="AD6" s="20">
         <v>228.71299999999999</v>
       </c>
       <c r="AE6" s="3">
@@ -1827,7 +1802,7 @@
       </c>
     </row>
     <row r="7" spans="1:31">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>41061</v>
       </c>
       <c r="B7">
@@ -1908,11 +1883,11 @@
       <c r="AA7">
         <v>7.1</v>
       </c>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="14">
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="13">
         <v>7.8127219999999999</v>
       </c>
-      <c r="AD7" s="23">
+      <c r="AD7" s="20">
         <v>228.524</v>
       </c>
       <c r="AE7" s="3">
@@ -1921,7 +1896,7 @@
       </c>
     </row>
     <row r="8" spans="1:31">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>41091</v>
       </c>
       <c r="B8">
@@ -2002,11 +1977,11 @@
       <c r="AA8">
         <v>5.9</v>
       </c>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="14">
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="13">
         <v>7.1128640000000001</v>
       </c>
-      <c r="AD8" s="23">
+      <c r="AD8" s="20">
         <v>228.59</v>
       </c>
       <c r="AE8" s="3">
@@ -2015,7 +1990,7 @@
       </c>
     </row>
     <row r="9" spans="1:31">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>41122</v>
       </c>
       <c r="B9">
@@ -2096,11 +2071,11 @@
       <c r="AA9">
         <v>6.1</v>
       </c>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="14">
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="13">
         <v>7.8428979999999999</v>
       </c>
-      <c r="AD9" s="23">
+      <c r="AD9" s="20">
         <v>229.91800000000001</v>
       </c>
       <c r="AE9" s="3">
@@ -2109,7 +2084,7 @@
       </c>
     </row>
     <row r="10" spans="1:31">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>41153</v>
       </c>
       <c r="B10">
@@ -2190,11 +2165,11 @@
       <c r="AA10">
         <v>6.8</v>
       </c>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="14">
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="13">
         <v>7.6223799999999997</v>
       </c>
-      <c r="AD10" s="23">
+      <c r="AD10" s="20">
         <v>231.01499999999999</v>
       </c>
       <c r="AE10" s="3">
@@ -2203,7 +2178,7 @@
       </c>
     </row>
     <row r="11" spans="1:31">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>41183</v>
       </c>
       <c r="B11">
@@ -2284,11 +2259,11 @@
       <c r="AA11">
         <v>7.2</v>
       </c>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="14">
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="13">
         <v>7.2448600000000001</v>
       </c>
-      <c r="AD11" s="23">
+      <c r="AD11" s="20">
         <v>231.63800000000001</v>
       </c>
       <c r="AE11" s="3">
@@ -2297,7 +2272,7 @@
       </c>
     </row>
     <row r="12" spans="1:31">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>41214</v>
       </c>
       <c r="B12">
@@ -2378,11 +2353,11 @@
       <c r="AA12">
         <v>7.3</v>
       </c>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="14">
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="13">
         <v>7.1105970000000003</v>
       </c>
-      <c r="AD12" s="23">
+      <c r="AD12" s="20">
         <v>231.249</v>
       </c>
       <c r="AE12" s="3">
@@ -2391,7 +2366,7 @@
       </c>
     </row>
     <row r="13" spans="1:31">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>41244</v>
       </c>
       <c r="B13">
@@ -2472,11 +2447,11 @@
       <c r="AA13">
         <v>7.2</v>
       </c>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="14">
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="13">
         <v>9.4842420000000001</v>
       </c>
-      <c r="AD13" s="23">
+      <c r="AD13" s="20">
         <v>231.221</v>
       </c>
       <c r="AE13" s="3">
@@ -2485,7 +2460,7 @@
       </c>
     </row>
     <row r="14" spans="1:31">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>41275</v>
       </c>
       <c r="B14">
@@ -2566,11 +2541,11 @@
       <c r="AA14">
         <v>7.1</v>
       </c>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="14">
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="13">
         <v>6.903797</v>
       </c>
-      <c r="AD14" s="23">
+      <c r="AD14" s="20">
         <v>231.679</v>
       </c>
       <c r="AE14" s="3">
@@ -2579,7 +2554,7 @@
       </c>
     </row>
     <row r="15" spans="1:31">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>41306</v>
       </c>
       <c r="B15">
@@ -2660,11 +2635,11 @@
       <c r="AA15">
         <v>7.3</v>
       </c>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="14">
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="13">
         <v>6.6652290000000001</v>
       </c>
-      <c r="AD15" s="23">
+      <c r="AD15" s="20">
         <v>232.93700000000001</v>
       </c>
       <c r="AE15" s="3">
@@ -2673,7 +2648,7 @@
       </c>
     </row>
     <row r="16" spans="1:31">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <v>41334</v>
       </c>
       <c r="B16">
@@ -2754,11 +2729,11 @@
       <c r="AA16">
         <v>7.4</v>
       </c>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="14">
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="13">
         <v>7.5399089999999998</v>
       </c>
-      <c r="AD16" s="23">
+      <c r="AD16" s="20">
         <v>232.28200000000001</v>
       </c>
       <c r="AE16" s="3">
@@ -2767,7 +2742,7 @@
       </c>
     </row>
     <row r="17" spans="1:31">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>41365</v>
       </c>
       <c r="B17">
@@ -2848,11 +2823,11 @@
       <c r="AA17">
         <v>7.3</v>
       </c>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="14">
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="13">
         <v>6.9665699999999999</v>
       </c>
-      <c r="AD17" s="23">
+      <c r="AD17" s="20">
         <v>231.797</v>
       </c>
       <c r="AE17" s="3">
@@ -2861,7 +2836,7 @@
       </c>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="13">
+      <c r="A18" s="12">
         <v>41395</v>
       </c>
       <c r="B18">
@@ -2942,11 +2917,11 @@
       <c r="AA18">
         <v>7.4</v>
       </c>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="14">
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="13">
         <v>7.6703060000000001</v>
       </c>
-      <c r="AD18" s="23">
+      <c r="AD18" s="20">
         <v>231.893</v>
       </c>
       <c r="AE18" s="3">
@@ -2955,7 +2930,7 @@
       </c>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <v>41426</v>
       </c>
       <c r="B19">
@@ -3036,11 +3011,11 @@
       <c r="AA19">
         <v>7</v>
       </c>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="14">
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="13">
         <v>8.1408400000000007</v>
       </c>
-      <c r="AD19" s="23">
+      <c r="AD19" s="20">
         <v>232.44499999999999</v>
       </c>
       <c r="AE19" s="3">
@@ -3049,7 +3024,7 @@
       </c>
     </row>
     <row r="20" spans="1:31">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>41456</v>
       </c>
       <c r="B20">
@@ -3130,11 +3105,11 @@
       <c r="AA20">
         <v>6.1</v>
       </c>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="14">
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="13">
         <v>7.6135169999999999</v>
       </c>
-      <c r="AD20" s="23">
+      <c r="AD20" s="20">
         <v>232.9</v>
       </c>
       <c r="AE20" s="3">
@@ -3143,7 +3118,7 @@
       </c>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>41487</v>
       </c>
       <c r="B21">
@@ -3224,11 +3199,11 @@
       <c r="AA21">
         <v>6.2</v>
       </c>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="14">
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="13">
         <v>8.1719580000000001</v>
       </c>
-      <c r="AD21" s="23">
+      <c r="AD21" s="20">
         <v>233.45599999999999</v>
       </c>
       <c r="AE21" s="3">
@@ -3237,7 +3212,7 @@
       </c>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <v>41518</v>
       </c>
       <c r="B22">
@@ -3318,11 +3293,11 @@
       <c r="AA22">
         <v>6.8</v>
       </c>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="14">
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="13">
         <v>7.9688220000000003</v>
       </c>
-      <c r="AD22" s="23">
+      <c r="AD22" s="20">
         <v>233.54400000000001</v>
       </c>
       <c r="AE22" s="3">
@@ -3331,7 +3306,7 @@
       </c>
     </row>
     <row r="23" spans="1:31">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <v>41548</v>
       </c>
       <c r="B23">
@@ -3412,11 +3387,11 @@
       <c r="AA23">
         <v>7.3</v>
       </c>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="14">
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="13">
         <v>7.4485729999999997</v>
       </c>
-      <c r="AD23" s="23">
+      <c r="AD23" s="20">
         <v>233.66900000000001</v>
       </c>
       <c r="AE23" s="3">
@@ -3425,7 +3400,7 @@
       </c>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <v>41579</v>
       </c>
       <c r="B24">
@@ -3506,11 +3481,11 @@
       <c r="AA24">
         <v>7.4</v>
       </c>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="14">
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="13">
         <v>7.5604880000000003</v>
       </c>
-      <c r="AD24" s="23">
+      <c r="AD24" s="20">
         <v>234.1</v>
       </c>
       <c r="AE24" s="3">
@@ -3519,7 +3494,7 @@
       </c>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="13">
+      <c r="A25" s="12">
         <v>41609</v>
       </c>
       <c r="B25">
@@ -3600,11 +3575,11 @@
       <c r="AA25">
         <v>7.3</v>
       </c>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="14">
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="13">
         <v>10.117188000000001</v>
       </c>
-      <c r="AD25" s="23">
+      <c r="AD25" s="20">
         <v>234.71899999999999</v>
       </c>
       <c r="AE25" s="3">
@@ -3613,7 +3588,7 @@
       </c>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="13">
+      <c r="A26" s="12">
         <v>41640</v>
       </c>
       <c r="B26">
@@ -3694,11 +3669,11 @@
       <c r="AA26">
         <v>7.1</v>
       </c>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="14">
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="13">
         <v>7.0800150000000004</v>
       </c>
-      <c r="AD26" s="23">
+      <c r="AD26" s="20">
         <v>235.28800000000001</v>
       </c>
       <c r="AE26" s="3">
@@ -3707,7 +3682,7 @@
       </c>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="13">
+      <c r="A27" s="12">
         <v>41671</v>
       </c>
       <c r="B27">
@@ -3788,11 +3763,11 @@
       <c r="AA27">
         <v>7.4</v>
       </c>
-      <c r="AB27" s="18"/>
-      <c r="AC27" s="14">
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="13">
         <v>6.8508259999999996</v>
       </c>
-      <c r="AD27" s="23">
+      <c r="AD27" s="20">
         <v>235.547</v>
       </c>
       <c r="AE27" s="3">
@@ -3801,7 +3776,7 @@
       </c>
     </row>
     <row r="28" spans="1:31">
-      <c r="A28" s="13">
+      <c r="A28" s="12">
         <v>41699</v>
       </c>
       <c r="B28">
@@ -3882,11 +3857,11 @@
       <c r="AA28">
         <v>7.5</v>
       </c>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="14">
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="13">
         <v>8.2078489999999995</v>
       </c>
-      <c r="AD28" s="23">
+      <c r="AD28" s="20">
         <v>236.02799999999999</v>
       </c>
       <c r="AE28" s="3">
@@ -3895,7 +3870,7 @@
       </c>
     </row>
     <row r="29" spans="1:31">
-      <c r="A29" s="13">
+      <c r="A29" s="12">
         <v>41730</v>
       </c>
       <c r="B29">
@@ -3976,11 +3951,11 @@
       <c r="AA29">
         <v>7.4</v>
       </c>
-      <c r="AB29" s="18"/>
-      <c r="AC29" s="14">
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="13">
         <v>7.6834850000000001</v>
       </c>
-      <c r="AD29" s="23">
+      <c r="AD29" s="20">
         <v>236.46799999999999</v>
       </c>
       <c r="AE29" s="3">
@@ -3989,7 +3964,7 @@
       </c>
     </row>
     <row r="30" spans="1:31">
-      <c r="A30" s="13">
+      <c r="A30" s="12">
         <v>41760</v>
       </c>
       <c r="B30">
@@ -4070,11 +4045,11 @@
       <c r="AA30">
         <v>7.5</v>
       </c>
-      <c r="AB30" s="18"/>
-      <c r="AC30" s="14">
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="13">
         <v>8.2169369999999997</v>
       </c>
-      <c r="AD30" s="23">
+      <c r="AD30" s="20">
         <v>236.91800000000001</v>
       </c>
       <c r="AE30" s="3">
@@ -4083,7 +4058,7 @@
       </c>
     </row>
     <row r="31" spans="1:31">
-      <c r="A31" s="13">
+      <c r="A31" s="12">
         <v>41791</v>
       </c>
       <c r="B31">
@@ -4164,11 +4139,11 @@
       <c r="AA31">
         <v>7.2</v>
       </c>
-      <c r="AB31" s="18"/>
-      <c r="AC31" s="14">
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="13">
         <v>8.7676730000000003</v>
       </c>
-      <c r="AD31" s="23">
+      <c r="AD31" s="20">
         <v>237.23099999999999</v>
       </c>
       <c r="AE31" s="3">
@@ -4177,7 +4152,7 @@
       </c>
     </row>
     <row r="32" spans="1:31">
-      <c r="A32" s="13">
+      <c r="A32" s="12">
         <v>41821</v>
       </c>
       <c r="B32">
@@ -4258,11 +4233,11 @@
       <c r="AA32">
         <v>6.2</v>
       </c>
-      <c r="AB32" s="18"/>
-      <c r="AC32" s="14">
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="13">
         <v>8.3767840000000007</v>
       </c>
-      <c r="AD32" s="23">
+      <c r="AD32" s="20">
         <v>237.49799999999999</v>
       </c>
       <c r="AE32" s="3">
@@ -4271,7 +4246,7 @@
       </c>
     </row>
     <row r="33" spans="1:31">
-      <c r="A33" s="13">
+      <c r="A33" s="12">
         <v>41852</v>
       </c>
       <c r="B33">
@@ -4352,11 +4327,11 @@
       <c r="AA33">
         <v>6.4</v>
       </c>
-      <c r="AB33" s="18"/>
-      <c r="AC33" s="14">
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="13">
         <v>8.9328579999999995</v>
       </c>
-      <c r="AD33" s="23">
+      <c r="AD33" s="20">
         <v>237.46</v>
       </c>
       <c r="AE33" s="3">
@@ -4365,7 +4340,7 @@
       </c>
     </row>
     <row r="34" spans="1:31">
-      <c r="A34" s="13">
+      <c r="A34" s="12">
         <v>41883</v>
       </c>
       <c r="B34">
@@ -4446,11 +4421,11 @@
       <c r="AA34">
         <v>7</v>
       </c>
-      <c r="AB34" s="18"/>
-      <c r="AC34" s="14">
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="13">
         <v>9.1594130000000007</v>
       </c>
-      <c r="AD34" s="23">
+      <c r="AD34" s="20">
         <v>237.477</v>
       </c>
       <c r="AE34" s="3">
@@ -4459,7 +4434,7 @@
       </c>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="13">
+      <c r="A35" s="12">
         <v>41913</v>
       </c>
       <c r="B35">
@@ -4540,11 +4515,11 @@
       <c r="AA35">
         <v>7.3</v>
       </c>
-      <c r="AB35" s="18"/>
-      <c r="AC35" s="14">
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="13">
         <v>8.2330089999999991</v>
       </c>
-      <c r="AD35" s="23">
+      <c r="AD35" s="20">
         <v>237.43</v>
       </c>
       <c r="AE35" s="3">
@@ -4553,7 +4528,7 @@
       </c>
     </row>
     <row r="36" spans="1:31">
-      <c r="A36" s="13">
+      <c r="A36" s="12">
         <v>41944</v>
       </c>
       <c r="B36">
@@ -4634,11 +4609,11 @@
       <c r="AA36">
         <v>7.4</v>
       </c>
-      <c r="AB36" s="18"/>
-      <c r="AC36" s="14">
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="13">
         <v>8.2211259999999999</v>
       </c>
-      <c r="AD36" s="23">
+      <c r="AD36" s="20">
         <v>236.983</v>
       </c>
       <c r="AE36" s="3">
@@ -4647,7 +4622,7 @@
       </c>
     </row>
     <row r="37" spans="1:31">
-      <c r="A37" s="13">
+      <c r="A37" s="12">
         <v>41974</v>
       </c>
       <c r="B37">
@@ -4728,11 +4703,11 @@
       <c r="AA37">
         <v>7.3</v>
       </c>
-      <c r="AB37" s="18"/>
-      <c r="AC37" s="14">
+      <c r="AB37" s="17"/>
+      <c r="AC37" s="13">
         <v>10.777678999999999</v>
       </c>
-      <c r="AD37" s="23">
+      <c r="AD37" s="20">
         <v>236.25200000000001</v>
       </c>
       <c r="AE37" s="3">
@@ -4741,7 +4716,7 @@
       </c>
     </row>
     <row r="38" spans="1:31">
-      <c r="A38" s="13">
+      <c r="A38" s="12">
         <v>42005</v>
       </c>
       <c r="B38">
@@ -4822,13 +4797,13 @@
       <c r="AA38">
         <v>7.3</v>
       </c>
-      <c r="AB38" s="22">
+      <c r="AB38" s="19">
         <v>8087</v>
       </c>
-      <c r="AC38" s="14">
+      <c r="AC38" s="13">
         <v>8.0429560000000002</v>
       </c>
-      <c r="AD38" s="23">
+      <c r="AD38" s="20">
         <v>234.74700000000001</v>
       </c>
       <c r="AE38" s="3">
@@ -4837,7 +4812,7 @@
       </c>
     </row>
     <row r="39" spans="1:31">
-      <c r="A39" s="13">
+      <c r="A39" s="12">
         <v>42036</v>
       </c>
       <c r="B39">
@@ -4918,13 +4893,13 @@
       <c r="AA39">
         <v>7.4</v>
       </c>
-      <c r="AB39" s="22">
+      <c r="AB39" s="19">
         <v>5036</v>
       </c>
-      <c r="AC39" s="14">
+      <c r="AC39" s="13">
         <v>7.4832689999999999</v>
       </c>
-      <c r="AD39" s="23">
+      <c r="AD39" s="20">
         <v>235.34200000000001</v>
       </c>
       <c r="AE39" s="3">
@@ -4933,7 +4908,7 @@
       </c>
     </row>
     <row r="40" spans="1:31">
-      <c r="A40" s="13">
+      <c r="A40" s="12">
         <v>42064</v>
       </c>
       <c r="B40">
@@ -5014,13 +4989,13 @@
       <c r="AA40">
         <v>7.5</v>
       </c>
-      <c r="AB40" s="22">
+      <c r="AB40" s="19">
         <v>4073</v>
       </c>
-      <c r="AC40" s="14">
+      <c r="AC40" s="13">
         <v>8.5825750000000003</v>
       </c>
-      <c r="AD40" s="23">
+      <c r="AD40" s="20">
         <v>235.976</v>
       </c>
       <c r="AE40" s="3">
@@ -5029,7 +5004,7 @@
       </c>
     </row>
     <row r="41" spans="1:31">
-      <c r="A41" s="13">
+      <c r="A41" s="12">
         <v>42095</v>
       </c>
       <c r="B41">
@@ -5110,13 +5085,13 @@
       <c r="AA41">
         <v>7.4</v>
       </c>
-      <c r="AB41" s="22">
+      <c r="AB41" s="19">
         <v>5381</v>
       </c>
-      <c r="AC41" s="14">
+      <c r="AC41" s="13">
         <v>8.1015460000000008</v>
       </c>
-      <c r="AD41" s="23">
+      <c r="AD41" s="20">
         <v>236.22200000000001</v>
       </c>
       <c r="AE41" s="3">
@@ -5125,7 +5100,7 @@
       </c>
     </row>
     <row r="42" spans="1:31">
-      <c r="A42" s="13">
+      <c r="A42" s="12">
         <v>42125</v>
       </c>
       <c r="B42">
@@ -5206,13 +5181,13 @@
       <c r="AA42">
         <v>7.5</v>
       </c>
-      <c r="AB42" s="22">
+      <c r="AB42" s="19">
         <v>3676</v>
       </c>
-      <c r="AC42" s="14">
+      <c r="AC42" s="13">
         <v>8.3621309999999998</v>
       </c>
-      <c r="AD42" s="23">
+      <c r="AD42" s="20">
         <v>237.001</v>
       </c>
       <c r="AE42" s="3">
@@ -5221,7 +5196,7 @@
       </c>
     </row>
     <row r="43" spans="1:31">
-      <c r="A43" s="13">
+      <c r="A43" s="12">
         <v>42156</v>
       </c>
       <c r="B43">
@@ -5302,13 +5277,13 @@
       <c r="AA43">
         <v>7.2</v>
       </c>
-      <c r="AB43" s="22">
+      <c r="AB43" s="19">
         <v>3511</v>
       </c>
-      <c r="AC43" s="14">
+      <c r="AC43" s="13">
         <v>9.109648</v>
       </c>
-      <c r="AD43" s="23">
+      <c r="AD43" s="20">
         <v>237.65700000000001</v>
       </c>
       <c r="AE43" s="3">
@@ -5317,7 +5292,7 @@
       </c>
     </row>
     <row r="44" spans="1:31">
-      <c r="A44" s="13">
+      <c r="A44" s="12">
         <v>42186</v>
       </c>
       <c r="B44">
@@ -5398,13 +5373,13 @@
       <c r="AA44">
         <v>6.5</v>
       </c>
-      <c r="AB44" s="22">
+      <c r="AB44" s="19">
         <v>4769</v>
       </c>
-      <c r="AC44" s="14">
+      <c r="AC44" s="13">
         <v>8.7393280000000004</v>
       </c>
-      <c r="AD44" s="23">
+      <c r="AD44" s="20">
         <v>238.03399999999999</v>
       </c>
       <c r="AE44" s="3">
@@ -5413,7 +5388,7 @@
       </c>
     </row>
     <row r="45" spans="1:31">
-      <c r="A45" s="13">
+      <c r="A45" s="12">
         <v>42217</v>
       </c>
       <c r="B45">
@@ -5494,13 +5469,13 @@
       <c r="AA45">
         <v>6.5</v>
       </c>
-      <c r="AB45" s="22">
+      <c r="AB45" s="19">
         <v>3591</v>
       </c>
-      <c r="AC45" s="14">
+      <c r="AC45" s="13">
         <v>9.2307679999999994</v>
       </c>
-      <c r="AD45" s="23">
+      <c r="AD45" s="20">
         <v>238.03299999999999</v>
       </c>
       <c r="AE45" s="3">
@@ -5509,7 +5484,7 @@
       </c>
     </row>
     <row r="46" spans="1:31">
-      <c r="A46" s="13">
+      <c r="A46" s="12">
         <v>42248</v>
       </c>
       <c r="B46">
@@ -5590,13 +5565,13 @@
       <c r="AA46">
         <v>7.2</v>
       </c>
-      <c r="AB46" s="22">
+      <c r="AB46" s="19">
         <v>3523</v>
       </c>
-      <c r="AC46" s="14">
+      <c r="AC46" s="13">
         <v>8.8837440000000001</v>
       </c>
-      <c r="AD46" s="23">
+      <c r="AD46" s="20">
         <v>237.49799999999999</v>
       </c>
       <c r="AE46" s="3">
@@ -5605,7 +5580,7 @@
       </c>
     </row>
     <row r="47" spans="1:31">
-      <c r="A47" s="13">
+      <c r="A47" s="12">
         <v>42278</v>
       </c>
       <c r="B47">
@@ -5686,13 +5661,13 @@
       <c r="AA47">
         <v>7.5</v>
       </c>
-      <c r="AB47" s="22">
+      <c r="AB47" s="19">
         <v>4795</v>
       </c>
-      <c r="AC47" s="14">
+      <c r="AC47" s="13">
         <v>8.6383290000000006</v>
       </c>
-      <c r="AD47" s="23">
+      <c r="AD47" s="20">
         <v>237.733</v>
       </c>
       <c r="AE47" s="3">
@@ -5701,7 +5676,7 @@
       </c>
     </row>
     <row r="48" spans="1:31">
-      <c r="A48" s="13">
+      <c r="A48" s="12">
         <v>42309</v>
       </c>
       <c r="B48">
@@ -5782,13 +5757,13 @@
       <c r="AA48">
         <v>7.6</v>
       </c>
-      <c r="AB48" s="22">
+      <c r="AB48" s="19">
         <v>3574</v>
       </c>
-      <c r="AC48" s="14">
+      <c r="AC48" s="13">
         <v>8.7619159999999994</v>
       </c>
-      <c r="AD48" s="23">
+      <c r="AD48" s="20">
         <v>238.017</v>
       </c>
       <c r="AE48" s="3">
@@ -5797,7 +5772,7 @@
       </c>
     </row>
     <row r="49" spans="1:31">
-      <c r="A49" s="13">
+      <c r="A49" s="12">
         <v>42339</v>
       </c>
       <c r="B49">
@@ -5878,13 +5853,13 @@
       <c r="AA49">
         <v>7.5</v>
       </c>
-      <c r="AB49" s="22">
+      <c r="AB49" s="19">
         <v>4161</v>
       </c>
-      <c r="AC49" s="14">
+      <c r="AC49" s="13">
         <v>11.053023</v>
       </c>
-      <c r="AD49" s="23">
+      <c r="AD49" s="20">
         <v>237.761</v>
       </c>
       <c r="AE49" s="3">
@@ -5893,7 +5868,7 @@
       </c>
     </row>
     <row r="50" spans="1:31">
-      <c r="A50" s="13">
+      <c r="A50" s="12">
         <v>42370</v>
       </c>
       <c r="B50">
@@ -5974,13 +5949,13 @@
       <c r="AA50">
         <v>7.4</v>
       </c>
-      <c r="AB50" s="22">
+      <c r="AB50" s="19">
         <v>8288</v>
       </c>
-      <c r="AC50" s="14">
+      <c r="AC50" s="13">
         <v>8.7946500000000007</v>
       </c>
-      <c r="AD50" s="23">
+      <c r="AD50" s="20">
         <v>237.65199999999999</v>
       </c>
       <c r="AE50" s="3">
@@ -5989,7 +5964,7 @@
       </c>
     </row>
     <row r="51" spans="1:31">
-      <c r="A51" s="13">
+      <c r="A51" s="12">
         <v>42401</v>
       </c>
       <c r="B51">
@@ -6070,13 +6045,13 @@
       <c r="AA51">
         <v>7.5</v>
       </c>
-      <c r="AB51" s="22">
+      <c r="AB51" s="19">
         <v>4613</v>
       </c>
-      <c r="AC51" s="14">
+      <c r="AC51" s="13">
         <v>7.945983</v>
       </c>
-      <c r="AD51" s="23">
+      <c r="AD51" s="20">
         <v>237.33600000000001</v>
       </c>
       <c r="AE51" s="3">
@@ -6085,7 +6060,7 @@
       </c>
     </row>
     <row r="52" spans="1:31">
-      <c r="A52" s="13">
+      <c r="A52" s="12">
         <v>42430</v>
       </c>
       <c r="B52">
@@ -6166,13 +6141,13 @@
       <c r="AA52">
         <v>7.6</v>
       </c>
-      <c r="AB52" s="22">
+      <c r="AB52" s="19">
         <v>5406</v>
       </c>
-      <c r="AC52" s="14">
+      <c r="AC52" s="13">
         <v>8.6777759999999997</v>
       </c>
-      <c r="AD52" s="23">
+      <c r="AD52" s="20">
         <v>238.08</v>
       </c>
       <c r="AE52" s="3">
@@ -6181,7 +6156,7 @@
       </c>
     </row>
     <row r="53" spans="1:31">
-      <c r="A53" s="13">
+      <c r="A53" s="12">
         <v>42461</v>
       </c>
       <c r="B53">
@@ -6262,13 +6237,13 @@
       <c r="AA53">
         <v>7.6</v>
       </c>
-      <c r="AB53" s="22">
+      <c r="AB53" s="19">
         <v>5120</v>
       </c>
-      <c r="AC53" s="14">
+      <c r="AC53" s="13">
         <v>8.5269399999999997</v>
       </c>
-      <c r="AD53" s="23">
+      <c r="AD53" s="20">
         <v>238.99199999999999</v>
       </c>
       <c r="AE53" s="3">
@@ -6277,7 +6252,7 @@
       </c>
     </row>
     <row r="54" spans="1:31">
-      <c r="A54" s="13">
+      <c r="A54" s="12">
         <v>42491</v>
       </c>
       <c r="B54">
@@ -6358,13 +6333,13 @@
       <c r="AA54">
         <v>7.6</v>
       </c>
-      <c r="AB54" s="22">
+      <c r="AB54" s="19">
         <v>4039</v>
       </c>
-      <c r="AC54" s="14">
+      <c r="AC54" s="13">
         <v>9.0729059999999997</v>
       </c>
-      <c r="AD54" s="23">
+      <c r="AD54" s="20">
         <v>239.55699999999999</v>
       </c>
       <c r="AE54" s="3">
@@ -6373,7 +6348,7 @@
       </c>
     </row>
     <row r="55" spans="1:31">
-      <c r="A55" s="13">
+      <c r="A55" s="12">
         <v>42522</v>
       </c>
       <c r="B55">
@@ -6454,13 +6429,13 @@
       <c r="AA55">
         <v>7.3</v>
       </c>
-      <c r="AB55" s="22">
+      <c r="AB55" s="19">
         <v>3890</v>
       </c>
-      <c r="AC55" s="14">
+      <c r="AC55" s="13">
         <v>9.5698589999999992</v>
       </c>
-      <c r="AD55" s="23">
+      <c r="AD55" s="20">
         <v>240.22200000000001</v>
       </c>
       <c r="AE55" s="3">
@@ -6469,7 +6444,7 @@
       </c>
     </row>
     <row r="56" spans="1:31">
-      <c r="A56" s="13">
+      <c r="A56" s="12">
         <v>42552</v>
       </c>
       <c r="B56">
@@ -6550,13 +6525,13 @@
       <c r="AA56">
         <v>6.5</v>
       </c>
-      <c r="AB56" s="22">
+      <c r="AB56" s="19">
         <v>5211</v>
       </c>
-      <c r="AC56" s="14">
+      <c r="AC56" s="13">
         <v>8.8720750000000006</v>
       </c>
-      <c r="AD56" s="23">
+      <c r="AD56" s="20">
         <v>240.101</v>
       </c>
       <c r="AE56" s="3">
@@ -6565,7 +6540,7 @@
       </c>
     </row>
     <row r="57" spans="1:31">
-      <c r="A57" s="13">
+      <c r="A57" s="12">
         <v>42583</v>
       </c>
       <c r="B57">
@@ -6646,13 +6621,13 @@
       <c r="AA57">
         <v>6.6</v>
       </c>
-      <c r="AB57" s="22">
+      <c r="AB57" s="19">
         <v>4045</v>
       </c>
-      <c r="AC57" s="14">
+      <c r="AC57" s="13">
         <v>9.6342630000000007</v>
       </c>
-      <c r="AD57" s="23">
+      <c r="AD57" s="20">
         <v>240.54499999999999</v>
       </c>
       <c r="AE57" s="3">
@@ -6661,7 +6636,7 @@
       </c>
     </row>
     <row r="58" spans="1:31">
-      <c r="A58" s="13">
+      <c r="A58" s="12">
         <v>42614</v>
       </c>
       <c r="B58">
@@ -6742,13 +6717,13 @@
       <c r="AA58">
         <v>7.2</v>
       </c>
-      <c r="AB58" s="22">
+      <c r="AB58" s="19">
         <v>3989</v>
       </c>
-      <c r="AC58" s="14">
+      <c r="AC58" s="13">
         <v>9.291093</v>
       </c>
-      <c r="AD58" s="23">
+      <c r="AD58" s="20">
         <v>241.17599999999999</v>
       </c>
       <c r="AE58" s="3">
@@ -6757,7 +6732,7 @@
       </c>
     </row>
     <row r="59" spans="1:31">
-      <c r="A59" s="13">
+      <c r="A59" s="12">
         <v>42644</v>
       </c>
       <c r="B59">
@@ -6838,13 +6813,13 @@
       <c r="AA59">
         <v>7.6</v>
       </c>
-      <c r="AB59" s="22">
+      <c r="AB59" s="19">
         <v>5332</v>
       </c>
-      <c r="AC59" s="14">
+      <c r="AC59" s="13">
         <v>8.8410229999999999</v>
       </c>
-      <c r="AD59" s="23">
+      <c r="AD59" s="20">
         <v>241.74100000000001</v>
       </c>
       <c r="AE59" s="3">
@@ -6853,7 +6828,7 @@
       </c>
     </row>
     <row r="60" spans="1:31">
-      <c r="A60" s="13">
+      <c r="A60" s="12">
         <v>42675</v>
       </c>
       <c r="B60">
@@ -6934,13 +6909,13 @@
       <c r="AA60">
         <v>7.6</v>
       </c>
-      <c r="AB60" s="22">
+      <c r="AB60" s="19">
         <v>4640</v>
       </c>
-      <c r="AC60" s="14">
+      <c r="AC60" s="13">
         <v>9.0353379999999994</v>
       </c>
-      <c r="AD60" s="23">
+      <c r="AD60" s="20">
         <v>242.02600000000001</v>
       </c>
       <c r="AE60" s="3">
@@ -6949,7 +6924,7 @@
       </c>
     </row>
     <row r="61" spans="1:31">
-      <c r="A61" s="13">
+      <c r="A61" s="12">
         <v>42705</v>
       </c>
       <c r="B61">
@@ -7030,13 +7005,13 @@
       <c r="AA61">
         <v>7.6</v>
       </c>
-      <c r="AB61" s="22">
+      <c r="AB61" s="19">
         <v>4365</v>
       </c>
-      <c r="AC61" s="14">
+      <c r="AC61" s="13">
         <v>11.467687</v>
       </c>
-      <c r="AD61" s="23">
+      <c r="AD61" s="20">
         <v>242.637</v>
       </c>
       <c r="AE61" s="3">
@@ -7045,7 +7020,7 @@
       </c>
     </row>
     <row r="62" spans="1:31">
-      <c r="A62" s="13">
+      <c r="A62" s="12">
         <v>42736</v>
       </c>
       <c r="B62">
@@ -7126,13 +7101,13 @@
       <c r="AA62">
         <v>7.5</v>
       </c>
-      <c r="AB62" s="22">
+      <c r="AB62" s="19">
         <v>9083</v>
       </c>
-      <c r="AC62" s="14">
+      <c r="AC62" s="13">
         <v>8.1463640000000002</v>
       </c>
-      <c r="AD62" s="23">
+      <c r="AD62" s="20">
         <v>243.61799999999999</v>
       </c>
       <c r="AE62" s="3">
@@ -7141,7 +7116,7 @@
       </c>
     </row>
     <row r="63" spans="1:31">
-      <c r="A63" s="13">
+      <c r="A63" s="12">
         <v>42767</v>
       </c>
       <c r="B63">
@@ -7222,13 +7197,13 @@
       <c r="AA63">
         <v>7.6</v>
       </c>
-      <c r="AB63" s="22">
+      <c r="AB63" s="19">
         <v>5189</v>
       </c>
-      <c r="AC63" s="14">
+      <c r="AC63" s="13">
         <v>7.8784510000000001</v>
       </c>
-      <c r="AD63" s="23">
+      <c r="AD63" s="20">
         <v>244.006</v>
       </c>
       <c r="AE63" s="3">
@@ -7237,7 +7212,7 @@
       </c>
     </row>
     <row r="64" spans="1:31">
-      <c r="A64" s="13">
+      <c r="A64" s="12">
         <v>42795</v>
       </c>
       <c r="B64">
@@ -7318,13 +7293,13 @@
       <c r="AA64">
         <v>7.7</v>
       </c>
-      <c r="AB64" s="22">
+      <c r="AB64" s="19">
         <v>3648</v>
       </c>
-      <c r="AC64" s="14">
+      <c r="AC64" s="13">
         <v>9.2031749999999999</v>
       </c>
-      <c r="AD64" s="23">
+      <c r="AD64" s="20">
         <v>243.892</v>
       </c>
       <c r="AE64" s="3">
@@ -7333,7 +7308,7 @@
       </c>
     </row>
     <row r="65" spans="1:31">
-      <c r="A65" s="13">
+      <c r="A65" s="12">
         <v>42826</v>
       </c>
       <c r="B65">
@@ -7414,13 +7389,13 @@
       <c r="AA65">
         <v>7.6</v>
       </c>
-      <c r="AB65" s="22">
+      <c r="AB65" s="19">
         <v>5077</v>
       </c>
-      <c r="AC65" s="14">
+      <c r="AC65" s="13">
         <v>8.7948160000000009</v>
       </c>
-      <c r="AD65" s="23">
+      <c r="AD65" s="20">
         <v>244.19300000000001</v>
       </c>
       <c r="AE65" s="3">
@@ -7429,7 +7404,7 @@
       </c>
     </row>
     <row r="66" spans="1:31">
-      <c r="A66" s="13">
+      <c r="A66" s="12">
         <v>42856</v>
       </c>
       <c r="B66">
@@ -7510,13 +7485,13 @@
       <c r="AA66">
         <v>7.7</v>
       </c>
-      <c r="AB66" s="22">
+      <c r="AB66" s="19">
         <v>3396</v>
       </c>
-      <c r="AC66" s="14">
+      <c r="AC66" s="13">
         <v>9.2355509999999992</v>
       </c>
-      <c r="AD66" s="23">
+      <c r="AD66" s="20">
         <v>244.00399999999999</v>
       </c>
       <c r="AE66" s="3">
@@ -7525,7 +7500,7 @@
       </c>
     </row>
     <row r="67" spans="1:31">
-      <c r="A67" s="13">
+      <c r="A67" s="12">
         <v>42887</v>
       </c>
       <c r="B67">
@@ -7606,13 +7581,13 @@
       <c r="AA67">
         <v>7.4</v>
       </c>
-      <c r="AB67" s="22">
+      <c r="AB67" s="19">
         <v>3307</v>
       </c>
-      <c r="AC67" s="14">
+      <c r="AC67" s="13">
         <v>9.9169920000000005</v>
       </c>
-      <c r="AD67" s="23">
+      <c r="AD67" s="20">
         <v>244.16300000000001</v>
       </c>
       <c r="AE67" s="3">
@@ -7621,7 +7596,7 @@
       </c>
     </row>
     <row r="68" spans="1:31">
-      <c r="A68" s="13">
+      <c r="A68" s="12">
         <v>42917</v>
       </c>
       <c r="B68">
@@ -7702,13 +7677,13 @@
       <c r="AA68">
         <v>6.6</v>
       </c>
-      <c r="AB68" s="22">
+      <c r="AB68" s="19">
         <v>5122</v>
       </c>
-      <c r="AC68" s="14">
+      <c r="AC68" s="13">
         <v>9.1996099999999998</v>
       </c>
-      <c r="AD68" s="23">
+      <c r="AD68" s="20">
         <v>244.24299999999999</v>
       </c>
       <c r="AE68" s="3">
@@ -7717,7 +7692,7 @@
       </c>
     </row>
     <row r="69" spans="1:31">
-      <c r="A69" s="13">
+      <c r="A69" s="12">
         <v>42948</v>
       </c>
       <c r="B69">
@@ -7798,13 +7773,13 @@
       <c r="AA69">
         <v>6.6</v>
       </c>
-      <c r="AB69" s="22">
+      <c r="AB69" s="19">
         <v>3422</v>
       </c>
-      <c r="AC69" s="14">
+      <c r="AC69" s="13">
         <v>9.9303950000000007</v>
       </c>
-      <c r="AD69" s="23">
+      <c r="AD69" s="20">
         <v>245.18299999999999</v>
       </c>
       <c r="AE69" s="3">
@@ -7813,7 +7788,7 @@
       </c>
     </row>
     <row r="70" spans="1:31">
-      <c r="A70" s="13">
+      <c r="A70" s="12">
         <v>42979</v>
       </c>
       <c r="B70">
@@ -7894,13 +7869,13 @@
       <c r="AA70">
         <v>7.3</v>
       </c>
-      <c r="AB70" s="22">
+      <c r="AB70" s="19">
         <v>3312</v>
       </c>
-      <c r="AC70" s="14">
+      <c r="AC70" s="13">
         <v>9.9543529999999993</v>
       </c>
-      <c r="AD70" s="23">
+      <c r="AD70" s="20">
         <v>246.435</v>
       </c>
       <c r="AE70" s="3">
@@ -7909,7 +7884,7 @@
       </c>
     </row>
     <row r="71" spans="1:31">
-      <c r="A71" s="13">
+      <c r="A71" s="12">
         <v>43009</v>
       </c>
       <c r="B71">
@@ -7990,13 +7965,13 @@
       <c r="AA71">
         <v>7.6</v>
       </c>
-      <c r="AB71" s="22">
+      <c r="AB71" s="19">
         <v>5161</v>
       </c>
-      <c r="AC71" s="14">
+      <c r="AC71" s="13">
         <v>9.1690819999999995</v>
       </c>
-      <c r="AD71" s="23">
+      <c r="AD71" s="20">
         <v>246.626</v>
       </c>
       <c r="AE71" s="3">
@@ -8005,7 +7980,7 @@
       </c>
     </row>
     <row r="72" spans="1:31">
-      <c r="A72" s="13">
+      <c r="A72" s="12">
         <v>43040</v>
       </c>
       <c r="B72">
@@ -8086,13 +8061,13 @@
       <c r="AA72">
         <v>7.6</v>
       </c>
-      <c r="AB72" s="22">
+      <c r="AB72" s="19">
         <v>3419</v>
       </c>
-      <c r="AC72" s="14">
+      <c r="AC72" s="13">
         <v>9.2168259999999993</v>
       </c>
-      <c r="AD72" s="23">
+      <c r="AD72" s="20">
         <v>247.28399999999999</v>
       </c>
       <c r="AE72" s="3">
@@ -8101,7 +8076,7 @@
       </c>
     </row>
     <row r="73" spans="1:31">
-      <c r="A73" s="13">
+      <c r="A73" s="12">
         <v>43070</v>
       </c>
       <c r="B73">
@@ -8182,13 +8157,13 @@
       <c r="AA73">
         <v>7.5</v>
       </c>
-      <c r="AB73" s="22">
+      <c r="AB73" s="19">
         <v>4042</v>
       </c>
-      <c r="AC73" s="14">
+      <c r="AC73" s="13">
         <v>12.052066</v>
       </c>
-      <c r="AD73" s="23">
+      <c r="AD73" s="20">
         <v>247.80500000000001</v>
       </c>
       <c r="AE73" s="3">
@@ -8197,7 +8172,7 @@
       </c>
     </row>
     <row r="74" spans="1:31">
-      <c r="A74" s="13">
+      <c r="A74" s="12">
         <v>43101</v>
       </c>
       <c r="B74">
@@ -8278,13 +8253,13 @@
       <c r="AA74">
         <v>7.4</v>
       </c>
-      <c r="AB74" s="22">
+      <c r="AB74" s="19">
         <v>9305</v>
       </c>
-      <c r="AC74" s="14">
+      <c r="AC74" s="13">
         <v>8.6507190000000005</v>
       </c>
-      <c r="AD74" s="23">
+      <c r="AD74" s="20">
         <v>248.85900000000001</v>
       </c>
       <c r="AE74" s="3">
@@ -8293,7 +8268,7 @@
       </c>
     </row>
     <row r="75" spans="1:31">
-      <c r="A75" s="13">
+      <c r="A75" s="12">
         <v>43132</v>
       </c>
       <c r="B75">
@@ -8374,13 +8349,13 @@
       <c r="AA75">
         <v>7.6</v>
       </c>
-      <c r="AB75" s="22">
+      <c r="AB75" s="19">
         <v>3934</v>
       </c>
-      <c r="AC75" s="14">
+      <c r="AC75" s="13">
         <v>8.1026520000000009</v>
       </c>
-      <c r="AD75" s="23">
+      <c r="AD75" s="20">
         <v>249.529</v>
       </c>
       <c r="AE75" s="3">
@@ -8389,7 +8364,7 @@
       </c>
     </row>
     <row r="76" spans="1:31">
-      <c r="A76" s="13">
+      <c r="A76" s="12">
         <v>43160</v>
       </c>
       <c r="B76">
@@ -8470,13 +8445,13 @@
       <c r="AA76">
         <v>7.7</v>
       </c>
-      <c r="AB76" s="22">
+      <c r="AB76" s="19">
         <v>3751</v>
       </c>
-      <c r="AC76" s="14">
+      <c r="AC76" s="13">
         <v>9.7316319999999994</v>
       </c>
-      <c r="AD76" s="23">
+      <c r="AD76" s="20">
         <v>249.577</v>
       </c>
       <c r="AE76" s="3">
@@ -8485,7 +8460,7 @@
       </c>
     </row>
     <row r="77" spans="1:31">
-      <c r="A77" s="13">
+      <c r="A77" s="12">
         <v>43191</v>
       </c>
       <c r="B77">
@@ -8566,13 +8541,13 @@
       <c r="AA77">
         <v>7.5</v>
       </c>
-      <c r="AB77" s="22">
+      <c r="AB77" s="19">
         <v>5326</v>
       </c>
-      <c r="AC77" s="14">
+      <c r="AC77" s="13">
         <v>9.0034890000000001</v>
       </c>
-      <c r="AD77" s="23">
+      <c r="AD77" s="20">
         <v>250.227</v>
       </c>
       <c r="AE77" s="3">
@@ -8581,7 +8556,7 @@
       </c>
     </row>
     <row r="78" spans="1:31">
-      <c r="A78" s="13">
+      <c r="A78" s="12">
         <v>43221</v>
       </c>
       <c r="B78">
@@ -8662,13 +8637,13 @@
       <c r="AA78">
         <v>7.6</v>
       </c>
-      <c r="AB78" s="22">
+      <c r="AB78" s="19">
         <v>3564</v>
       </c>
-      <c r="AC78" s="14">
+      <c r="AC78" s="13">
         <v>9.6109639999999992</v>
       </c>
-      <c r="AD78" s="23">
+      <c r="AD78" s="20">
         <v>250.792</v>
       </c>
       <c r="AE78" s="3">
@@ -8677,7 +8652,7 @@
       </c>
     </row>
     <row r="79" spans="1:31">
-      <c r="A79" s="13">
+      <c r="A79" s="12">
         <v>43252</v>
       </c>
       <c r="B79">
@@ -8758,13 +8733,13 @@
       <c r="AA79">
         <v>7.6</v>
       </c>
-      <c r="AB79" s="22">
+      <c r="AB79" s="19">
         <v>3423</v>
       </c>
-      <c r="AC79" s="14">
+      <c r="AC79" s="13">
         <v>10.379725000000001</v>
       </c>
-      <c r="AD79" s="23">
+      <c r="AD79" s="20">
         <v>251.018</v>
       </c>
       <c r="AE79" s="3">
@@ -8773,7 +8748,7 @@
       </c>
     </row>
     <row r="80" spans="1:31">
-      <c r="A80" s="13">
+      <c r="A80" s="12">
         <v>43282</v>
       </c>
       <c r="B80">
@@ -8854,13 +8829,13 @@
       <c r="AA80">
         <v>6.5</v>
       </c>
-      <c r="AB80" s="22">
+      <c r="AB80" s="19">
         <v>5602</v>
       </c>
-      <c r="AC80" s="14">
+      <c r="AC80" s="13">
         <v>9.654776</v>
       </c>
-      <c r="AD80" s="23">
+      <c r="AD80" s="20">
         <v>251.214</v>
       </c>
       <c r="AE80" s="3">
@@ -8869,7 +8844,7 @@
       </c>
     </row>
     <row r="81" spans="1:31">
-      <c r="A81" s="13">
+      <c r="A81" s="12">
         <v>43313</v>
       </c>
       <c r="B81">
@@ -8950,13 +8925,13 @@
       <c r="AA81">
         <v>6.8</v>
       </c>
-      <c r="AB81" s="22">
+      <c r="AB81" s="19">
         <v>3801</v>
       </c>
-      <c r="AC81" s="14">
+      <c r="AC81" s="13">
         <v>10.181628999999999</v>
       </c>
-      <c r="AD81" s="23">
+      <c r="AD81" s="20">
         <v>251.66300000000001</v>
       </c>
       <c r="AE81" s="3">
@@ -8965,7 +8940,7 @@
       </c>
     </row>
     <row r="82" spans="1:31">
-      <c r="A82" s="13">
+      <c r="A82" s="12">
         <v>43344</v>
       </c>
       <c r="B82">
@@ -9046,13 +9021,13 @@
       <c r="AA82">
         <v>7.3</v>
       </c>
-      <c r="AB82" s="22">
+      <c r="AB82" s="19">
         <v>3425</v>
       </c>
-      <c r="AC82" s="14">
+      <c r="AC82" s="13">
         <v>10.070069999999999</v>
       </c>
-      <c r="AD82" s="23">
+      <c r="AD82" s="20">
         <v>252.18199999999999</v>
       </c>
       <c r="AE82" s="3">
@@ -9061,7 +9036,7 @@
       </c>
     </row>
     <row r="83" spans="1:31">
-      <c r="A83" s="13">
+      <c r="A83" s="12">
         <v>43374</v>
       </c>
       <c r="B83">
@@ -9142,13 +9117,13 @@
       <c r="AA83">
         <v>7.5</v>
       </c>
-      <c r="AB83" s="22">
+      <c r="AB83" s="19">
         <v>5496</v>
       </c>
-      <c r="AC83" s="14">
+      <c r="AC83" s="13">
         <v>9.4115579999999994</v>
       </c>
-      <c r="AD83" s="23">
+      <c r="AD83" s="20">
         <v>252.77199999999999</v>
       </c>
       <c r="AE83" s="3">
@@ -9157,7 +9132,7 @@
       </c>
     </row>
     <row r="84" spans="1:31">
-      <c r="A84" s="13">
+      <c r="A84" s="12">
         <v>43405</v>
       </c>
       <c r="B84">
@@ -9238,13 +9213,13 @@
       <c r="AA84">
         <v>7.6</v>
       </c>
-      <c r="AB84" s="22">
+      <c r="AB84" s="19">
         <v>3424</v>
       </c>
-      <c r="AC84" s="14">
+      <c r="AC84" s="13">
         <v>9.4528339999999993</v>
       </c>
-      <c r="AD84" s="23">
+      <c r="AD84" s="20">
         <v>252.59399999999999</v>
       </c>
       <c r="AE84" s="3">
@@ -9253,7 +9228,7 @@
       </c>
     </row>
     <row r="85" spans="1:31">
-      <c r="A85" s="13">
+      <c r="A85" s="12">
         <v>43435</v>
       </c>
       <c r="B85">
@@ -9334,13 +9309,13 @@
       <c r="AA85">
         <v>7.6</v>
       </c>
-      <c r="AB85" s="22">
+      <c r="AB85" s="19">
         <v>3872</v>
       </c>
-      <c r="AC85" s="14">
+      <c r="AC85" s="13">
         <v>12.301518</v>
       </c>
-      <c r="AD85" s="23">
+      <c r="AD85" s="20">
         <v>252.767</v>
       </c>
       <c r="AE85" s="3">
@@ -9349,7 +9324,7 @@
       </c>
     </row>
     <row r="86" spans="1:31">
-      <c r="A86" s="13">
+      <c r="A86" s="12">
         <v>43466</v>
       </c>
       <c r="B86">
@@ -9430,13 +9405,13 @@
       <c r="AA86">
         <v>7.5</v>
       </c>
-      <c r="AB86" s="22">
+      <c r="AB86" s="19">
         <v>10336</v>
       </c>
-      <c r="AC86" s="14">
+      <c r="AC86" s="13">
         <v>8.6265719999999995</v>
       </c>
-      <c r="AD86" s="23">
+      <c r="AD86" s="20">
         <v>252.56100000000001</v>
       </c>
       <c r="AE86" s="3">
@@ -9445,7 +9420,7 @@
       </c>
     </row>
     <row r="87" spans="1:31">
-      <c r="A87" s="13">
+      <c r="A87" s="12">
         <v>43497</v>
       </c>
       <c r="B87">
@@ -9526,13 +9501,13 @@
       <c r="AA87">
         <v>7.7</v>
       </c>
-      <c r="AB87" s="22">
+      <c r="AB87" s="19">
         <v>3751</v>
       </c>
-      <c r="AC87" s="14">
+      <c r="AC87" s="13">
         <v>8.4558949999999999</v>
       </c>
-      <c r="AD87" s="23">
+      <c r="AD87" s="20">
         <v>253.31899999999999</v>
       </c>
       <c r="AE87" s="3">
@@ -9541,7 +9516,7 @@
       </c>
     </row>
     <row r="88" spans="1:31">
-      <c r="A88" s="13">
+      <c r="A88" s="12">
         <v>43525</v>
       </c>
       <c r="B88">
@@ -9622,13 +9597,13 @@
       <c r="AA88">
         <v>7.8</v>
       </c>
-      <c r="AB88" s="22">
+      <c r="AB88" s="19">
         <v>3661</v>
       </c>
-      <c r="AC88" s="14">
+      <c r="AC88" s="13">
         <v>9.7691739999999996</v>
       </c>
-      <c r="AD88" s="23">
+      <c r="AD88" s="20">
         <v>254.27699999999999</v>
       </c>
       <c r="AE88" s="3">
@@ -9637,7 +9612,7 @@
       </c>
     </row>
     <row r="89" spans="1:31">
-      <c r="A89" s="13">
+      <c r="A89" s="12">
         <v>43556</v>
       </c>
       <c r="B89">
@@ -9718,13 +9693,13 @@
       <c r="AA89">
         <v>7.7</v>
       </c>
-      <c r="AB89" s="22">
+      <c r="AB89" s="19">
         <v>6052</v>
       </c>
-      <c r="AC89" s="14">
+      <c r="AC89" s="13">
         <v>9.3290780000000009</v>
       </c>
-      <c r="AD89" s="23">
+      <c r="AD89" s="20">
         <v>255.233</v>
       </c>
       <c r="AE89" s="3">
@@ -9733,7 +9708,7 @@
       </c>
     </row>
     <row r="90" spans="1:31">
-      <c r="A90" s="13">
+      <c r="A90" s="12">
         <v>43586</v>
       </c>
       <c r="B90">
@@ -9814,13 +9789,13 @@
       <c r="AA90">
         <v>7.8</v>
       </c>
-      <c r="AB90" s="22">
+      <c r="AB90" s="19">
         <v>3661</v>
       </c>
-      <c r="AC90" s="14">
+      <c r="AC90" s="13">
         <v>9.7852720000000009</v>
       </c>
-      <c r="AD90" s="23">
+      <c r="AD90" s="20">
         <v>255.29599999999999</v>
       </c>
       <c r="AE90" s="3">
@@ -9829,7 +9804,7 @@
       </c>
     </row>
     <row r="91" spans="1:31">
-      <c r="A91" s="13">
+      <c r="A91" s="12">
         <v>43617</v>
       </c>
       <c r="B91">
@@ -9910,13 +9885,13 @@
       <c r="AA91">
         <v>7.6</v>
       </c>
-      <c r="AB91" s="22">
+      <c r="AB91" s="19">
         <v>3471</v>
       </c>
-      <c r="AC91" s="14">
+      <c r="AC91" s="13">
         <v>10.638681</v>
       </c>
-      <c r="AD91" s="23">
+      <c r="AD91" s="20">
         <v>255.21299999999999</v>
       </c>
       <c r="AE91" s="3">
@@ -9925,7 +9900,7 @@
       </c>
     </row>
     <row r="92" spans="1:31">
-      <c r="A92" s="13">
+      <c r="A92" s="12">
         <v>43647</v>
       </c>
       <c r="B92">
@@ -10006,13 +9981,13 @@
       <c r="AA92">
         <v>6.8</v>
       </c>
-      <c r="AB92" s="22">
+      <c r="AB92" s="19">
         <v>5963</v>
       </c>
-      <c r="AC92" s="14">
+      <c r="AC92" s="13">
         <v>10.002262</v>
       </c>
-      <c r="AD92" s="23">
+      <c r="AD92" s="20">
         <v>255.80199999999999</v>
       </c>
       <c r="AE92" s="3">
@@ -10021,7 +9996,7 @@
       </c>
     </row>
     <row r="93" spans="1:31">
-      <c r="A93" s="13">
+      <c r="A93" s="12">
         <v>43678</v>
       </c>
       <c r="B93">
@@ -10102,13 +10077,13 @@
       <c r="AA93">
         <v>6.8</v>
       </c>
-      <c r="AB93" s="22">
+      <c r="AB93" s="19">
         <v>3787</v>
       </c>
-      <c r="AC93" s="14">
+      <c r="AC93" s="13">
         <v>10.557762</v>
       </c>
-      <c r="AD93" s="23">
+      <c r="AD93" s="20">
         <v>256.036</v>
       </c>
       <c r="AE93" s="3">
@@ -10117,7 +10092,7 @@
       </c>
     </row>
     <row r="94" spans="1:31">
-      <c r="A94" s="13">
+      <c r="A94" s="12">
         <v>43709</v>
       </c>
       <c r="B94">
@@ -10198,13 +10173,13 @@
       <c r="AA94">
         <v>7.5</v>
       </c>
-      <c r="AB94" s="22">
+      <c r="AB94" s="19">
         <v>3570</v>
       </c>
-      <c r="AC94" s="14">
+      <c r="AC94" s="13">
         <v>10.640438</v>
       </c>
-      <c r="AD94" s="23">
+      <c r="AD94" s="20">
         <v>256.43</v>
       </c>
       <c r="AE94" s="3">
@@ -10213,7 +10188,7 @@
       </c>
     </row>
     <row r="95" spans="1:31">
-      <c r="A95" s="13">
+      <c r="A95" s="12">
         <v>43739</v>
       </c>
       <c r="B95">
@@ -10294,13 +10269,13 @@
       <c r="AA95">
         <v>7.8</v>
       </c>
-      <c r="AB95" s="22">
+      <c r="AB95" s="19">
         <v>6232</v>
       </c>
-      <c r="AC95" s="14">
+      <c r="AC95" s="13">
         <v>9.7515560000000008</v>
       </c>
-      <c r="AD95" s="23">
+      <c r="AD95" s="20">
         <v>257.15499999999997</v>
       </c>
       <c r="AE95" s="3">
@@ -10309,7 +10284,7 @@
       </c>
     </row>
     <row r="96" spans="1:31">
-      <c r="A96" s="13">
+      <c r="A96" s="12">
         <v>43770</v>
       </c>
       <c r="B96">
@@ -10390,13 +10365,13 @@
       <c r="AA96">
         <v>7.8</v>
       </c>
-      <c r="AB96" s="22">
+      <c r="AB96" s="19">
         <v>3559</v>
       </c>
-      <c r="AC96" s="14">
+      <c r="AC96" s="13">
         <v>9.832516</v>
       </c>
-      <c r="AD96" s="23">
+      <c r="AD96" s="20">
         <v>257.87900000000002</v>
       </c>
       <c r="AE96" s="3">
@@ -10405,7 +10380,7 @@
       </c>
     </row>
     <row r="97" spans="1:31">
-      <c r="A97" s="13">
+      <c r="A97" s="12">
         <v>43800</v>
       </c>
       <c r="B97">
@@ -10486,13 +10461,13 @@
       <c r="AA97">
         <v>7.9</v>
       </c>
-      <c r="AB97" s="22">
+      <c r="AB97" s="19">
         <v>3989</v>
       </c>
-      <c r="AC97" s="14">
+      <c r="AC97" s="13">
         <v>13.246840000000001</v>
       </c>
-      <c r="AD97" s="23">
+      <c r="AD97" s="20">
         <v>258.63</v>
       </c>
       <c r="AE97" s="3">
@@ -10501,7 +10476,7 @@
       </c>
     </row>
     <row r="98" spans="1:31">
-      <c r="A98" s="13">
+      <c r="A98" s="12">
         <v>43831</v>
       </c>
       <c r="B98">
@@ -10582,13 +10557,13 @@
       <c r="AA98">
         <v>7.8</v>
       </c>
-      <c r="AB98" s="22">
+      <c r="AB98" s="19">
         <v>10520</v>
       </c>
-      <c r="AC98" s="14">
+      <c r="AC98" s="13">
         <v>8.8617659999999994</v>
       </c>
-      <c r="AD98" s="23">
+      <c r="AD98" s="20">
         <v>259.12700000000001</v>
       </c>
       <c r="AE98" s="3">
@@ -10597,7 +10572,7 @@
       </c>
     </row>
     <row r="99" spans="1:31">
-      <c r="A99" s="13">
+      <c r="A99" s="12">
         <v>43862</v>
       </c>
       <c r="B99">
@@ -10678,13 +10653,13 @@
       <c r="AA99">
         <v>8</v>
       </c>
-      <c r="AB99" s="22">
+      <c r="AB99" s="19">
         <v>3889</v>
       </c>
-      <c r="AC99" s="14">
+      <c r="AC99" s="13">
         <v>8.4594799999999992</v>
       </c>
-      <c r="AD99" s="23">
+      <c r="AD99" s="20">
         <v>259.25</v>
       </c>
       <c r="AE99" s="3">
@@ -10693,7 +10668,7 @@
       </c>
     </row>
     <row r="100" spans="1:31">
-      <c r="A100" s="13">
+      <c r="A100" s="12">
         <v>43891</v>
       </c>
       <c r="B100">
@@ -10774,13 +10749,13 @@
       <c r="AA100">
         <v>8.1</v>
       </c>
-      <c r="AB100" s="22">
+      <c r="AB100" s="19">
         <v>3501</v>
       </c>
-      <c r="AC100" s="14">
+      <c r="AC100" s="13">
         <v>8.9228020000000008</v>
       </c>
-      <c r="AD100" s="23">
+      <c r="AD100" s="20">
         <v>258.07600000000002</v>
       </c>
       <c r="AE100" s="3">
@@ -10789,7 +10764,7 @@
       </c>
     </row>
     <row r="101" spans="1:31">
-      <c r="A101" s="13">
+      <c r="A101" s="12">
         <v>43922</v>
       </c>
       <c r="B101">
@@ -10870,13 +10845,13 @@
       <c r="AA101">
         <v>7.4</v>
       </c>
-      <c r="AB101" s="22">
+      <c r="AB101" s="19">
         <v>5714</v>
       </c>
-      <c r="AC101" s="14">
+      <c r="AC101" s="13">
         <v>7.1625759999999996</v>
       </c>
-      <c r="AD101" s="23">
+      <c r="AD101" s="20">
         <v>256.03199999999998</v>
       </c>
       <c r="AE101" s="3">
@@ -10885,7 +10860,7 @@
       </c>
     </row>
     <row r="102" spans="1:31">
-      <c r="A102" s="13">
+      <c r="A102" s="12">
         <v>43952</v>
       </c>
       <c r="B102">
@@ -10966,13 +10941,13 @@
       <c r="AA102">
         <v>7.1</v>
       </c>
-      <c r="AB102" s="22">
+      <c r="AB102" s="19">
         <v>3655</v>
       </c>
-      <c r="AC102" s="14">
+      <c r="AC102" s="13">
         <v>9.1332889999999995</v>
       </c>
-      <c r="AD102" s="23">
+      <c r="AD102" s="20">
         <v>255.80199999999999</v>
       </c>
       <c r="AE102" s="3">
@@ -10981,7 +10956,7 @@
       </c>
     </row>
     <row r="103" spans="1:31">
-      <c r="A103" s="13">
+      <c r="A103" s="12">
         <v>43983</v>
       </c>
       <c r="B103">
@@ -11062,13 +11037,13 @@
       <c r="AA103">
         <v>6.9</v>
       </c>
-      <c r="AB103" s="22">
+      <c r="AB103" s="19">
         <v>3643</v>
       </c>
-      <c r="AC103" s="14">
+      <c r="AC103" s="13">
         <v>10.234047</v>
       </c>
-      <c r="AD103" s="23">
+      <c r="AD103" s="20">
         <v>257.04199999999997</v>
       </c>
       <c r="AE103" s="3">
@@ -11077,7 +11052,7 @@
       </c>
     </row>
     <row r="104" spans="1:31">
-      <c r="A104" s="13">
+      <c r="A104" s="12">
         <v>44013</v>
       </c>
       <c r="B104">
@@ -11158,13 +11133,13 @@
       <c r="AA104">
         <v>6.4</v>
       </c>
-      <c r="AB104" s="22">
+      <c r="AB104" s="19">
         <v>5887</v>
       </c>
-      <c r="AC104" s="14">
+      <c r="AC104" s="13">
         <v>9.5456050000000001</v>
       </c>
-      <c r="AD104" s="23">
+      <c r="AD104" s="20">
         <v>258.35199999999998</v>
       </c>
       <c r="AE104" s="3">
@@ -11173,7 +11148,7 @@
       </c>
     </row>
     <row r="105" spans="1:31">
-      <c r="A105" s="13">
+      <c r="A105" s="12">
         <v>44044</v>
       </c>
       <c r="B105">
@@ -11254,13 +11229,13 @@
       <c r="AA105">
         <v>6.3</v>
       </c>
-      <c r="AB105" s="22">
+      <c r="AB105" s="19">
         <v>3664</v>
       </c>
-      <c r="AC105" s="14">
+      <c r="AC105" s="13">
         <v>9.8345009999999995</v>
       </c>
-      <c r="AD105" s="23">
+      <c r="AD105" s="20">
         <v>259.31599999999997</v>
       </c>
       <c r="AE105" s="3">
@@ -11269,7 +11244,7 @@
       </c>
     </row>
     <row r="106" spans="1:31">
-      <c r="A106" s="13">
+      <c r="A106" s="12">
         <v>44075</v>
       </c>
       <c r="B106">
@@ -11350,13 +11325,13 @@
       <c r="AA106">
         <v>6.5</v>
       </c>
-      <c r="AB106" s="22">
+      <c r="AB106" s="19">
         <v>3617</v>
       </c>
-      <c r="AC106" s="14">
+      <c r="AC106" s="13">
         <v>10.668877</v>
       </c>
-      <c r="AD106" s="23">
+      <c r="AD106" s="20">
         <v>259.99700000000001</v>
       </c>
       <c r="AE106" s="3">
@@ -11365,7 +11340,7 @@
       </c>
     </row>
     <row r="107" spans="1:31">
-      <c r="A107" s="13">
+      <c r="A107" s="12">
         <v>44105</v>
       </c>
       <c r="B107">
@@ -11446,13 +11421,13 @@
       <c r="AA107">
         <v>6.7</v>
       </c>
-      <c r="AB107" s="22">
+      <c r="AB107" s="19">
         <v>6032</v>
       </c>
-      <c r="AC107" s="14">
+      <c r="AC107" s="13">
         <v>9.8419749999999997</v>
       </c>
-      <c r="AD107" s="23">
+      <c r="AD107" s="20">
         <v>260.31900000000002</v>
       </c>
       <c r="AE107" s="3">
@@ -11461,7 +11436,7 @@
       </c>
     </row>
     <row r="108" spans="1:31">
-      <c r="A108" s="13">
+      <c r="A108" s="12">
         <v>44136</v>
       </c>
       <c r="B108">
@@ -11542,13 +11517,13 @@
       <c r="AA108">
         <v>6.9</v>
       </c>
-      <c r="AB108" s="22">
+      <c r="AB108" s="19">
         <v>3760</v>
       </c>
-      <c r="AC108" s="14">
+      <c r="AC108" s="13">
         <v>9.7493029999999994</v>
       </c>
-      <c r="AD108" s="23">
+      <c r="AD108" s="20">
         <v>260.911</v>
       </c>
       <c r="AE108" s="3">
@@ -11557,7 +11532,7 @@
       </c>
     </row>
     <row r="109" spans="1:31">
-      <c r="A109" s="13">
+      <c r="A109" s="12">
         <v>44166</v>
       </c>
       <c r="B109">
@@ -11638,13 +11613,13 @@
       <c r="AA109">
         <v>6.9</v>
       </c>
-      <c r="AB109" s="22">
+      <c r="AB109" s="19">
         <v>3953</v>
       </c>
-      <c r="AC109" s="14">
+      <c r="AC109" s="13">
         <v>13.211937000000001</v>
       </c>
-      <c r="AD109" s="23">
+      <c r="AD109" s="20">
         <v>262.04500000000002</v>
       </c>
       <c r="AE109" s="3">
@@ -11653,7 +11628,7 @@
       </c>
     </row>
     <row r="110" spans="1:31">
-      <c r="A110" s="13">
+      <c r="A110" s="12">
         <v>44197</v>
       </c>
       <c r="B110">
@@ -11734,13 +11709,13 @@
       <c r="AA110">
         <v>6.8</v>
       </c>
-      <c r="AB110" s="22">
+      <c r="AB110" s="19">
         <v>10401</v>
       </c>
-      <c r="AC110" s="14">
+      <c r="AC110" s="13">
         <v>9.8251100000000005</v>
       </c>
-      <c r="AD110" s="23">
+      <c r="AD110" s="20">
         <v>262.63900000000001</v>
       </c>
       <c r="AE110" s="3">
@@ -11749,7 +11724,7 @@
       </c>
     </row>
     <row r="111" spans="1:31">
-      <c r="A111" s="13">
+      <c r="A111" s="12">
         <v>44228</v>
       </c>
       <c r="B111">
@@ -11830,13 +11805,13 @@
       <c r="AA111">
         <v>7</v>
       </c>
-      <c r="AB111" s="22">
+      <c r="AB111" s="19">
         <v>4742</v>
       </c>
-      <c r="AC111" s="14">
+      <c r="AC111" s="13">
         <v>9.2072629999999993</v>
       </c>
-      <c r="AD111" s="23">
+      <c r="AD111" s="20">
         <v>263.57299999999998</v>
       </c>
       <c r="AE111" s="3">
@@ -11845,7 +11820,7 @@
       </c>
     </row>
     <row r="112" spans="1:31">
-      <c r="A112" s="13">
+      <c r="A112" s="12">
         <v>44256</v>
       </c>
       <c r="B112">
@@ -11926,13 +11901,13 @@
       <c r="AA112">
         <v>7.2</v>
       </c>
-      <c r="AB112" s="22">
+      <c r="AB112" s="19">
         <v>4018</v>
       </c>
-      <c r="AC112" s="14">
+      <c r="AC112" s="13">
         <v>11.266135999999999</v>
       </c>
-      <c r="AD112" s="23">
+      <c r="AD112" s="20">
         <v>264.84699999999998</v>
       </c>
       <c r="AE112" s="3">
@@ -11941,7 +11916,7 @@
       </c>
     </row>
     <row r="113" spans="1:31">
-      <c r="A113" s="13">
+      <c r="A113" s="12">
         <v>44287</v>
       </c>
       <c r="B113">
@@ -12022,13 +11997,13 @@
       <c r="AA113">
         <v>7.4</v>
       </c>
-      <c r="AB113" s="22">
+      <c r="AB113" s="19">
         <v>6212</v>
       </c>
-      <c r="AC113" s="14">
+      <c r="AC113" s="13">
         <v>10.739497</v>
       </c>
-      <c r="AD113" s="23">
+      <c r="AD113" s="20">
         <v>266.625</v>
       </c>
       <c r="AE113" s="3">
@@ -12037,7 +12012,7 @@
       </c>
     </row>
     <row r="114" spans="1:31">
-      <c r="A114" s="13">
+      <c r="A114" s="12">
         <v>44317</v>
       </c>
       <c r="B114">
@@ -12118,13 +12093,13 @@
       <c r="AA114">
         <v>7.4</v>
       </c>
-      <c r="AB114" s="22">
+      <c r="AB114" s="19">
         <v>3768</v>
       </c>
-      <c r="AC114" s="14">
+      <c r="AC114" s="13">
         <v>10.971112</v>
       </c>
-      <c r="AD114" s="23">
+      <c r="AD114" s="20">
         <v>268.404</v>
       </c>
       <c r="AE114" s="3">
@@ -12133,7 +12108,7 @@
       </c>
     </row>
     <row r="115" spans="1:31">
-      <c r="A115" s="13">
+      <c r="A115" s="12">
         <v>44348</v>
       </c>
       <c r="B115">
@@ -12214,13 +12189,13 @@
       <c r="AA115">
         <v>7.3</v>
       </c>
-      <c r="AB115" s="22">
+      <c r="AB115" s="19">
         <v>3403</v>
       </c>
-      <c r="AC115" s="14">
+      <c r="AC115" s="13">
         <v>12.625855</v>
       </c>
-      <c r="AD115" s="23">
+      <c r="AD115" s="20">
         <v>270.70999999999998</v>
       </c>
       <c r="AE115" s="3">
@@ -12229,7 +12204,7 @@
       </c>
     </row>
     <row r="116" spans="1:31">
-      <c r="A116" s="13">
+      <c r="A116" s="12">
         <v>44378</v>
       </c>
       <c r="B116">
@@ -12310,13 +12285,13 @@
       <c r="AA116">
         <v>6.4</v>
       </c>
-      <c r="AB116" s="22">
+      <c r="AB116" s="19">
         <v>5981</v>
       </c>
-      <c r="AC116" s="14">
+      <c r="AC116" s="13">
         <v>11.418124000000001</v>
       </c>
-      <c r="AD116" s="23">
+      <c r="AD116" s="20">
         <v>271.96499999999997</v>
       </c>
       <c r="AE116" s="3">
@@ -12325,7 +12300,7 @@
       </c>
     </row>
     <row r="117" spans="1:31">
-      <c r="A117" s="13">
+      <c r="A117" s="12">
         <v>44409</v>
       </c>
       <c r="B117">
@@ -12406,13 +12381,13 @@
       <c r="AA117">
         <v>6.4</v>
       </c>
-      <c r="AB117" s="22">
+      <c r="AB117" s="19">
         <v>3415</v>
       </c>
-      <c r="AC117" s="14">
+      <c r="AC117" s="13">
         <v>12.790770999999999</v>
       </c>
-      <c r="AD117" s="23">
+      <c r="AD117" s="20">
         <v>272.75200000000001</v>
       </c>
       <c r="AE117" s="3">
@@ -12421,7 +12396,7 @@
       </c>
     </row>
     <row r="118" spans="1:31">
-      <c r="A118" s="13">
+      <c r="A118" s="12">
         <v>44440</v>
       </c>
       <c r="B118">
@@ -12502,13 +12477,13 @@
       <c r="AA118">
         <v>7.2</v>
       </c>
-      <c r="AB118" s="22">
+      <c r="AB118" s="19">
         <v>3432</v>
       </c>
-      <c r="AC118" s="14">
+      <c r="AC118" s="13">
         <v>12.602952</v>
       </c>
-      <c r="AD118" s="23">
+      <c r="AD118" s="20">
         <v>273.94200000000001</v>
       </c>
       <c r="AE118" s="3">
@@ -12517,7 +12492,7 @@
       </c>
     </row>
     <row r="119" spans="1:31">
-      <c r="A119" s="13">
+      <c r="A119" s="12">
         <v>44470</v>
       </c>
       <c r="B119">
@@ -12598,13 +12573,13 @@
       <c r="AA119">
         <v>7.6</v>
       </c>
-      <c r="AB119" s="22">
+      <c r="AB119" s="19">
         <v>6120</v>
       </c>
-      <c r="AC119" s="14">
+      <c r="AC119" s="13">
         <v>11.996249000000001</v>
       </c>
-      <c r="AD119" s="23">
+      <c r="AD119" s="20">
         <v>276.52800000000002</v>
       </c>
       <c r="AE119" s="3">
@@ -12613,7 +12588,7 @@
       </c>
     </row>
     <row r="120" spans="1:31">
-      <c r="A120" s="13">
+      <c r="A120" s="12">
         <v>44501</v>
       </c>
       <c r="B120">
@@ -12694,13 +12669,13 @@
       <c r="AA120">
         <v>7.7</v>
       </c>
-      <c r="AB120" s="22">
+      <c r="AB120" s="19">
         <v>3543</v>
       </c>
-      <c r="AC120" s="14">
+      <c r="AC120" s="13">
         <v>11.255201</v>
       </c>
-      <c r="AD120" s="23">
+      <c r="AD120" s="20">
         <v>278.82400000000001</v>
       </c>
       <c r="AE120" s="3">
@@ -12709,7 +12684,7 @@
       </c>
     </row>
     <row r="121" spans="1:31">
-      <c r="A121" s="13">
+      <c r="A121" s="12">
         <v>44531</v>
       </c>
       <c r="B121">
@@ -12790,13 +12765,13 @@
       <c r="AA121">
         <v>7.6</v>
       </c>
-      <c r="AB121" s="22">
+      <c r="AB121" s="19">
         <v>3680</v>
       </c>
-      <c r="AC121" s="14">
+      <c r="AC121" s="13">
         <v>16.459181999999998</v>
       </c>
-      <c r="AD121" s="23">
+      <c r="AD121" s="20">
         <v>280.80599999999998</v>
       </c>
       <c r="AE121" s="3">
@@ -12805,7 +12780,7 @@
       </c>
     </row>
     <row r="122" spans="1:31">
-      <c r="A122" s="13">
+      <c r="A122" s="12">
         <v>44562</v>
       </c>
       <c r="B122">
@@ -12886,13 +12861,13 @@
       <c r="AA122">
         <v>7.6</v>
       </c>
-      <c r="AB122" s="22">
+      <c r="AB122" s="19">
         <v>10514</v>
       </c>
-      <c r="AC122" s="14">
+      <c r="AC122" s="13">
         <v>10.607570000000001</v>
       </c>
-      <c r="AD122" s="23">
+      <c r="AD122" s="20">
         <v>282.54199999999997</v>
       </c>
       <c r="AE122" s="3">
@@ -12901,7 +12876,7 @@
       </c>
     </row>
     <row r="123" spans="1:31">
-      <c r="A123" s="13">
+      <c r="A123" s="12">
         <v>44593</v>
       </c>
       <c r="B123">
@@ -12982,13 +12957,13 @@
       <c r="AA123">
         <v>7.6</v>
       </c>
-      <c r="AB123" s="22">
+      <c r="AB123" s="19">
         <v>5749</v>
       </c>
-      <c r="AC123" s="14">
+      <c r="AC123" s="13">
         <v>10.277481999999999</v>
       </c>
-      <c r="AD123" s="23">
+      <c r="AD123" s="20">
         <v>284.52499999999998</v>
       </c>
       <c r="AE123" s="3">
@@ -12997,7 +12972,7 @@
       </c>
     </row>
     <row r="124" spans="1:31">
-      <c r="A124" s="13">
+      <c r="A124" s="12">
         <v>44621</v>
       </c>
       <c r="B124">
@@ -13078,13 +13053,13 @@
       <c r="AA124">
         <v>7.7</v>
       </c>
-      <c r="AB124" s="22">
+      <c r="AB124" s="19">
         <v>5267</v>
       </c>
-      <c r="AC124" s="14">
+      <c r="AC124" s="13">
         <v>12.892465</v>
       </c>
-      <c r="AD124" s="23">
+      <c r="AD124" s="20">
         <v>287.46699999999998</v>
       </c>
       <c r="AE124" s="3">
@@ -13093,7 +13068,7 @@
       </c>
     </row>
     <row r="125" spans="1:31">
-      <c r="A125" s="13">
+      <c r="A125" s="12">
         <v>44652</v>
       </c>
       <c r="B125">
@@ -13174,13 +13149,13 @@
       <c r="AA125">
         <v>7.7</v>
       </c>
-      <c r="AB125" s="22">
+      <c r="AB125" s="19">
         <v>8055</v>
       </c>
-      <c r="AC125" s="14">
+      <c r="AC125" s="13">
         <v>11.736319</v>
       </c>
-      <c r="AD125" s="23">
+      <c r="AD125" s="20">
         <v>288.58199999999999</v>
       </c>
       <c r="AE125" s="3">
@@ -13189,7 +13164,7 @@
       </c>
     </row>
     <row r="126" spans="1:31">
-      <c r="A126" s="13">
+      <c r="A126" s="12">
         <v>44682</v>
       </c>
       <c r="B126">
@@ -13270,13 +13245,13 @@
       <c r="AA126">
         <v>7.6</v>
       </c>
-      <c r="AB126" s="22">
+      <c r="AB126" s="19">
         <v>4003</v>
       </c>
-      <c r="AC126" s="14">
+      <c r="AC126" s="13">
         <v>11.996428999999999</v>
       </c>
-      <c r="AD126" s="23">
+      <c r="AD126" s="20">
         <v>291.29899999999998</v>
       </c>
       <c r="AE126" s="3">
@@ -13285,7 +13260,7 @@
       </c>
     </row>
     <row r="127" spans="1:31">
-      <c r="A127" s="13">
+      <c r="A127" s="12">
         <v>44713</v>
       </c>
       <c r="B127">
@@ -13366,13 +13341,13 @@
       <c r="AA127">
         <v>7.5</v>
       </c>
-      <c r="AB127" s="22">
+      <c r="AB127" s="19">
         <v>3996</v>
       </c>
-      <c r="AC127" s="14">
+      <c r="AC127" s="13">
         <v>13.262179</v>
       </c>
-      <c r="AD127" s="23">
+      <c r="AD127" s="20">
         <v>295.072</v>
       </c>
       <c r="AE127" s="3">
@@ -13381,7 +13356,7 @@
       </c>
     </row>
     <row r="128" spans="1:31">
-      <c r="A128" s="13">
+      <c r="A128" s="12">
         <v>44743</v>
       </c>
       <c r="B128">
@@ -13462,13 +13437,13 @@
       <c r="AA128">
         <v>7.1</v>
       </c>
-      <c r="AB128" s="22">
+      <c r="AB128" s="19">
         <v>6803</v>
       </c>
-      <c r="AC128" s="14">
+      <c r="AC128" s="13">
         <v>12.090821999999999</v>
       </c>
-      <c r="AD128" s="23">
+      <c r="AD128" s="20">
         <v>294.94</v>
       </c>
       <c r="AE128" s="3">
@@ -13477,7 +13452,7 @@
       </c>
     </row>
     <row r="129" spans="1:37">
-      <c r="A129" s="13">
+      <c r="A129" s="12">
         <v>44774</v>
       </c>
       <c r="B129">
@@ -13558,13 +13533,13 @@
       <c r="AA129">
         <v>7.3</v>
       </c>
-      <c r="AB129" s="22">
+      <c r="AB129" s="19">
         <v>4207</v>
       </c>
-      <c r="AC129" s="14">
+      <c r="AC129" s="13">
         <v>12.782107999999999</v>
       </c>
-      <c r="AD129" s="23">
+      <c r="AD129" s="20">
         <v>295.16199999999998</v>
       </c>
       <c r="AE129" s="3">
@@ -13573,7 +13548,7 @@
       </c>
     </row>
     <row r="130" spans="1:37">
-      <c r="A130" s="13">
+      <c r="A130" s="12">
         <v>44805</v>
       </c>
       <c r="B130">
@@ -13654,13 +13629,13 @@
       <c r="AA130">
         <v>7.7</v>
       </c>
-      <c r="AB130" s="22">
+      <c r="AB130" s="19">
         <v>4068</v>
       </c>
-      <c r="AC130" s="14">
+      <c r="AC130" s="13">
         <v>14.126410999999999</v>
       </c>
-      <c r="AD130" s="23">
+      <c r="AD130" s="20">
         <v>296.42099999999999</v>
       </c>
       <c r="AE130" s="3">
@@ -13669,7 +13644,7 @@
       </c>
     </row>
     <row r="131" spans="1:37">
-      <c r="A131" s="13">
+      <c r="A131" s="12">
         <v>44835</v>
       </c>
       <c r="B131">
@@ -13750,22 +13725,22 @@
       <c r="AA131">
         <v>7.7</v>
       </c>
-      <c r="AB131" s="22">
+      <c r="AB131" s="19">
         <v>7133</v>
       </c>
-      <c r="AC131" s="14">
+      <c r="AC131" s="13">
         <v>12.449733</v>
       </c>
-      <c r="AD131" s="23">
+      <c r="AD131" s="20">
         <v>297.97899999999998</v>
       </c>
       <c r="AE131" s="3">
-        <f t="shared" ref="AE131:AE157" si="2">AC131/AD131</f>
+        <f t="shared" ref="AE131:AE158" si="2">AC131/AD131</f>
         <v>4.178057178526004E-2</v>
       </c>
     </row>
     <row r="132" spans="1:37">
-      <c r="A132" s="13">
+      <c r="A132" s="12">
         <v>44866</v>
       </c>
       <c r="B132">
@@ -13846,13 +13821,13 @@
       <c r="AA132">
         <v>7.9</v>
       </c>
-      <c r="AB132" s="22">
+      <c r="AB132" s="19">
         <v>4320</v>
       </c>
-      <c r="AC132" s="14">
+      <c r="AC132" s="13">
         <v>11.864731000000001</v>
       </c>
-      <c r="AD132" s="23">
+      <c r="AD132" s="20">
         <v>298.70800000000003</v>
       </c>
       <c r="AE132" s="3">
@@ -13861,7 +13836,7 @@
       </c>
     </row>
     <row r="133" spans="1:37">
-      <c r="A133" s="13">
+      <c r="A133" s="12">
         <v>44896</v>
       </c>
       <c r="B133">
@@ -13942,13 +13917,13 @@
       <c r="AA133">
         <v>7.9</v>
       </c>
-      <c r="AB133" s="22">
+      <c r="AB133" s="19">
         <v>4264</v>
       </c>
-      <c r="AC133" s="14">
+      <c r="AC133" s="13">
         <v>16.963280999999998</v>
       </c>
-      <c r="AD133" s="23">
+      <c r="AD133" s="20">
         <v>298.80799999999999</v>
       </c>
       <c r="AE133" s="3">
@@ -13957,7 +13932,7 @@
       </c>
     </row>
     <row r="134" spans="1:37">
-      <c r="A134" s="13">
+      <c r="A134" s="12">
         <v>44927</v>
       </c>
       <c r="B134">
@@ -14038,13 +14013,13 @@
       <c r="AA134">
         <v>8</v>
       </c>
-      <c r="AB134" s="22">
+      <c r="AB134" s="19">
         <v>12487</v>
       </c>
-      <c r="AC134" s="14">
+      <c r="AC134" s="13">
         <v>11.409829</v>
       </c>
-      <c r="AD134" s="23">
+      <c r="AD134" s="20">
         <v>300.45600000000002</v>
       </c>
       <c r="AE134" s="3">
@@ -14053,7 +14028,7 @@
       </c>
     </row>
     <row r="135" spans="1:37">
-      <c r="A135" s="13">
+      <c r="A135" s="12">
         <v>44958</v>
       </c>
       <c r="B135">
@@ -14134,13 +14109,13 @@
       <c r="AA135">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AB135" s="22">
+      <c r="AB135" s="19">
         <v>4671</v>
       </c>
-      <c r="AC135" s="14">
+      <c r="AC135" s="13">
         <v>11.462339</v>
       </c>
-      <c r="AD135" s="23">
+      <c r="AD135" s="20">
         <v>301.476</v>
       </c>
       <c r="AE135" s="3">
@@ -14149,7 +14124,7 @@
       </c>
     </row>
     <row r="136" spans="1:37">
-      <c r="A136" s="13">
+      <c r="A136" s="12">
         <v>44986</v>
       </c>
       <c r="B136">
@@ -14230,13 +14205,13 @@
       <c r="AA136">
         <v>8.4</v>
       </c>
-      <c r="AB136" s="22">
+      <c r="AB136" s="19">
         <v>4504</v>
       </c>
-      <c r="AC136" s="14">
+      <c r="AC136" s="13">
         <v>13.238704</v>
       </c>
-      <c r="AD136" s="23">
+      <c r="AD136" s="20">
         <v>301.64299999999997</v>
       </c>
       <c r="AE136" s="3">
@@ -14245,7 +14220,7 @@
       </c>
     </row>
     <row r="137" spans="1:37">
-      <c r="A137" s="13">
+      <c r="A137" s="12">
         <v>45017</v>
       </c>
       <c r="B137">
@@ -14326,13 +14301,13 @@
       <c r="AA137">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AB137" s="22">
+      <c r="AB137" s="19">
         <v>7566</v>
       </c>
-      <c r="AC137" s="14">
+      <c r="AC137" s="13">
         <v>12.710895000000001</v>
       </c>
-      <c r="AD137" s="23">
+      <c r="AD137" s="20">
         <v>302.858</v>
       </c>
       <c r="AE137" s="3">
@@ -14341,7 +14316,7 @@
       </c>
     </row>
     <row r="138" spans="1:37">
-      <c r="A138" s="13">
+      <c r="A138" s="12">
         <v>45047</v>
       </c>
       <c r="B138">
@@ -14422,13 +14397,13 @@
       <c r="AA138">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AB138" s="22">
+      <c r="AB138" s="19">
         <v>4563</v>
       </c>
-      <c r="AC138" s="14">
+      <c r="AC138" s="13">
         <v>12.421695</v>
       </c>
-      <c r="AD138" s="23">
+      <c r="AD138" s="20">
         <v>303.31599999999997</v>
       </c>
       <c r="AE138" s="3">
@@ -14437,7 +14412,7 @@
       </c>
     </row>
     <row r="139" spans="1:37">
-      <c r="A139" s="13">
+      <c r="A139" s="12">
         <v>45078</v>
       </c>
       <c r="B139">
@@ -14518,13 +14493,13 @@
       <c r="AA139">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AB139" s="22">
+      <c r="AB139" s="19">
         <v>4502</v>
       </c>
-      <c r="AC139" s="14">
+      <c r="AC139" s="13">
         <v>13.435069</v>
       </c>
-      <c r="AD139" s="23">
+      <c r="AD139" s="20">
         <v>304.09899999999999</v>
       </c>
       <c r="AE139" s="3">
@@ -14533,7 +14508,7 @@
       </c>
     </row>
     <row r="140" spans="1:37">
-      <c r="A140" s="13">
+      <c r="A140" s="12">
         <v>45108</v>
       </c>
       <c r="B140">
@@ -14614,13 +14589,13 @@
       <c r="AA140">
         <v>7.1</v>
       </c>
-      <c r="AB140" s="22">
+      <c r="AB140" s="19">
         <v>7689</v>
       </c>
-      <c r="AC140" s="14">
+      <c r="AC140" s="13">
         <v>12.815814</v>
       </c>
-      <c r="AD140" s="23">
+      <c r="AD140" s="20">
         <v>304.61500000000001</v>
       </c>
       <c r="AE140" s="3">
@@ -14629,7 +14604,7 @@
       </c>
     </row>
     <row r="141" spans="1:37">
-      <c r="A141" s="13">
+      <c r="A141" s="12">
         <v>45139</v>
       </c>
       <c r="B141">
@@ -14710,13 +14685,13 @@
       <c r="AA141">
         <v>7.3</v>
       </c>
-      <c r="AB141" s="22">
+      <c r="AB141" s="19">
         <v>4685</v>
       </c>
-      <c r="AC141" s="14">
+      <c r="AC141" s="13">
         <v>13.100754999999999</v>
       </c>
-      <c r="AD141" s="23">
+      <c r="AD141" s="20">
         <v>306.13799999999998</v>
       </c>
       <c r="AE141" s="3">
@@ -14725,7 +14700,7 @@
       </c>
     </row>
     <row r="142" spans="1:37">
-      <c r="A142" s="13">
+      <c r="A142" s="12">
         <v>45170</v>
       </c>
       <c r="B142">
@@ -14806,13 +14781,13 @@
       <c r="AA142">
         <v>8</v>
       </c>
-      <c r="AB142" s="22">
+      <c r="AB142" s="19">
         <v>4554</v>
       </c>
-      <c r="AC142" s="14">
+      <c r="AC142" s="13">
         <v>13.557729999999999</v>
       </c>
-      <c r="AD142" s="23">
+      <c r="AD142" s="20">
         <v>307.37400000000002</v>
       </c>
       <c r="AE142" s="3">
@@ -14821,7 +14796,7 @@
       </c>
     </row>
     <row r="143" spans="1:37">
-      <c r="A143" s="13">
+      <c r="A143" s="12">
         <v>45200</v>
       </c>
       <c r="B143">
@@ -14902,13 +14877,13 @@
       <c r="AA143">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AB143" s="22">
+      <c r="AB143" s="19">
         <v>7893</v>
       </c>
-      <c r="AC143" s="14">
+      <c r="AC143" s="13">
         <v>12.319749</v>
       </c>
-      <c r="AD143" s="23">
+      <c r="AD143" s="20">
         <v>307.65300000000002</v>
       </c>
       <c r="AE143" s="3">
@@ -14917,7 +14892,7 @@
       </c>
     </row>
     <row r="144" spans="1:37">
-      <c r="A144" s="13">
+      <c r="A144" s="12">
         <v>45231</v>
       </c>
       <c r="B144">
@@ -14998,24 +14973,24 @@
       <c r="AA144">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AB144" s="22">
+      <c r="AB144" s="19">
         <v>4756</v>
       </c>
-      <c r="AC144" s="14">
+      <c r="AC144" s="13">
         <v>11.925471999999999</v>
       </c>
-      <c r="AD144" s="23">
+      <c r="AD144" s="20">
         <v>308.08699999999999</v>
       </c>
       <c r="AE144" s="3">
         <f t="shared" si="2"/>
         <v>3.870813114477404E-2</v>
       </c>
-      <c r="AH144" s="15"/>
-      <c r="AK144" s="15"/>
+      <c r="AH144" s="14"/>
+      <c r="AK144" s="14"/>
     </row>
     <row r="145" spans="1:38">
-      <c r="A145" s="13">
+      <c r="A145" s="12">
         <v>45261</v>
       </c>
       <c r="B145">
@@ -15096,26 +15071,26 @@
       <c r="AA145">
         <v>8.4</v>
       </c>
-      <c r="AB145" s="22">
+      <c r="AB145" s="19">
         <v>4727</v>
       </c>
-      <c r="AC145" s="14">
+      <c r="AC145" s="13">
         <v>16.978649999999998</v>
       </c>
-      <c r="AD145" s="23">
+      <c r="AD145" s="20">
         <v>308.73500000000001</v>
       </c>
       <c r="AE145" s="3">
         <f t="shared" si="2"/>
         <v>5.4994250732829118E-2</v>
       </c>
-      <c r="AH145" s="15"/>
-      <c r="AI145" s="16"/>
-      <c r="AK145" s="15"/>
-      <c r="AL145" s="16"/>
+      <c r="AH145" s="14"/>
+      <c r="AI145" s="15"/>
+      <c r="AK145" s="14"/>
+      <c r="AL145" s="15"/>
     </row>
     <row r="146" spans="1:38">
-      <c r="A146" s="13">
+      <c r="A146" s="12">
         <v>45292</v>
       </c>
       <c r="B146">
@@ -15196,26 +15171,26 @@
       <c r="AA146">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AB146" s="22">
+      <c r="AB146" s="19">
         <v>12477</v>
       </c>
-      <c r="AC146" s="14">
+      <c r="AC146" s="13">
         <v>13.147443000000001</v>
       </c>
-      <c r="AD146" s="23">
+      <c r="AD146" s="20">
         <v>309.79399999999998</v>
       </c>
       <c r="AE146" s="3">
         <f t="shared" si="2"/>
         <v>4.2439308056321304E-2</v>
       </c>
-      <c r="AH146" s="15"/>
-      <c r="AI146" s="16"/>
-      <c r="AK146" s="15"/>
-      <c r="AL146" s="16"/>
+      <c r="AH146" s="14"/>
+      <c r="AI146" s="15"/>
+      <c r="AK146" s="14"/>
+      <c r="AL146" s="15"/>
     </row>
     <row r="147" spans="1:38">
-      <c r="A147" s="13">
+      <c r="A147" s="12">
         <v>45323</v>
       </c>
       <c r="B147">
@@ -15296,13 +15271,13 @@
       <c r="AA147">
         <v>8.5</v>
       </c>
-      <c r="AB147" s="22">
+      <c r="AB147" s="19">
         <v>5183</v>
       </c>
-      <c r="AC147" s="14">
+      <c r="AC147" s="13">
         <v>11.931972999999999</v>
       </c>
-      <c r="AD147" s="23">
+      <c r="AD147" s="20">
         <v>311.02199999999999</v>
       </c>
       <c r="AE147" s="3">
@@ -15311,7 +15286,7 @@
       </c>
     </row>
     <row r="148" spans="1:38">
-      <c r="A148" s="13">
+      <c r="A148" s="12">
         <v>45352</v>
       </c>
       <c r="B148">
@@ -15392,13 +15367,13 @@
       <c r="AA148">
         <v>8.6999999999999993</v>
       </c>
-      <c r="AB148" s="22">
+      <c r="AB148" s="19">
         <v>4931</v>
       </c>
-      <c r="AC148" s="14">
+      <c r="AC148" s="13">
         <v>16.046817000000001</v>
       </c>
-      <c r="AD148" s="23">
+      <c r="AD148" s="20">
         <v>312.10700000000003</v>
       </c>
       <c r="AE148" s="3">
@@ -15407,7 +15382,7 @@
       </c>
     </row>
     <row r="149" spans="1:38">
-      <c r="A149" s="13">
+      <c r="A149" s="12">
         <v>45383</v>
       </c>
       <c r="B149">
@@ -15488,13 +15463,13 @@
       <c r="AA149">
         <v>8.6</v>
       </c>
-      <c r="AB149" s="22">
+      <c r="AB149" s="19">
         <v>8365</v>
       </c>
-      <c r="AC149" s="14">
+      <c r="AC149" s="13">
         <v>14.778048999999999</v>
       </c>
-      <c r="AD149" s="23">
+      <c r="AD149" s="20">
         <v>313.01600000000002</v>
       </c>
       <c r="AE149" s="3">
@@ -15503,7 +15478,7 @@
       </c>
     </row>
     <row r="150" spans="1:38">
-      <c r="A150" s="13">
+      <c r="A150" s="12">
         <v>45413</v>
       </c>
       <c r="B150">
@@ -15584,13 +15559,13 @@
       <c r="AA150">
         <v>8.6</v>
       </c>
-      <c r="AB150" s="22">
+      <c r="AB150" s="19">
         <v>5223</v>
       </c>
-      <c r="AC150" s="14">
+      <c r="AC150" s="13">
         <v>14.379472</v>
       </c>
-      <c r="AD150" s="23">
+      <c r="AD150" s="20">
         <v>313.14</v>
       </c>
       <c r="AE150" s="3">
@@ -15599,7 +15574,7 @@
       </c>
     </row>
     <row r="151" spans="1:38">
-      <c r="A151" s="13">
+      <c r="A151" s="12">
         <v>45444</v>
       </c>
       <c r="B151">
@@ -15680,13 +15655,13 @@
       <c r="AA151">
         <v>8.4</v>
       </c>
-      <c r="AB151" s="22">
+      <c r="AB151" s="19">
         <v>5040</v>
       </c>
-      <c r="AC151" s="14">
+      <c r="AC151" s="13">
         <v>15.132960000000001</v>
       </c>
-      <c r="AD151" s="23">
+      <c r="AD151" s="20">
         <v>313.13099999999997</v>
       </c>
       <c r="AE151" s="3">
@@ -15695,7 +15670,7 @@
       </c>
     </row>
     <row r="152" spans="1:38">
-      <c r="A152" s="13">
+      <c r="A152" s="12">
         <v>45474</v>
       </c>
       <c r="B152">
@@ -15776,13 +15751,13 @@
       <c r="AA152">
         <v>7.3</v>
       </c>
-      <c r="AB152" s="22">
+      <c r="AB152" s="19">
         <v>8732</v>
       </c>
-      <c r="AC152" s="14">
+      <c r="AC152" s="13">
         <v>14.398631</v>
       </c>
-      <c r="AD152" s="23">
+      <c r="AD152" s="20">
         <v>313.56599999999997</v>
       </c>
       <c r="AE152" s="3">
@@ -15791,7 +15766,7 @@
       </c>
     </row>
     <row r="153" spans="1:38">
-      <c r="A153" s="13">
+      <c r="A153" s="12">
         <v>45505</v>
       </c>
       <c r="B153">
@@ -15872,13 +15847,13 @@
       <c r="AA153">
         <v>7.3</v>
       </c>
-      <c r="AB153" s="22">
+      <c r="AB153" s="19">
         <v>5319</v>
       </c>
-      <c r="AC153" s="14">
+      <c r="AC153" s="13">
         <v>14.815225999999999</v>
       </c>
-      <c r="AD153" s="23">
+      <c r="AD153" s="20">
         <v>314.13099999999997</v>
       </c>
       <c r="AE153" s="3">
@@ -15887,7 +15862,7 @@
       </c>
     </row>
     <row r="154" spans="1:38">
-      <c r="A154" s="13">
+      <c r="A154" s="12">
         <v>45536</v>
       </c>
       <c r="B154">
@@ -15968,13 +15943,13 @@
       <c r="AA154">
         <v>8</v>
       </c>
-      <c r="AB154" s="22">
+      <c r="AB154" s="19">
         <v>5328</v>
       </c>
-      <c r="AC154" s="14">
+      <c r="AC154" s="13">
         <v>15.341219000000001</v>
       </c>
-      <c r="AD154" s="23">
+      <c r="AD154" s="20">
         <v>314.851</v>
       </c>
       <c r="AE154" s="3">
@@ -15983,7 +15958,7 @@
       </c>
     </row>
     <row r="155" spans="1:38">
-      <c r="A155" s="13">
+      <c r="A155" s="12">
         <v>45566</v>
       </c>
       <c r="B155">
@@ -16064,13 +16039,13 @@
       <c r="AA155">
         <v>8.4</v>
       </c>
-      <c r="AB155" s="22">
+      <c r="AB155" s="19">
         <v>8865</v>
       </c>
-      <c r="AC155" s="14">
+      <c r="AC155" s="13">
         <v>13.927353</v>
       </c>
-      <c r="AD155" s="23">
+      <c r="AD155" s="20">
         <v>315.56400000000002</v>
       </c>
       <c r="AE155" s="3">
@@ -16079,7 +16054,7 @@
       </c>
     </row>
     <row r="156" spans="1:38">
-      <c r="A156" s="13">
+      <c r="A156" s="12">
         <v>45597</v>
       </c>
       <c r="B156">
@@ -16160,13 +16135,13 @@
       <c r="AA156">
         <v>8.6</v>
       </c>
-      <c r="AB156" s="22">
+      <c r="AB156" s="19">
         <v>5428</v>
       </c>
-      <c r="AC156" s="14">
+      <c r="AC156" s="13">
         <v>13.750949</v>
       </c>
-      <c r="AD156" s="23">
+      <c r="AD156" s="20">
         <v>316.44900000000001</v>
       </c>
       <c r="AE156" s="3">
@@ -16175,7 +16150,7 @@
       </c>
     </row>
     <row r="157" spans="1:38">
-      <c r="A157" s="13">
+      <c r="A157" s="12">
         <v>45627</v>
       </c>
       <c r="B157">
@@ -16256,14 +16231,14 @@
       <c r="AA157">
         <v>8.5</v>
       </c>
-      <c r="AB157" s="22">
+      <c r="AB157" s="19">
         <v>5554</v>
       </c>
-      <c r="AC157" s="14">
+      <c r="AC157" s="13">
         <f>19826037/1000000</f>
         <v>19.826036999999999</v>
       </c>
-      <c r="AD157" s="23">
+      <c r="AD157" s="20">
         <v>317.60300000000001</v>
       </c>
       <c r="AE157" s="3">
@@ -16272,7 +16247,23 @@
       </c>
     </row>
     <row r="158" spans="1:38">
-      <c r="AD158" s="23"/>
+      <c r="A158" s="12">
+        <v>45658</v>
+      </c>
+      <c r="B158">
+        <v>2025</v>
+      </c>
+      <c r="AC158" s="21">
+        <f>12856074/1000000</f>
+        <v>12.856074</v>
+      </c>
+      <c r="AD158" s="20">
+        <v>319.08600000000001</v>
+      </c>
+      <c r="AE158" s="3">
+        <f t="shared" si="2"/>
+        <v>4.029031044922058E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16280,1784 +16271,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F98D895-8F86-7E4D-B73F-C96631DA9E00}">
-  <dimension ref="A1:AH19"/>
-  <sheetViews>
-    <sheetView topLeftCell="Y1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="AG10" sqref="AG10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.19921875" style="21" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.3984375" customWidth="1"/>
-    <col min="30" max="30" width="14.19921875" customWidth="1"/>
-    <col min="31" max="32" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="34" max="51" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="53" max="56" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="58" max="68" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="70" max="85" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="89" max="99" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="108" max="110" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="113" max="114" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="119" max="122" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="131" max="134" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="136" max="137" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="140" max="141" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="148" max="149" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="157" max="160" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="163" max="166" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="168" max="169" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="172" max="176" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="179" max="180" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="183" max="186" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="282" max="282" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="283" max="283" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="291" max="291" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="294" max="294" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="295" max="295" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="296" max="296" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="297" max="297" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="301" max="301" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="302" max="302" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="303" max="303" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="304" max="304" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="305" max="305" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="306" max="306" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="307" max="307" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="308" max="308" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="309" max="309" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="310" max="310" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="311" max="311" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="312" max="312" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="313" max="313" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="314" max="314" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="315" max="315" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="316" max="316" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="317" max="317" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="318" max="318" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="319" max="319" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="320" max="320" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="321" max="321" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="322" max="322" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="323" max="323" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="324" max="324" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="325" max="325" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="326" max="326" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="327" max="327" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="328" max="328" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="329" max="329" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="330" max="330" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="331" max="331" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="332" max="332" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="333" max="333" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="334" max="334" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="335" max="335" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="336" max="336" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="337" max="337" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="338" max="338" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="339" max="339" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="340" max="340" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="341" max="341" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="342" max="342" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="343" max="343" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="344" max="344" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="345" max="345" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="346" max="346" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="347" max="347" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="348" max="348" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="349" max="349" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="350" max="350" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="351" max="351" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="352" max="352" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="353" max="353" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="354" max="354" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="355" max="355" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="356" max="356" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="357" max="357" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="358" max="358" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="359" max="359" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="360" max="360" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="361" max="361" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="362" max="362" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="363" max="363" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="364" max="364" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="365" max="365" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="366" max="366" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="367" max="367" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="368" max="368" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="369" max="369" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="370" max="370" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="371" max="371" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="372" max="372" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="373" max="373" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="374" max="374" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="375" max="375" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="376" max="376" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="377" max="377" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="378" max="378" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="379" max="379" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="380" max="380" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="381" max="381" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="382" max="382" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="383" max="383" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="384" max="384" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="385" max="385" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="386" max="386" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="387" max="387" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="388" max="388" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="389" max="389" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="390" max="390" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="391" max="391" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="392" max="392" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="393" max="393" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="394" max="394" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="395" max="395" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="396" max="396" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="397" max="397" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="398" max="398" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="399" max="399" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="400" max="400" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="401" max="401" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="402" max="402" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="403" max="403" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="404" max="405" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="406" max="406" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="407" max="407" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="408" max="409" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="410" max="410" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="411" max="411" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="412" max="413" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="414" max="414" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="415" max="415" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="416" max="417" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="418" max="418" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="419" max="419" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="420" max="421" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="422" max="422" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="423" max="423" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="424" max="425" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="426" max="426" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="427" max="427" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="428" max="429" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="430" max="430" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="431" max="431" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="432" max="433" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="434" max="434" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="435" max="435" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="436" max="436" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="437" max="437" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="438" max="438" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="439" max="439" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="440" max="441" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="442" max="442" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="443" max="443" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="444" max="445" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="446" max="446" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="447" max="447" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="448" max="449" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="450" max="450" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="451" max="451" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="452" max="453" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="454" max="454" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="455" max="455" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="456" max="456" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="457" max="457" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="458" max="458" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="459" max="459" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="460" max="461" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="462" max="462" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="463" max="463" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="464" max="465" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="466" max="466" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="467" max="467" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="468" max="469" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="470" max="470" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="471" max="471" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="472" max="473" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="474" max="474" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="475" max="475" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="476" max="477" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="478" max="478" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="479" max="479" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="480" max="481" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="482" max="482" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="483" max="483" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="484" max="484" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="485" max="485" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="486" max="486" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="487" max="487" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="488" max="489" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="490" max="490" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="491" max="491" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="492" max="493" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="494" max="494" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="495" max="495" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="496" max="497" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="498" max="498" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="499" max="499" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="500" max="500" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="501" max="501" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="502" max="502" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="503" max="503" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="504" max="504" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="505" max="505" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="506" max="506" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="507" max="507" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="508" max="509" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="510" max="510" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="511" max="511" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="512" max="512" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="515" max="516" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="523" max="524" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="525" max="525" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="526" max="526" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="527" max="527" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="528" max="528" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="529" max="529" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="530" max="530" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="531" max="532" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="533" max="533" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="534" max="534" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="535" max="536" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="537" max="537" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="538" max="538" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="539" max="539" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="540" max="540" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="541" max="541" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="542" max="543" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="544" max="544" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="545" max="545" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="546" max="546" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="547" max="547" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="548" max="548" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="549" max="550" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="551" max="551" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="552" max="552" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="553" max="554" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="555" max="555" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="556" max="556" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="557" max="558" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="559" max="559" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="560" max="560" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="561" max="562" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="563" max="563" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="564" max="564" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="565" max="566" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="567" max="567" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="568" max="568" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="569" max="570" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="571" max="571" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="572" max="572" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="573" max="574" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="575" max="575" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="576" max="576" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="577" max="578" width="10.3984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" s="11" customFormat="1">
-      <c r="A1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC1" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD1" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2">
-        <v>2012</v>
-      </c>
-      <c r="B2">
-        <v>1680</v>
-      </c>
-      <c r="C2">
-        <v>1319.8</v>
-      </c>
-      <c r="D2">
-        <v>231.79999999999998</v>
-      </c>
-      <c r="E2">
-        <v>1448.1999999999998</v>
-      </c>
-      <c r="F2">
-        <v>1088.0000000000002</v>
-      </c>
-      <c r="G2">
-        <v>95.1</v>
-      </c>
-      <c r="H2">
-        <v>136.70000000000002</v>
-      </c>
-      <c r="I2">
-        <v>275.79999999999995</v>
-      </c>
-      <c r="J2">
-        <v>40.699999999999996</v>
-      </c>
-      <c r="K2">
-        <v>204.59999999999997</v>
-      </c>
-      <c r="L2">
-        <v>30.500000000000004</v>
-      </c>
-      <c r="M2">
-        <v>29.399999999999991</v>
-      </c>
-      <c r="N2">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="O2">
-        <v>216.10000000000002</v>
-      </c>
-      <c r="P2">
-        <v>99.4</v>
-      </c>
-      <c r="Q2">
-        <v>224.5</v>
-      </c>
-      <c r="R2">
-        <v>211.4</v>
-      </c>
-      <c r="S2">
-        <v>187.20000000000002</v>
-      </c>
-      <c r="T2">
-        <v>62.20000000000001</v>
-      </c>
-      <c r="U2">
-        <v>360.19999999999993</v>
-      </c>
-      <c r="V2">
-        <v>30.199999999999996</v>
-      </c>
-      <c r="W2">
-        <v>169.5</v>
-      </c>
-      <c r="X2">
-        <v>162.9</v>
-      </c>
-      <c r="Y2">
-        <v>160.5</v>
-      </c>
-      <c r="Z2">
-        <v>83.6</v>
-      </c>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="21">
-        <v>88.643834999999996</v>
-      </c>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3">
-        <v>0.38600139999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3">
-        <v>2013</v>
-      </c>
-      <c r="B3">
-        <v>1734.8000000000002</v>
-      </c>
-      <c r="C3">
-        <v>1309.0000000000002</v>
-      </c>
-      <c r="D3">
-        <v>245.60000000000002</v>
-      </c>
-      <c r="E3">
-        <v>1489.2</v>
-      </c>
-      <c r="F3">
-        <v>1063.4000000000001</v>
-      </c>
-      <c r="G3">
-        <v>104.5</v>
-      </c>
-      <c r="H3">
-        <v>141.1</v>
-      </c>
-      <c r="I3">
-        <v>281.5</v>
-      </c>
-      <c r="J3">
-        <v>43.6</v>
-      </c>
-      <c r="K3">
-        <v>206.1</v>
-      </c>
-      <c r="L3">
-        <v>31.8</v>
-      </c>
-      <c r="M3">
-        <v>28.999999999999996</v>
-      </c>
-      <c r="N3">
-        <v>71</v>
-      </c>
-      <c r="O3">
-        <v>230.09999999999997</v>
-      </c>
-      <c r="P3">
-        <v>107.30000000000001</v>
-      </c>
-      <c r="Q3">
-        <v>170.6</v>
-      </c>
-      <c r="R3">
-        <v>216.50000000000003</v>
-      </c>
-      <c r="S3">
-        <v>191.89999999999998</v>
-      </c>
-      <c r="T3">
-        <v>64.7</v>
-      </c>
-      <c r="U3">
-        <v>425.80000000000007</v>
-      </c>
-      <c r="V3">
-        <v>29.6</v>
-      </c>
-      <c r="W3">
-        <v>233.79999999999998</v>
-      </c>
-      <c r="X3">
-        <v>165.3</v>
-      </c>
-      <c r="Y3">
-        <v>162.4</v>
-      </c>
-      <c r="Z3">
-        <v>84.600000000000009</v>
-      </c>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="21">
-        <v>92.76719700000001</v>
-      </c>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3">
-        <v>0.39811879999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
-      <c r="A4">
-        <v>2014</v>
-      </c>
-      <c r="B4">
-        <v>1794.3</v>
-      </c>
-      <c r="C4">
-        <v>1360.4</v>
-      </c>
-      <c r="D4">
-        <v>262.60000000000002</v>
-      </c>
-      <c r="E4">
-        <v>1531.7</v>
-      </c>
-      <c r="F4">
-        <v>1097.7999999999997</v>
-      </c>
-      <c r="G4">
-        <v>116.9</v>
-      </c>
-      <c r="H4">
-        <v>145.69999999999999</v>
-      </c>
-      <c r="I4">
-        <v>289.40000000000003</v>
-      </c>
-      <c r="J4">
-        <v>46.1</v>
-      </c>
-      <c r="K4">
-        <v>209.1</v>
-      </c>
-      <c r="L4">
-        <v>34.199999999999996</v>
-      </c>
-      <c r="M4">
-        <v>31.1</v>
-      </c>
-      <c r="N4">
-        <v>74.5</v>
-      </c>
-      <c r="O4">
-        <v>230.2</v>
-      </c>
-      <c r="P4">
-        <v>101.60000000000001</v>
-      </c>
-      <c r="Q4">
-        <v>179.09999999999997</v>
-      </c>
-      <c r="R4">
-        <v>227.60000000000002</v>
-      </c>
-      <c r="S4">
-        <v>201.7</v>
-      </c>
-      <c r="T4">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="U4">
-        <v>433.9</v>
-      </c>
-      <c r="V4">
-        <v>28.900000000000002</v>
-      </c>
-      <c r="W4">
-        <v>240</v>
-      </c>
-      <c r="X4">
-        <v>171.49999999999997</v>
-      </c>
-      <c r="Y4">
-        <v>164.99999999999997</v>
-      </c>
-      <c r="Z4">
-        <v>85.7</v>
-      </c>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="21">
-        <v>100.507654</v>
-      </c>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3">
-        <v>0.42452889999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
-      <c r="A5">
-        <v>2015</v>
-      </c>
-      <c r="B5">
-        <v>1865.4</v>
-      </c>
-      <c r="C5">
-        <v>1422.7</v>
-      </c>
-      <c r="D5">
-        <v>276.39999999999998</v>
-      </c>
-      <c r="E5">
-        <v>1588.9999999999998</v>
-      </c>
-      <c r="F5">
-        <v>1146.3000000000002</v>
-      </c>
-      <c r="G5">
-        <v>121</v>
-      </c>
-      <c r="H5">
-        <v>155.4</v>
-      </c>
-      <c r="I5">
-        <v>303.29999999999995</v>
-      </c>
-      <c r="J5">
-        <v>50.1</v>
-      </c>
-      <c r="K5">
-        <v>217.2</v>
-      </c>
-      <c r="L5">
-        <v>36.000000000000007</v>
-      </c>
-      <c r="M5">
-        <v>32.9</v>
-      </c>
-      <c r="N5">
-        <v>78.3</v>
-      </c>
-      <c r="O5">
-        <v>235.7</v>
-      </c>
-      <c r="P5">
-        <v>102.8</v>
-      </c>
-      <c r="Q5">
-        <v>188.49999999999997</v>
-      </c>
-      <c r="R5">
-        <v>239.9</v>
-      </c>
-      <c r="S5">
-        <v>210.79999999999998</v>
-      </c>
-      <c r="T5">
-        <v>67.700000000000017</v>
-      </c>
-      <c r="U5">
-        <v>442.7</v>
-      </c>
-      <c r="V5">
-        <v>29.299999999999997</v>
-      </c>
-      <c r="W5">
-        <v>246.99999999999997</v>
-      </c>
-      <c r="X5">
-        <v>176</v>
-      </c>
-      <c r="Y5">
-        <v>166.40000000000003</v>
-      </c>
-      <c r="Z5">
-        <v>87.1</v>
-      </c>
-      <c r="AA5" s="25">
-        <v>54177</v>
-      </c>
-      <c r="AB5" s="21">
-        <v>104.989233</v>
-      </c>
-      <c r="AC5">
-        <v>239.99</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>0.44287660000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
-      <c r="A6">
-        <v>2016</v>
-      </c>
-      <c r="B6">
-        <v>1931.7999999999997</v>
-      </c>
-      <c r="C6">
-        <v>1476.3999999999999</v>
-      </c>
-      <c r="D6">
-        <v>291</v>
-      </c>
-      <c r="E6">
-        <v>1640.8</v>
-      </c>
-      <c r="F6">
-        <v>1185.3999999999999</v>
-      </c>
-      <c r="G6">
-        <v>130.4</v>
-      </c>
-      <c r="H6">
-        <v>160.60000000000002</v>
-      </c>
-      <c r="I6">
-        <v>312.50000000000006</v>
-      </c>
-      <c r="J6">
-        <v>51.699999999999996</v>
-      </c>
-      <c r="K6">
-        <v>223.00000000000003</v>
-      </c>
-      <c r="L6">
-        <v>37.800000000000004</v>
-      </c>
-      <c r="M6">
-        <v>33.300000000000004</v>
-      </c>
-      <c r="N6">
-        <v>79.900000000000006</v>
-      </c>
-      <c r="O6">
-        <v>239.90000000000003</v>
-      </c>
-      <c r="P6">
-        <v>102.8</v>
-      </c>
-      <c r="Q6">
-        <v>199.4</v>
-      </c>
-      <c r="R6">
-        <v>249.3</v>
-      </c>
-      <c r="S6">
-        <v>218.3</v>
-      </c>
-      <c r="T6">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="U6">
-        <v>455.4</v>
-      </c>
-      <c r="V6">
-        <v>30.4</v>
-      </c>
-      <c r="W6">
-        <v>253.40000000000003</v>
-      </c>
-      <c r="X6">
-        <v>177.10000000000002</v>
-      </c>
-      <c r="Y6">
-        <v>171.6</v>
-      </c>
-      <c r="Z6">
-        <v>88.09999999999998</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>58938</v>
-      </c>
-      <c r="AB6" s="21">
-        <v>109.72959300000001</v>
-      </c>
-      <c r="AC6">
-        <v>246.643</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>0.45701979999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
-      <c r="A7">
-        <v>2017</v>
-      </c>
-      <c r="B7">
-        <v>1991.4000000000003</v>
-      </c>
-      <c r="C7">
-        <v>1519.5000000000002</v>
-      </c>
-      <c r="D7">
-        <v>299.50000000000006</v>
-      </c>
-      <c r="E7">
-        <v>1691.8999999999999</v>
-      </c>
-      <c r="F7">
-        <v>1220</v>
-      </c>
-      <c r="G7">
-        <v>134.4</v>
-      </c>
-      <c r="H7">
-        <v>165.10000000000002</v>
-      </c>
-      <c r="I7">
-        <v>322.59999999999997</v>
-      </c>
-      <c r="J7">
-        <v>54.70000000000001</v>
-      </c>
-      <c r="K7">
-        <v>229.10000000000005</v>
-      </c>
-      <c r="L7">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="M7">
-        <v>34.599999999999994</v>
-      </c>
-      <c r="N7">
-        <v>83.7</v>
-      </c>
-      <c r="O7">
-        <v>242.79999999999995</v>
-      </c>
-      <c r="P7">
-        <v>102.5</v>
-      </c>
-      <c r="Q7">
-        <v>207.4</v>
-      </c>
-      <c r="R7">
-        <v>255.79999999999998</v>
-      </c>
-      <c r="S7">
-        <v>223.7</v>
-      </c>
-      <c r="T7">
-        <v>73.100000000000009</v>
-      </c>
-      <c r="U7">
-        <v>471.90000000000003</v>
-      </c>
-      <c r="V7">
-        <v>30.299999999999994</v>
-      </c>
-      <c r="W7">
-        <v>265.79999999999995</v>
-      </c>
-      <c r="X7">
-        <v>183.1</v>
-      </c>
-      <c r="Y7">
-        <v>175.79999999999998</v>
-      </c>
-      <c r="Z7">
-        <v>88.699999999999989</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>54178</v>
-      </c>
-      <c r="AB7" s="21">
-        <v>112.697681</v>
-      </c>
-      <c r="AC7">
-        <v>254.995</v>
-      </c>
-      <c r="AD7" s="3">
-        <v>0.45959060000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
-      <c r="A8">
-        <v>2018</v>
-      </c>
-      <c r="B8">
-        <v>2042.0000000000002</v>
-      </c>
-      <c r="C8">
-        <v>1559.6</v>
-      </c>
-      <c r="D8">
-        <v>312.3</v>
-      </c>
-      <c r="E8">
-        <v>1729.7</v>
-      </c>
-      <c r="F8">
-        <v>1247.3</v>
-      </c>
-      <c r="G8">
-        <v>140.19999999999999</v>
-      </c>
-      <c r="H8">
-        <v>172.1</v>
-      </c>
-      <c r="I8">
-        <v>330.20000000000005</v>
-      </c>
-      <c r="J8">
-        <v>58.300000000000004</v>
-      </c>
-      <c r="K8">
-        <v>232.7</v>
-      </c>
-      <c r="L8">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="M8">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="N8">
-        <v>83.600000000000009</v>
-      </c>
-      <c r="O8">
-        <v>241.2</v>
-      </c>
-      <c r="P8">
-        <v>103.80000000000001</v>
-      </c>
-      <c r="Q8">
-        <v>217</v>
-      </c>
-      <c r="R8">
-        <v>262.09999999999997</v>
-      </c>
-      <c r="S8">
-        <v>229.49999999999997</v>
-      </c>
-      <c r="T8">
-        <v>76</v>
-      </c>
-      <c r="U8">
-        <v>482.40000000000003</v>
-      </c>
-      <c r="V8">
-        <v>30.099999999999998</v>
-      </c>
-      <c r="W8">
-        <v>277.3</v>
-      </c>
-      <c r="X8">
-        <v>186.7</v>
-      </c>
-      <c r="Y8">
-        <v>174.99999999999997</v>
-      </c>
-      <c r="Z8">
-        <v>88.699999999999989</v>
-      </c>
-      <c r="AA8" s="26">
-        <v>54923</v>
-      </c>
-      <c r="AB8" s="21">
-        <v>116.55156600000001</v>
-      </c>
-      <c r="AC8">
-        <v>261.95800000000003</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>0.46402549999999998</v>
-      </c>
-      <c r="AG8" s="24"/>
-    </row>
-    <row r="9" spans="1:34">
-      <c r="A9">
-        <v>2019</v>
-      </c>
-      <c r="B9">
-        <v>2089.5</v>
-      </c>
-      <c r="C9">
-        <v>1589.6000000000001</v>
-      </c>
-      <c r="D9">
-        <v>317.09999999999997</v>
-      </c>
-      <c r="E9">
-        <v>1772.4</v>
-      </c>
-      <c r="F9">
-        <v>1272.5</v>
-      </c>
-      <c r="G9">
-        <v>141.69999999999999</v>
-      </c>
-      <c r="H9">
-        <v>175.39999999999998</v>
-      </c>
-      <c r="I9">
-        <v>334.49999999999994</v>
-      </c>
-      <c r="J9">
-        <v>62.3</v>
-      </c>
-      <c r="K9">
-        <v>232.50000000000003</v>
-      </c>
-      <c r="L9">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="M9">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="N9">
-        <v>83</v>
-      </c>
-      <c r="O9">
-        <v>244.49999999999997</v>
-      </c>
-      <c r="P9">
-        <v>102.8</v>
-      </c>
-      <c r="Q9">
-        <v>225.1</v>
-      </c>
-      <c r="R9">
-        <v>265.2</v>
-      </c>
-      <c r="S9">
-        <v>230.80000000000004</v>
-      </c>
-      <c r="T9">
-        <v>80</v>
-      </c>
-      <c r="U9">
-        <v>499.90000000000003</v>
-      </c>
-      <c r="V9">
-        <v>30</v>
-      </c>
-      <c r="W9">
-        <v>290.49999999999994</v>
-      </c>
-      <c r="X9">
-        <v>191.6</v>
-      </c>
-      <c r="Y9">
-        <v>179.4</v>
-      </c>
-      <c r="Z9">
-        <v>90.699999999999989</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>58032</v>
-      </c>
-      <c r="AB9" s="21">
-        <v>120.63604600000001</v>
-      </c>
-      <c r="AC9">
-        <v>266.99900000000002</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>0.47162219999999999</v>
-      </c>
-      <c r="AG9" s="24"/>
-    </row>
-    <row r="10" spans="1:34">
-      <c r="A10">
-        <v>2020</v>
-      </c>
-      <c r="B10">
-        <v>1991.3</v>
-      </c>
-      <c r="C10">
-        <v>1502.6000000000001</v>
-      </c>
-      <c r="D10">
-        <v>307.09999999999997</v>
-      </c>
-      <c r="E10">
-        <v>1684.1999999999998</v>
-      </c>
-      <c r="F10">
-        <v>1195.4999999999998</v>
-      </c>
-      <c r="G10">
-        <v>138.80000000000001</v>
-      </c>
-      <c r="H10">
-        <v>168.3</v>
-      </c>
-      <c r="I10">
-        <v>332.40000000000003</v>
-      </c>
-      <c r="J10">
-        <v>62.9</v>
-      </c>
-      <c r="K10">
-        <v>221.19999999999996</v>
-      </c>
-      <c r="L10">
-        <v>48.300000000000004</v>
-      </c>
-      <c r="M10">
-        <v>36.099999999999994</v>
-      </c>
-      <c r="N10">
-        <v>81.900000000000006</v>
-      </c>
-      <c r="O10">
-        <v>240.1</v>
-      </c>
-      <c r="P10">
-        <v>95.000000000000014</v>
-      </c>
-      <c r="Q10">
-        <v>217.4</v>
-      </c>
-      <c r="R10">
-        <v>209.6</v>
-      </c>
-      <c r="S10">
-        <v>183.20000000000002</v>
-      </c>
-      <c r="T10">
-        <v>78.000000000000014</v>
-      </c>
-      <c r="U10">
-        <v>488.70000000000005</v>
-      </c>
-      <c r="V10">
-        <v>31.6</v>
-      </c>
-      <c r="W10">
-        <v>286.2</v>
-      </c>
-      <c r="X10">
-        <v>183.79999999999998</v>
-      </c>
-      <c r="Y10">
-        <v>170.9</v>
-      </c>
-      <c r="Z10">
-        <v>85.000000000000014</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>57835</v>
-      </c>
-      <c r="AB10" s="21">
-        <v>115.626158</v>
-      </c>
-      <c r="AC10">
-        <v>272.20699999999999</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>0.44639780000000001</v>
-      </c>
-      <c r="AG10" s="24"/>
-    </row>
-    <row r="11" spans="1:34">
-      <c r="A11">
-        <v>2021</v>
-      </c>
-      <c r="B11">
-        <v>2065.6999999999998</v>
-      </c>
-      <c r="C11">
-        <v>1573.8000000000002</v>
-      </c>
-      <c r="D11">
-        <v>318.09999999999997</v>
-      </c>
-      <c r="E11">
-        <v>1747.6</v>
-      </c>
-      <c r="F11">
-        <v>1255.7</v>
-      </c>
-      <c r="G11">
-        <v>143.30000000000001</v>
-      </c>
-      <c r="H11">
-        <v>174.8</v>
-      </c>
-      <c r="I11">
-        <v>350.9</v>
-      </c>
-      <c r="J11">
-        <v>65.8</v>
-      </c>
-      <c r="K11">
-        <v>234.00000000000003</v>
-      </c>
-      <c r="L11">
-        <v>51.100000000000016</v>
-      </c>
-      <c r="M11">
-        <v>33.699999999999996</v>
-      </c>
-      <c r="N11">
-        <v>83.3</v>
-      </c>
-      <c r="O11">
-        <v>245.7</v>
-      </c>
-      <c r="P11">
-        <v>93.399999999999991</v>
-      </c>
-      <c r="Q11">
-        <v>225.7</v>
-      </c>
-      <c r="R11">
-        <v>237.29999999999998</v>
-      </c>
-      <c r="S11">
-        <v>206.5</v>
-      </c>
-      <c r="T11">
-        <v>79.100000000000009</v>
-      </c>
-      <c r="U11">
-        <v>491.90000000000003</v>
-      </c>
-      <c r="V11">
-        <v>31.7</v>
-      </c>
-      <c r="W11">
-        <v>284.7</v>
-      </c>
-      <c r="X11">
-        <v>175.90000000000003</v>
-      </c>
-      <c r="Y11">
-        <v>175.50000000000003</v>
-      </c>
-      <c r="Z11">
-        <v>85.999999999999986</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>58715</v>
-      </c>
-      <c r="AB11" s="21">
-        <v>141.15745199999998</v>
-      </c>
-      <c r="AC11">
-        <v>281.84500000000003</v>
-      </c>
-      <c r="AD11" s="3">
-        <v>0.51992190000000005</v>
-      </c>
-      <c r="AG11" s="24"/>
-    </row>
-    <row r="12" spans="1:34">
-      <c r="A12">
-        <v>2022</v>
-      </c>
-      <c r="B12">
-        <v>2151.6</v>
-      </c>
-      <c r="C12">
-        <v>1635.0000000000002</v>
-      </c>
-      <c r="D12">
-        <v>325.90000000000003</v>
-      </c>
-      <c r="E12">
-        <v>1825.7</v>
-      </c>
-      <c r="F12">
-        <v>1309.0999999999997</v>
-      </c>
-      <c r="G12">
-        <v>144.29999999999998</v>
-      </c>
-      <c r="H12">
-        <v>181.60000000000002</v>
-      </c>
-      <c r="I12">
-        <v>360.10000000000008</v>
-      </c>
-      <c r="J12">
-        <v>70.7</v>
-      </c>
-      <c r="K12">
-        <v>237.39999999999995</v>
-      </c>
-      <c r="L12">
-        <v>52</v>
-      </c>
-      <c r="M12">
-        <v>31.6</v>
-      </c>
-      <c r="N12">
-        <v>85.399999999999991</v>
-      </c>
-      <c r="O12">
-        <v>261.60000000000002</v>
-      </c>
-      <c r="P12">
-        <v>93.3</v>
-      </c>
-      <c r="Q12">
-        <v>230.39999999999998</v>
-      </c>
-      <c r="R12">
-        <v>261</v>
-      </c>
-      <c r="S12">
-        <v>225.70000000000002</v>
-      </c>
-      <c r="T12">
-        <v>79.000000000000014</v>
-      </c>
-      <c r="U12">
-        <v>516.6</v>
-      </c>
-      <c r="V12">
-        <v>30.700000000000003</v>
-      </c>
-      <c r="W12">
-        <v>301.90000000000003</v>
-      </c>
-      <c r="X12">
-        <v>184.6</v>
-      </c>
-      <c r="Y12">
-        <v>184</v>
-      </c>
-      <c r="Z12">
-        <v>91.300000000000011</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>68379</v>
-      </c>
-      <c r="AB12" s="21">
-        <v>151.04953</v>
-      </c>
-      <c r="AC12">
-        <v>304.42399999999998</v>
-      </c>
-      <c r="AD12" s="3">
-        <v>0.51553709999999997</v>
-      </c>
-      <c r="AG12" s="24"/>
-    </row>
-    <row r="13" spans="1:34">
-      <c r="A13">
-        <v>2023</v>
-      </c>
-      <c r="B13">
-        <v>2219.4</v>
-      </c>
-      <c r="C13">
-        <v>1672</v>
-      </c>
-      <c r="D13">
-        <v>327.20000000000005</v>
-      </c>
-      <c r="E13">
-        <v>1892.2</v>
-      </c>
-      <c r="F13">
-        <v>1344.8</v>
-      </c>
-      <c r="G13">
-        <v>141.4</v>
-      </c>
-      <c r="H13">
-        <v>185.79999999999995</v>
-      </c>
-      <c r="I13">
-        <v>354.3</v>
-      </c>
-      <c r="J13">
-        <v>72.3</v>
-      </c>
-      <c r="K13">
-        <v>231.4</v>
-      </c>
-      <c r="L13">
-        <v>50.6</v>
-      </c>
-      <c r="M13">
-        <v>29.799999999999997</v>
-      </c>
-      <c r="N13">
-        <v>85.200000000000017</v>
-      </c>
-      <c r="O13">
-        <v>274</v>
-      </c>
-      <c r="P13">
-        <v>94.100000000000009</v>
-      </c>
-      <c r="Q13">
-        <v>242.39999999999998</v>
-      </c>
-      <c r="R13">
-        <v>276.5</v>
-      </c>
-      <c r="S13">
-        <v>234.30000000000004</v>
-      </c>
-      <c r="T13">
-        <v>82.600000000000009</v>
-      </c>
-      <c r="U13">
-        <v>547.40000000000009</v>
-      </c>
-      <c r="V13">
-        <v>31.6</v>
-      </c>
-      <c r="W13">
-        <v>321.7</v>
-      </c>
-      <c r="X13">
-        <v>195.2</v>
-      </c>
-      <c r="Y13">
-        <v>194.09999999999997</v>
-      </c>
-      <c r="Z13">
-        <v>96.700000000000017</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>72597</v>
-      </c>
-      <c r="AB13" s="21">
-        <v>155.376701</v>
-      </c>
-      <c r="AC13">
-        <v>320.3</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>0.50970789999999999</v>
-      </c>
-      <c r="AG13" s="24"/>
-    </row>
-    <row r="14" spans="1:34">
-      <c r="A14">
-        <v>2024</v>
-      </c>
-      <c r="B14">
-        <v>2272.0999999999995</v>
-      </c>
-      <c r="C14">
-        <v>1698.3999999999999</v>
-      </c>
-      <c r="D14">
-        <v>326.09999999999997</v>
-      </c>
-      <c r="E14">
-        <v>1946</v>
-      </c>
-      <c r="F14">
-        <v>1372.3000000000002</v>
-      </c>
-      <c r="G14">
-        <v>137.29999999999998</v>
-      </c>
-      <c r="H14">
-        <v>188.79999999999998</v>
-      </c>
-      <c r="I14">
-        <v>351.5</v>
-      </c>
-      <c r="J14">
-        <v>73.399999999999991</v>
-      </c>
-      <c r="K14">
-        <v>228.2</v>
-      </c>
-      <c r="L14">
-        <v>49.900000000000006</v>
-      </c>
-      <c r="M14">
-        <v>28.799999999999994</v>
-      </c>
-      <c r="N14">
-        <v>85.499999999999986</v>
-      </c>
-      <c r="O14">
-        <v>276.00000000000006</v>
-      </c>
-      <c r="P14">
-        <v>93.300000000000011</v>
-      </c>
-      <c r="Q14">
-        <v>253.70000000000002</v>
-      </c>
-      <c r="R14">
-        <v>293.5</v>
-      </c>
-      <c r="S14">
-        <v>244.4</v>
-      </c>
-      <c r="T14">
-        <v>83.300000000000011</v>
-      </c>
-      <c r="U14">
-        <v>573.70000000000005</v>
-      </c>
-      <c r="V14">
-        <v>31.900000000000006</v>
-      </c>
-      <c r="W14">
-        <v>339.29999999999995</v>
-      </c>
-      <c r="X14">
-        <v>206.1</v>
-      </c>
-      <c r="Y14">
-        <v>202.5</v>
-      </c>
-      <c r="Z14">
-        <v>99.2</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>80445</v>
-      </c>
-      <c r="AB14" s="21">
-        <v>177.47612899999996</v>
-      </c>
-      <c r="AC14">
-        <v>327.572</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>0.56549709999999997</v>
-      </c>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="27"/>
-    </row>
-    <row r="15" spans="1:34">
-      <c r="AG15" s="24"/>
-    </row>
-    <row r="16" spans="1:34">
-      <c r="AG16" s="24"/>
-    </row>
-    <row r="17" spans="33:33">
-      <c r="AG17" s="24"/>
-    </row>
-    <row r="18" spans="33:33">
-      <c r="AG18" s="24"/>
-    </row>
-    <row r="19" spans="33:33">
-      <c r="AG19" s="24"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:E28"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -18192,7 +16410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -18203,7 +16421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -18214,7 +16432,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -18225,7 +16443,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -18236,7 +16454,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -18246,8 +16464,11 @@
       <c r="C21" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -18257,8 +16478,11 @@
       <c r="C22" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
@@ -18269,7 +16493,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -18280,7 +16504,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
@@ -18291,7 +16515,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:5">
       <c r="A26" s="7" t="s">
         <v>14</v>
       </c>
@@ -18302,7 +16526,7 @@
         <v>6056</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
@@ -18313,7 +16537,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>16</v>
       </c>
@@ -18323,8 +16547,11 @@
       <c r="C28" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="E28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
@@ -18335,7 +16562,7 @@
         <v>7072</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>18</v>
       </c>
@@ -18346,7 +16573,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:5">
       <c r="A31" s="6" t="s">
         <v>19</v>
       </c>
@@ -18357,7 +16584,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>

--- a/Data/FinalData.xlsx
+++ b/Data/FinalData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c1929351461b30c/Documents/ECON436_SalesTax/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{9BEAF4C7-2D6F-B841-97EE-52EB59062A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92724872-23BB-4870-8C24-08BB99CEA7B0}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{9BEAF4C7-2D6F-B841-97EE-52EB59062A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D580DB5B-68AB-4A1F-A5A2-033F05A5C045}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -925,6 +925,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -1224,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="AG150" sqref="AG150"/>
+    <sheetView tabSelected="1" topLeftCell="S2" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>

--- a/Data/FinalData.xlsx
+++ b/Data/FinalData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c1929351461b30c/Documents/ECON436_SalesTax/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{9BEAF4C7-2D6F-B841-97EE-52EB59062A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D580DB5B-68AB-4A1F-A5A2-033F05A5C045}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224937DA-3E75-E34D-82BD-B5CFF0E65CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,13 +259,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -437,7 +436,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,6 +634,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -820,7 +825,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -862,9 +867,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -923,10 +927,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1226,10 +1226,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL158"/>
+  <dimension ref="A1:AL722"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S2" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="T150" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AE159" sqref="AE159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -13739,7 +13742,7 @@
         <v>297.97899999999998</v>
       </c>
       <c r="AE131" s="3">
-        <f t="shared" ref="AE131:AE158" si="2">AC131/AD131</f>
+        <f t="shared" ref="AE131:AE159" si="2">AC131/AD131</f>
         <v>4.178057178526004E-2</v>
       </c>
     </row>
@@ -16257,7 +16260,8 @@
       <c r="B158">
         <v>2025</v>
       </c>
-      <c r="AC158" s="21">
+      <c r="AB158" s="19"/>
+      <c r="AC158" s="13">
         <f>12856074/1000000</f>
         <v>12.856074</v>
       </c>
@@ -16268,6 +16272,2338 @@
         <f t="shared" si="2"/>
         <v>4.029031044922058E-2</v>
       </c>
+    </row>
+    <row r="159" spans="1:38">
+      <c r="A159" s="12">
+        <v>45689</v>
+      </c>
+      <c r="AB159" s="19"/>
+      <c r="AC159" s="22">
+        <f>12391861/1000000</f>
+        <v>12.391861</v>
+      </c>
+      <c r="AD159" s="3">
+        <v>319.77499999999998</v>
+      </c>
+      <c r="AE159" s="3">
+        <f t="shared" si="2"/>
+        <v>3.8751812993511069E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:38">
+      <c r="A160" s="12">
+        <v>45717</v>
+      </c>
+      <c r="AB160" s="19"/>
+      <c r="AC160" s="13"/>
+      <c r="AD160" s="3">
+        <v>319.61500000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:30">
+      <c r="A161" s="12">
+        <v>45748</v>
+      </c>
+      <c r="AB161" s="19"/>
+      <c r="AC161" s="13"/>
+      <c r="AD161" s="21">
+        <f>AD148*(1+AF161/100)</f>
+        <v>312.10700000000003</v>
+      </c>
+    </row>
+    <row r="162" spans="1:30">
+      <c r="A162" s="12">
+        <v>45778</v>
+      </c>
+      <c r="AB162" s="19"/>
+      <c r="AC162" s="19"/>
+      <c r="AD162" s="21">
+        <f t="shared" ref="AD162:AD168" si="3">AD149*(1+AF162/100)</f>
+        <v>313.01600000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:30">
+      <c r="A163" s="12">
+        <v>45809</v>
+      </c>
+      <c r="AB163" s="19"/>
+      <c r="AC163" s="19"/>
+      <c r="AD163" s="21">
+        <f t="shared" si="3"/>
+        <v>313.14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:30">
+      <c r="A164" s="12">
+        <v>45839</v>
+      </c>
+      <c r="AB164" s="19"/>
+      <c r="AC164" s="19"/>
+      <c r="AD164" s="21">
+        <f t="shared" si="3"/>
+        <v>313.13099999999997</v>
+      </c>
+    </row>
+    <row r="165" spans="1:30">
+      <c r="A165" s="12">
+        <v>45870</v>
+      </c>
+      <c r="AB165" s="19"/>
+      <c r="AC165" s="19"/>
+      <c r="AD165" s="21">
+        <f t="shared" si="3"/>
+        <v>313.56599999999997</v>
+      </c>
+    </row>
+    <row r="166" spans="1:30">
+      <c r="A166" s="12">
+        <v>45901</v>
+      </c>
+      <c r="AB166" s="19"/>
+      <c r="AC166" s="19"/>
+      <c r="AD166" s="21">
+        <f t="shared" si="3"/>
+        <v>314.13099999999997</v>
+      </c>
+    </row>
+    <row r="167" spans="1:30">
+      <c r="A167" s="12">
+        <v>45931</v>
+      </c>
+      <c r="AB167" s="19"/>
+      <c r="AC167" s="19"/>
+      <c r="AD167" s="21">
+        <f t="shared" si="3"/>
+        <v>314.851</v>
+      </c>
+    </row>
+    <row r="168" spans="1:30">
+      <c r="A168" s="12">
+        <v>45962</v>
+      </c>
+      <c r="AB168" s="19"/>
+      <c r="AC168" s="19"/>
+      <c r="AD168" s="21">
+        <f t="shared" si="3"/>
+        <v>315.56400000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:30">
+      <c r="AB169" s="19"/>
+      <c r="AC169" s="19"/>
+      <c r="AD169" s="21"/>
+    </row>
+    <row r="170" spans="1:30">
+      <c r="AB170" s="19"/>
+      <c r="AC170" s="19"/>
+    </row>
+    <row r="171" spans="1:30">
+      <c r="AB171" s="19"/>
+      <c r="AC171" s="19"/>
+    </row>
+    <row r="172" spans="1:30">
+      <c r="AB172" s="19"/>
+      <c r="AC172" s="19"/>
+    </row>
+    <row r="173" spans="1:30">
+      <c r="AB173" s="19"/>
+      <c r="AC173" s="19"/>
+    </row>
+    <row r="174" spans="1:30">
+      <c r="AB174" s="19"/>
+      <c r="AC174" s="19"/>
+    </row>
+    <row r="175" spans="1:30">
+      <c r="AB175" s="19"/>
+      <c r="AC175" s="19"/>
+    </row>
+    <row r="176" spans="1:30">
+      <c r="AB176" s="19"/>
+      <c r="AC176" s="19"/>
+    </row>
+    <row r="177" spans="28:29">
+      <c r="AB177" s="19"/>
+      <c r="AC177" s="19"/>
+    </row>
+    <row r="178" spans="28:29">
+      <c r="AB178" s="19"/>
+      <c r="AC178" s="19"/>
+    </row>
+    <row r="179" spans="28:29">
+      <c r="AB179" s="19"/>
+      <c r="AC179" s="19"/>
+    </row>
+    <row r="180" spans="28:29">
+      <c r="AB180" s="19"/>
+      <c r="AC180" s="19"/>
+    </row>
+    <row r="181" spans="28:29">
+      <c r="AB181" s="19"/>
+      <c r="AC181" s="19"/>
+    </row>
+    <row r="182" spans="28:29">
+      <c r="AB182" s="19"/>
+      <c r="AC182" s="19"/>
+    </row>
+    <row r="183" spans="28:29">
+      <c r="AB183" s="19"/>
+      <c r="AC183" s="19"/>
+    </row>
+    <row r="184" spans="28:29">
+      <c r="AB184" s="19"/>
+      <c r="AC184" s="19"/>
+    </row>
+    <row r="185" spans="28:29">
+      <c r="AB185" s="19"/>
+      <c r="AC185" s="19"/>
+    </row>
+    <row r="186" spans="28:29">
+      <c r="AB186" s="19"/>
+      <c r="AC186" s="19"/>
+    </row>
+    <row r="187" spans="28:29">
+      <c r="AB187" s="19"/>
+      <c r="AC187" s="19"/>
+    </row>
+    <row r="188" spans="28:29">
+      <c r="AB188" s="19"/>
+      <c r="AC188" s="19"/>
+    </row>
+    <row r="189" spans="28:29">
+      <c r="AB189" s="19"/>
+      <c r="AC189" s="19"/>
+    </row>
+    <row r="190" spans="28:29">
+      <c r="AB190" s="19"/>
+      <c r="AC190" s="19"/>
+    </row>
+    <row r="191" spans="28:29">
+      <c r="AB191" s="19"/>
+      <c r="AC191" s="19"/>
+    </row>
+    <row r="192" spans="28:29">
+      <c r="AB192" s="19"/>
+      <c r="AC192" s="19"/>
+    </row>
+    <row r="193" spans="28:29">
+      <c r="AB193" s="19"/>
+      <c r="AC193" s="19"/>
+    </row>
+    <row r="194" spans="28:29">
+      <c r="AB194" s="19"/>
+      <c r="AC194" s="19"/>
+    </row>
+    <row r="195" spans="28:29">
+      <c r="AB195" s="19"/>
+      <c r="AC195" s="19"/>
+    </row>
+    <row r="196" spans="28:29">
+      <c r="AB196" s="19"/>
+      <c r="AC196" s="19"/>
+    </row>
+    <row r="197" spans="28:29">
+      <c r="AB197" s="19"/>
+      <c r="AC197" s="19"/>
+    </row>
+    <row r="198" spans="28:29">
+      <c r="AB198" s="19"/>
+      <c r="AC198" s="19"/>
+    </row>
+    <row r="199" spans="28:29">
+      <c r="AB199" s="19"/>
+      <c r="AC199" s="19"/>
+    </row>
+    <row r="200" spans="28:29">
+      <c r="AB200" s="19"/>
+      <c r="AC200" s="19"/>
+    </row>
+    <row r="201" spans="28:29">
+      <c r="AB201" s="19"/>
+      <c r="AC201" s="19"/>
+    </row>
+    <row r="202" spans="28:29">
+      <c r="AB202" s="19"/>
+      <c r="AC202" s="19"/>
+    </row>
+    <row r="203" spans="28:29">
+      <c r="AB203" s="19"/>
+      <c r="AC203" s="19"/>
+    </row>
+    <row r="204" spans="28:29">
+      <c r="AB204" s="19"/>
+      <c r="AC204" s="19"/>
+    </row>
+    <row r="205" spans="28:29">
+      <c r="AB205" s="19"/>
+      <c r="AC205" s="19"/>
+    </row>
+    <row r="206" spans="28:29">
+      <c r="AB206" s="19"/>
+      <c r="AC206" s="19"/>
+    </row>
+    <row r="207" spans="28:29">
+      <c r="AB207" s="19"/>
+      <c r="AC207" s="19"/>
+    </row>
+    <row r="208" spans="28:29">
+      <c r="AB208" s="19"/>
+      <c r="AC208" s="19"/>
+    </row>
+    <row r="209" spans="28:29">
+      <c r="AB209" s="19"/>
+      <c r="AC209" s="19"/>
+    </row>
+    <row r="210" spans="28:29">
+      <c r="AB210" s="19"/>
+      <c r="AC210" s="19"/>
+    </row>
+    <row r="211" spans="28:29">
+      <c r="AB211" s="19"/>
+      <c r="AC211" s="19"/>
+    </row>
+    <row r="212" spans="28:29">
+      <c r="AB212" s="19"/>
+      <c r="AC212" s="19"/>
+    </row>
+    <row r="213" spans="28:29">
+      <c r="AB213" s="19"/>
+      <c r="AC213" s="19"/>
+    </row>
+    <row r="214" spans="28:29">
+      <c r="AB214" s="19"/>
+      <c r="AC214" s="19"/>
+    </row>
+    <row r="215" spans="28:29">
+      <c r="AB215" s="19"/>
+      <c r="AC215" s="19"/>
+    </row>
+    <row r="216" spans="28:29">
+      <c r="AB216" s="19"/>
+      <c r="AC216" s="19"/>
+    </row>
+    <row r="217" spans="28:29">
+      <c r="AB217" s="19"/>
+      <c r="AC217" s="19"/>
+    </row>
+    <row r="218" spans="28:29">
+      <c r="AB218" s="19"/>
+      <c r="AC218" s="19"/>
+    </row>
+    <row r="219" spans="28:29">
+      <c r="AB219" s="19"/>
+      <c r="AC219" s="19"/>
+    </row>
+    <row r="220" spans="28:29">
+      <c r="AB220" s="19"/>
+      <c r="AC220" s="19"/>
+    </row>
+    <row r="221" spans="28:29">
+      <c r="AB221" s="19"/>
+      <c r="AC221" s="19"/>
+    </row>
+    <row r="222" spans="28:29">
+      <c r="AB222" s="19"/>
+      <c r="AC222" s="19"/>
+    </row>
+    <row r="223" spans="28:29">
+      <c r="AB223" s="19"/>
+      <c r="AC223" s="19"/>
+    </row>
+    <row r="224" spans="28:29">
+      <c r="AB224" s="19"/>
+      <c r="AC224" s="19"/>
+    </row>
+    <row r="225" spans="28:29">
+      <c r="AB225" s="19"/>
+      <c r="AC225" s="19"/>
+    </row>
+    <row r="226" spans="28:29">
+      <c r="AB226" s="19"/>
+      <c r="AC226" s="19"/>
+    </row>
+    <row r="227" spans="28:29">
+      <c r="AB227" s="19"/>
+      <c r="AC227" s="19"/>
+    </row>
+    <row r="228" spans="28:29">
+      <c r="AB228" s="19"/>
+      <c r="AC228" s="19"/>
+    </row>
+    <row r="229" spans="28:29">
+      <c r="AB229" s="19"/>
+      <c r="AC229" s="19"/>
+    </row>
+    <row r="230" spans="28:29">
+      <c r="AB230" s="19"/>
+      <c r="AC230" s="19"/>
+    </row>
+    <row r="231" spans="28:29">
+      <c r="AB231" s="19"/>
+      <c r="AC231" s="19"/>
+    </row>
+    <row r="232" spans="28:29">
+      <c r="AB232" s="19"/>
+      <c r="AC232" s="19"/>
+    </row>
+    <row r="233" spans="28:29">
+      <c r="AB233" s="19"/>
+      <c r="AC233" s="19"/>
+    </row>
+    <row r="234" spans="28:29">
+      <c r="AB234" s="19"/>
+      <c r="AC234" s="19"/>
+    </row>
+    <row r="235" spans="28:29">
+      <c r="AB235" s="19"/>
+      <c r="AC235" s="19"/>
+    </row>
+    <row r="236" spans="28:29">
+      <c r="AB236" s="19"/>
+      <c r="AC236" s="19"/>
+    </row>
+    <row r="237" spans="28:29">
+      <c r="AB237" s="19"/>
+      <c r="AC237" s="19"/>
+    </row>
+    <row r="238" spans="28:29">
+      <c r="AB238" s="19"/>
+      <c r="AC238" s="19"/>
+    </row>
+    <row r="239" spans="28:29">
+      <c r="AB239" s="19"/>
+      <c r="AC239" s="19"/>
+    </row>
+    <row r="240" spans="28:29">
+      <c r="AB240" s="19"/>
+      <c r="AC240" s="19"/>
+    </row>
+    <row r="241" spans="28:29">
+      <c r="AB241" s="19"/>
+      <c r="AC241" s="19"/>
+    </row>
+    <row r="242" spans="28:29">
+      <c r="AB242" s="19"/>
+      <c r="AC242" s="19"/>
+    </row>
+    <row r="243" spans="28:29">
+      <c r="AB243" s="19"/>
+      <c r="AC243" s="19"/>
+    </row>
+    <row r="244" spans="28:29">
+      <c r="AB244" s="19"/>
+      <c r="AC244" s="19"/>
+    </row>
+    <row r="245" spans="28:29">
+      <c r="AB245" s="19"/>
+      <c r="AC245" s="19"/>
+    </row>
+    <row r="246" spans="28:29">
+      <c r="AB246" s="19"/>
+      <c r="AC246" s="19"/>
+    </row>
+    <row r="247" spans="28:29">
+      <c r="AB247" s="19"/>
+      <c r="AC247" s="19"/>
+    </row>
+    <row r="248" spans="28:29">
+      <c r="AB248" s="19"/>
+      <c r="AC248" s="19"/>
+    </row>
+    <row r="249" spans="28:29">
+      <c r="AB249" s="19"/>
+      <c r="AC249" s="19"/>
+    </row>
+    <row r="250" spans="28:29">
+      <c r="AB250" s="19"/>
+      <c r="AC250" s="19"/>
+    </row>
+    <row r="251" spans="28:29">
+      <c r="AB251" s="19"/>
+      <c r="AC251" s="19"/>
+    </row>
+    <row r="252" spans="28:29">
+      <c r="AB252" s="19"/>
+      <c r="AC252" s="19"/>
+    </row>
+    <row r="253" spans="28:29">
+      <c r="AB253" s="19"/>
+      <c r="AC253" s="19"/>
+    </row>
+    <row r="254" spans="28:29">
+      <c r="AB254" s="19"/>
+      <c r="AC254" s="19"/>
+    </row>
+    <row r="255" spans="28:29">
+      <c r="AB255" s="19"/>
+      <c r="AC255" s="19"/>
+    </row>
+    <row r="256" spans="28:29">
+      <c r="AB256" s="19"/>
+      <c r="AC256" s="19"/>
+    </row>
+    <row r="257" spans="28:29">
+      <c r="AB257" s="19"/>
+      <c r="AC257" s="19"/>
+    </row>
+    <row r="258" spans="28:29">
+      <c r="AB258" s="19"/>
+      <c r="AC258" s="19"/>
+    </row>
+    <row r="259" spans="28:29">
+      <c r="AB259" s="19"/>
+      <c r="AC259" s="19"/>
+    </row>
+    <row r="260" spans="28:29">
+      <c r="AB260" s="19"/>
+      <c r="AC260" s="19"/>
+    </row>
+    <row r="261" spans="28:29">
+      <c r="AB261" s="19"/>
+      <c r="AC261" s="19"/>
+    </row>
+    <row r="262" spans="28:29">
+      <c r="AB262" s="19"/>
+      <c r="AC262" s="19"/>
+    </row>
+    <row r="263" spans="28:29">
+      <c r="AB263" s="19"/>
+      <c r="AC263" s="19"/>
+    </row>
+    <row r="264" spans="28:29">
+      <c r="AB264" s="19"/>
+      <c r="AC264" s="19"/>
+    </row>
+    <row r="265" spans="28:29">
+      <c r="AB265" s="19"/>
+      <c r="AC265" s="19"/>
+    </row>
+    <row r="266" spans="28:29">
+      <c r="AB266" s="19"/>
+      <c r="AC266" s="19"/>
+    </row>
+    <row r="267" spans="28:29">
+      <c r="AB267" s="19"/>
+      <c r="AC267" s="19"/>
+    </row>
+    <row r="268" spans="28:29">
+      <c r="AB268" s="19"/>
+      <c r="AC268" s="19"/>
+    </row>
+    <row r="269" spans="28:29">
+      <c r="AB269" s="19"/>
+      <c r="AC269" s="19"/>
+    </row>
+    <row r="270" spans="28:29">
+      <c r="AB270" s="19"/>
+      <c r="AC270" s="19"/>
+    </row>
+    <row r="271" spans="28:29">
+      <c r="AB271" s="19"/>
+      <c r="AC271" s="19"/>
+    </row>
+    <row r="272" spans="28:29">
+      <c r="AB272" s="19"/>
+      <c r="AC272" s="19"/>
+    </row>
+    <row r="273" spans="28:29">
+      <c r="AB273" s="19"/>
+      <c r="AC273" s="19"/>
+    </row>
+    <row r="274" spans="28:29">
+      <c r="AB274" s="19"/>
+      <c r="AC274" s="19"/>
+    </row>
+    <row r="275" spans="28:29">
+      <c r="AB275" s="19"/>
+      <c r="AC275" s="19"/>
+    </row>
+    <row r="276" spans="28:29">
+      <c r="AB276" s="19"/>
+      <c r="AC276" s="19"/>
+    </row>
+    <row r="277" spans="28:29">
+      <c r="AB277" s="19"/>
+      <c r="AC277" s="19"/>
+    </row>
+    <row r="278" spans="28:29">
+      <c r="AB278" s="19"/>
+      <c r="AC278" s="19"/>
+    </row>
+    <row r="279" spans="28:29">
+      <c r="AB279" s="19"/>
+      <c r="AC279" s="19"/>
+    </row>
+    <row r="280" spans="28:29">
+      <c r="AB280" s="19"/>
+      <c r="AC280" s="19"/>
+    </row>
+    <row r="281" spans="28:29">
+      <c r="AB281" s="19"/>
+      <c r="AC281" s="19"/>
+    </row>
+    <row r="282" spans="28:29">
+      <c r="AB282" s="19"/>
+      <c r="AC282" s="19"/>
+    </row>
+    <row r="283" spans="28:29">
+      <c r="AB283" s="19"/>
+      <c r="AC283" s="19"/>
+    </row>
+    <row r="284" spans="28:29">
+      <c r="AB284" s="19"/>
+      <c r="AC284" s="19"/>
+    </row>
+    <row r="285" spans="28:29">
+      <c r="AB285" s="19"/>
+      <c r="AC285" s="19"/>
+    </row>
+    <row r="286" spans="28:29">
+      <c r="AB286" s="19"/>
+      <c r="AC286" s="19"/>
+    </row>
+    <row r="287" spans="28:29">
+      <c r="AB287" s="19"/>
+      <c r="AC287" s="19"/>
+    </row>
+    <row r="288" spans="28:29">
+      <c r="AB288" s="19"/>
+      <c r="AC288" s="19"/>
+    </row>
+    <row r="289" spans="28:29">
+      <c r="AB289" s="19"/>
+      <c r="AC289" s="19"/>
+    </row>
+    <row r="290" spans="28:29">
+      <c r="AB290" s="19"/>
+      <c r="AC290" s="19"/>
+    </row>
+    <row r="291" spans="28:29">
+      <c r="AB291" s="19"/>
+      <c r="AC291" s="19"/>
+    </row>
+    <row r="292" spans="28:29">
+      <c r="AB292" s="19"/>
+      <c r="AC292" s="19"/>
+    </row>
+    <row r="293" spans="28:29">
+      <c r="AB293" s="19"/>
+      <c r="AC293" s="19"/>
+    </row>
+    <row r="294" spans="28:29">
+      <c r="AB294" s="19"/>
+      <c r="AC294" s="19"/>
+    </row>
+    <row r="295" spans="28:29">
+      <c r="AB295" s="19"/>
+      <c r="AC295" s="19"/>
+    </row>
+    <row r="296" spans="28:29">
+      <c r="AB296" s="19"/>
+      <c r="AC296" s="19"/>
+    </row>
+    <row r="297" spans="28:29">
+      <c r="AB297" s="19"/>
+      <c r="AC297" s="19"/>
+    </row>
+    <row r="298" spans="28:29">
+      <c r="AB298" s="19"/>
+      <c r="AC298" s="19"/>
+    </row>
+    <row r="299" spans="28:29">
+      <c r="AB299" s="19"/>
+      <c r="AC299" s="19"/>
+    </row>
+    <row r="300" spans="28:29">
+      <c r="AB300" s="19"/>
+      <c r="AC300" s="19"/>
+    </row>
+    <row r="301" spans="28:29">
+      <c r="AB301" s="19"/>
+      <c r="AC301" s="19"/>
+    </row>
+    <row r="302" spans="28:29">
+      <c r="AB302" s="19"/>
+      <c r="AC302" s="19"/>
+    </row>
+    <row r="303" spans="28:29">
+      <c r="AB303" s="19"/>
+      <c r="AC303" s="19"/>
+    </row>
+    <row r="304" spans="28:29">
+      <c r="AB304" s="19"/>
+      <c r="AC304" s="19"/>
+    </row>
+    <row r="305" spans="28:29">
+      <c r="AB305" s="19"/>
+      <c r="AC305" s="19"/>
+    </row>
+    <row r="306" spans="28:29">
+      <c r="AB306" s="19"/>
+      <c r="AC306" s="19"/>
+    </row>
+    <row r="307" spans="28:29">
+      <c r="AB307" s="19"/>
+      <c r="AC307" s="19"/>
+    </row>
+    <row r="308" spans="28:29">
+      <c r="AB308" s="19"/>
+      <c r="AC308" s="19"/>
+    </row>
+    <row r="309" spans="28:29">
+      <c r="AB309" s="19"/>
+      <c r="AC309" s="19"/>
+    </row>
+    <row r="310" spans="28:29">
+      <c r="AB310" s="19"/>
+      <c r="AC310" s="19"/>
+    </row>
+    <row r="311" spans="28:29">
+      <c r="AB311" s="19"/>
+      <c r="AC311" s="19"/>
+    </row>
+    <row r="312" spans="28:29">
+      <c r="AB312" s="19"/>
+      <c r="AC312" s="19"/>
+    </row>
+    <row r="313" spans="28:29">
+      <c r="AB313" s="19"/>
+      <c r="AC313" s="19"/>
+    </row>
+    <row r="314" spans="28:29">
+      <c r="AB314" s="19"/>
+      <c r="AC314" s="19"/>
+    </row>
+    <row r="315" spans="28:29">
+      <c r="AB315" s="19"/>
+      <c r="AC315" s="19"/>
+    </row>
+    <row r="316" spans="28:29">
+      <c r="AB316" s="19"/>
+      <c r="AC316" s="19"/>
+    </row>
+    <row r="317" spans="28:29">
+      <c r="AB317" s="19"/>
+      <c r="AC317" s="19"/>
+    </row>
+    <row r="318" spans="28:29">
+      <c r="AB318" s="19"/>
+      <c r="AC318" s="19"/>
+    </row>
+    <row r="319" spans="28:29">
+      <c r="AB319" s="19"/>
+      <c r="AC319" s="19"/>
+    </row>
+    <row r="320" spans="28:29">
+      <c r="AB320" s="19"/>
+      <c r="AC320" s="19"/>
+    </row>
+    <row r="321" spans="28:29">
+      <c r="AB321" s="19"/>
+      <c r="AC321" s="19"/>
+    </row>
+    <row r="322" spans="28:29">
+      <c r="AB322" s="19"/>
+      <c r="AC322" s="19"/>
+    </row>
+    <row r="323" spans="28:29">
+      <c r="AB323" s="19"/>
+      <c r="AC323" s="19"/>
+    </row>
+    <row r="324" spans="28:29">
+      <c r="AB324" s="19"/>
+      <c r="AC324" s="19"/>
+    </row>
+    <row r="325" spans="28:29">
+      <c r="AB325" s="19"/>
+      <c r="AC325" s="19"/>
+    </row>
+    <row r="326" spans="28:29">
+      <c r="AB326" s="19"/>
+      <c r="AC326" s="19"/>
+    </row>
+    <row r="327" spans="28:29">
+      <c r="AB327" s="19"/>
+      <c r="AC327" s="19"/>
+    </row>
+    <row r="328" spans="28:29">
+      <c r="AB328" s="19"/>
+      <c r="AC328" s="19"/>
+    </row>
+    <row r="329" spans="28:29">
+      <c r="AB329" s="19"/>
+      <c r="AC329" s="19"/>
+    </row>
+    <row r="330" spans="28:29">
+      <c r="AB330" s="19"/>
+      <c r="AC330" s="19"/>
+    </row>
+    <row r="331" spans="28:29">
+      <c r="AB331" s="19"/>
+      <c r="AC331" s="19"/>
+    </row>
+    <row r="332" spans="28:29">
+      <c r="AB332" s="19"/>
+      <c r="AC332" s="19"/>
+    </row>
+    <row r="333" spans="28:29">
+      <c r="AB333" s="19"/>
+      <c r="AC333" s="19"/>
+    </row>
+    <row r="334" spans="28:29">
+      <c r="AB334" s="19"/>
+      <c r="AC334" s="19"/>
+    </row>
+    <row r="335" spans="28:29">
+      <c r="AB335" s="19"/>
+      <c r="AC335" s="19"/>
+    </row>
+    <row r="336" spans="28:29">
+      <c r="AB336" s="19"/>
+      <c r="AC336" s="19"/>
+    </row>
+    <row r="337" spans="28:29">
+      <c r="AB337" s="19"/>
+      <c r="AC337" s="19"/>
+    </row>
+    <row r="338" spans="28:29">
+      <c r="AB338" s="19"/>
+      <c r="AC338" s="19"/>
+    </row>
+    <row r="339" spans="28:29">
+      <c r="AB339" s="19"/>
+      <c r="AC339" s="19"/>
+    </row>
+    <row r="340" spans="28:29">
+      <c r="AB340" s="19"/>
+      <c r="AC340" s="19"/>
+    </row>
+    <row r="341" spans="28:29">
+      <c r="AB341" s="19"/>
+      <c r="AC341" s="19"/>
+    </row>
+    <row r="342" spans="28:29">
+      <c r="AB342" s="19"/>
+      <c r="AC342" s="19"/>
+    </row>
+    <row r="343" spans="28:29">
+      <c r="AB343" s="19"/>
+      <c r="AC343" s="19"/>
+    </row>
+    <row r="344" spans="28:29">
+      <c r="AB344" s="19"/>
+      <c r="AC344" s="19"/>
+    </row>
+    <row r="345" spans="28:29">
+      <c r="AB345" s="19"/>
+      <c r="AC345" s="19"/>
+    </row>
+    <row r="346" spans="28:29">
+      <c r="AB346" s="19"/>
+      <c r="AC346" s="19"/>
+    </row>
+    <row r="347" spans="28:29">
+      <c r="AB347" s="19"/>
+      <c r="AC347" s="19"/>
+    </row>
+    <row r="348" spans="28:29">
+      <c r="AB348" s="19"/>
+      <c r="AC348" s="19"/>
+    </row>
+    <row r="349" spans="28:29">
+      <c r="AB349" s="19"/>
+      <c r="AC349" s="19"/>
+    </row>
+    <row r="350" spans="28:29">
+      <c r="AB350" s="19"/>
+      <c r="AC350" s="19"/>
+    </row>
+    <row r="351" spans="28:29">
+      <c r="AB351" s="19"/>
+      <c r="AC351" s="19"/>
+    </row>
+    <row r="352" spans="28:29">
+      <c r="AB352" s="19"/>
+      <c r="AC352" s="19"/>
+    </row>
+    <row r="353" spans="28:29">
+      <c r="AB353" s="19"/>
+      <c r="AC353" s="19"/>
+    </row>
+    <row r="354" spans="28:29">
+      <c r="AB354" s="19"/>
+      <c r="AC354" s="19"/>
+    </row>
+    <row r="355" spans="28:29">
+      <c r="AB355" s="19"/>
+      <c r="AC355" s="19"/>
+    </row>
+    <row r="356" spans="28:29">
+      <c r="AB356" s="19"/>
+      <c r="AC356" s="19"/>
+    </row>
+    <row r="357" spans="28:29">
+      <c r="AB357" s="19"/>
+      <c r="AC357" s="19"/>
+    </row>
+    <row r="358" spans="28:29">
+      <c r="AB358" s="19"/>
+      <c r="AC358" s="19"/>
+    </row>
+    <row r="359" spans="28:29">
+      <c r="AB359" s="19"/>
+      <c r="AC359" s="19"/>
+    </row>
+    <row r="360" spans="28:29">
+      <c r="AB360" s="19"/>
+      <c r="AC360" s="19"/>
+    </row>
+    <row r="361" spans="28:29">
+      <c r="AB361" s="19"/>
+      <c r="AC361" s="19"/>
+    </row>
+    <row r="362" spans="28:29">
+      <c r="AB362" s="19"/>
+      <c r="AC362" s="19"/>
+    </row>
+    <row r="363" spans="28:29">
+      <c r="AB363" s="19"/>
+      <c r="AC363" s="19"/>
+    </row>
+    <row r="364" spans="28:29">
+      <c r="AB364" s="19"/>
+      <c r="AC364" s="19"/>
+    </row>
+    <row r="365" spans="28:29">
+      <c r="AB365" s="19"/>
+      <c r="AC365" s="19"/>
+    </row>
+    <row r="366" spans="28:29">
+      <c r="AB366" s="19"/>
+      <c r="AC366" s="19"/>
+    </row>
+    <row r="367" spans="28:29">
+      <c r="AB367" s="19"/>
+      <c r="AC367" s="19"/>
+    </row>
+    <row r="368" spans="28:29">
+      <c r="AB368" s="19"/>
+      <c r="AC368" s="19"/>
+    </row>
+    <row r="369" spans="28:29">
+      <c r="AB369" s="19"/>
+      <c r="AC369" s="19"/>
+    </row>
+    <row r="370" spans="28:29">
+      <c r="AB370" s="19"/>
+      <c r="AC370" s="19"/>
+    </row>
+    <row r="371" spans="28:29">
+      <c r="AB371" s="19"/>
+      <c r="AC371" s="19"/>
+    </row>
+    <row r="372" spans="28:29">
+      <c r="AB372" s="19"/>
+      <c r="AC372" s="19"/>
+    </row>
+    <row r="373" spans="28:29">
+      <c r="AB373" s="19"/>
+      <c r="AC373" s="19"/>
+    </row>
+    <row r="374" spans="28:29">
+      <c r="AB374" s="19"/>
+      <c r="AC374" s="19"/>
+    </row>
+    <row r="375" spans="28:29">
+      <c r="AB375" s="19"/>
+      <c r="AC375" s="19"/>
+    </row>
+    <row r="376" spans="28:29">
+      <c r="AB376" s="19"/>
+      <c r="AC376" s="19"/>
+    </row>
+    <row r="377" spans="28:29">
+      <c r="AB377" s="19"/>
+      <c r="AC377" s="19"/>
+    </row>
+    <row r="378" spans="28:29">
+      <c r="AB378" s="19"/>
+      <c r="AC378" s="19"/>
+    </row>
+    <row r="379" spans="28:29">
+      <c r="AB379" s="19"/>
+      <c r="AC379" s="19"/>
+    </row>
+    <row r="380" spans="28:29">
+      <c r="AB380" s="19"/>
+      <c r="AC380" s="19"/>
+    </row>
+    <row r="381" spans="28:29">
+      <c r="AB381" s="19"/>
+      <c r="AC381" s="19"/>
+    </row>
+    <row r="382" spans="28:29">
+      <c r="AB382" s="19"/>
+      <c r="AC382" s="19"/>
+    </row>
+    <row r="383" spans="28:29">
+      <c r="AB383" s="19"/>
+      <c r="AC383" s="19"/>
+    </row>
+    <row r="384" spans="28:29">
+      <c r="AB384" s="19"/>
+      <c r="AC384" s="19"/>
+    </row>
+    <row r="385" spans="28:29">
+      <c r="AB385" s="19"/>
+      <c r="AC385" s="19"/>
+    </row>
+    <row r="386" spans="28:29">
+      <c r="AB386" s="19"/>
+      <c r="AC386" s="19"/>
+    </row>
+    <row r="387" spans="28:29">
+      <c r="AB387" s="19"/>
+      <c r="AC387" s="19"/>
+    </row>
+    <row r="388" spans="28:29">
+      <c r="AB388" s="19"/>
+      <c r="AC388" s="19"/>
+    </row>
+    <row r="389" spans="28:29">
+      <c r="AB389" s="19"/>
+      <c r="AC389" s="19"/>
+    </row>
+    <row r="390" spans="28:29">
+      <c r="AB390" s="19"/>
+      <c r="AC390" s="19"/>
+    </row>
+    <row r="391" spans="28:29">
+      <c r="AB391" s="19"/>
+      <c r="AC391" s="19"/>
+    </row>
+    <row r="392" spans="28:29">
+      <c r="AB392" s="19"/>
+      <c r="AC392" s="19"/>
+    </row>
+    <row r="393" spans="28:29">
+      <c r="AB393" s="19"/>
+      <c r="AC393" s="19"/>
+    </row>
+    <row r="394" spans="28:29">
+      <c r="AB394" s="19"/>
+      <c r="AC394" s="19"/>
+    </row>
+    <row r="395" spans="28:29">
+      <c r="AB395" s="19"/>
+      <c r="AC395" s="19"/>
+    </row>
+    <row r="396" spans="28:29">
+      <c r="AB396" s="19"/>
+      <c r="AC396" s="19"/>
+    </row>
+    <row r="397" spans="28:29">
+      <c r="AB397" s="19"/>
+      <c r="AC397" s="19"/>
+    </row>
+    <row r="398" spans="28:29">
+      <c r="AB398" s="19"/>
+      <c r="AC398" s="19"/>
+    </row>
+    <row r="399" spans="28:29">
+      <c r="AB399" s="19"/>
+      <c r="AC399" s="19"/>
+    </row>
+    <row r="400" spans="28:29">
+      <c r="AB400" s="19"/>
+      <c r="AC400" s="19"/>
+    </row>
+    <row r="401" spans="28:29">
+      <c r="AB401" s="19"/>
+      <c r="AC401" s="19"/>
+    </row>
+    <row r="402" spans="28:29">
+      <c r="AB402" s="19"/>
+      <c r="AC402" s="19"/>
+    </row>
+    <row r="403" spans="28:29">
+      <c r="AB403" s="19"/>
+      <c r="AC403" s="19"/>
+    </row>
+    <row r="404" spans="28:29">
+      <c r="AB404" s="19"/>
+      <c r="AC404" s="19"/>
+    </row>
+    <row r="405" spans="28:29">
+      <c r="AB405" s="19"/>
+      <c r="AC405" s="19"/>
+    </row>
+    <row r="406" spans="28:29">
+      <c r="AB406" s="19"/>
+      <c r="AC406" s="19"/>
+    </row>
+    <row r="407" spans="28:29">
+      <c r="AB407" s="19"/>
+      <c r="AC407" s="19"/>
+    </row>
+    <row r="408" spans="28:29">
+      <c r="AB408" s="19"/>
+      <c r="AC408" s="19"/>
+    </row>
+    <row r="409" spans="28:29">
+      <c r="AB409" s="19"/>
+      <c r="AC409" s="19"/>
+    </row>
+    <row r="410" spans="28:29">
+      <c r="AB410" s="19"/>
+      <c r="AC410" s="19"/>
+    </row>
+    <row r="411" spans="28:29">
+      <c r="AB411" s="19"/>
+      <c r="AC411" s="19"/>
+    </row>
+    <row r="412" spans="28:29">
+      <c r="AB412" s="19"/>
+      <c r="AC412" s="19"/>
+    </row>
+    <row r="413" spans="28:29">
+      <c r="AB413" s="19"/>
+      <c r="AC413" s="19"/>
+    </row>
+    <row r="414" spans="28:29">
+      <c r="AB414" s="19"/>
+      <c r="AC414" s="19"/>
+    </row>
+    <row r="415" spans="28:29">
+      <c r="AB415" s="19"/>
+      <c r="AC415" s="19"/>
+    </row>
+    <row r="416" spans="28:29">
+      <c r="AB416" s="19"/>
+      <c r="AC416" s="19"/>
+    </row>
+    <row r="417" spans="28:29">
+      <c r="AB417" s="19"/>
+      <c r="AC417" s="19"/>
+    </row>
+    <row r="418" spans="28:29">
+      <c r="AB418" s="19"/>
+      <c r="AC418" s="19"/>
+    </row>
+    <row r="419" spans="28:29">
+      <c r="AB419" s="19"/>
+      <c r="AC419" s="19"/>
+    </row>
+    <row r="420" spans="28:29">
+      <c r="AB420" s="19"/>
+      <c r="AC420" s="19"/>
+    </row>
+    <row r="421" spans="28:29">
+      <c r="AB421" s="19"/>
+      <c r="AC421" s="19"/>
+    </row>
+    <row r="422" spans="28:29">
+      <c r="AB422" s="19"/>
+      <c r="AC422" s="19"/>
+    </row>
+    <row r="423" spans="28:29">
+      <c r="AB423" s="19"/>
+      <c r="AC423" s="19"/>
+    </row>
+    <row r="424" spans="28:29">
+      <c r="AB424" s="19"/>
+      <c r="AC424" s="19"/>
+    </row>
+    <row r="425" spans="28:29">
+      <c r="AB425" s="19"/>
+      <c r="AC425" s="19"/>
+    </row>
+    <row r="426" spans="28:29">
+      <c r="AB426" s="19"/>
+      <c r="AC426" s="19"/>
+    </row>
+    <row r="427" spans="28:29">
+      <c r="AB427" s="19"/>
+      <c r="AC427" s="19"/>
+    </row>
+    <row r="428" spans="28:29">
+      <c r="AB428" s="19"/>
+      <c r="AC428" s="19"/>
+    </row>
+    <row r="429" spans="28:29">
+      <c r="AB429" s="19"/>
+      <c r="AC429" s="19"/>
+    </row>
+    <row r="430" spans="28:29">
+      <c r="AB430" s="19"/>
+      <c r="AC430" s="19"/>
+    </row>
+    <row r="431" spans="28:29">
+      <c r="AB431" s="19"/>
+      <c r="AC431" s="19"/>
+    </row>
+    <row r="432" spans="28:29">
+      <c r="AB432" s="19"/>
+      <c r="AC432" s="19"/>
+    </row>
+    <row r="433" spans="28:29">
+      <c r="AB433" s="19"/>
+      <c r="AC433" s="19"/>
+    </row>
+    <row r="434" spans="28:29">
+      <c r="AB434" s="19"/>
+      <c r="AC434" s="19"/>
+    </row>
+    <row r="435" spans="28:29">
+      <c r="AB435" s="19"/>
+      <c r="AC435" s="19"/>
+    </row>
+    <row r="436" spans="28:29">
+      <c r="AB436" s="19"/>
+      <c r="AC436" s="19"/>
+    </row>
+    <row r="437" spans="28:29">
+      <c r="AB437" s="19"/>
+      <c r="AC437" s="19"/>
+    </row>
+    <row r="438" spans="28:29">
+      <c r="AB438" s="19"/>
+      <c r="AC438" s="19"/>
+    </row>
+    <row r="439" spans="28:29">
+      <c r="AB439" s="19"/>
+      <c r="AC439" s="19"/>
+    </row>
+    <row r="440" spans="28:29">
+      <c r="AB440" s="19"/>
+      <c r="AC440" s="19"/>
+    </row>
+    <row r="441" spans="28:29">
+      <c r="AB441" s="19"/>
+      <c r="AC441" s="19"/>
+    </row>
+    <row r="442" spans="28:29">
+      <c r="AB442" s="19"/>
+      <c r="AC442" s="19"/>
+    </row>
+    <row r="443" spans="28:29">
+      <c r="AB443" s="19"/>
+      <c r="AC443" s="19"/>
+    </row>
+    <row r="444" spans="28:29">
+      <c r="AB444" s="19"/>
+      <c r="AC444" s="19"/>
+    </row>
+    <row r="445" spans="28:29">
+      <c r="AB445" s="19"/>
+      <c r="AC445" s="19"/>
+    </row>
+    <row r="446" spans="28:29">
+      <c r="AB446" s="19"/>
+      <c r="AC446" s="19"/>
+    </row>
+    <row r="447" spans="28:29">
+      <c r="AB447" s="19"/>
+      <c r="AC447" s="19"/>
+    </row>
+    <row r="448" spans="28:29">
+      <c r="AB448" s="19"/>
+      <c r="AC448" s="19"/>
+    </row>
+    <row r="449" spans="28:29">
+      <c r="AB449" s="19"/>
+      <c r="AC449" s="19"/>
+    </row>
+    <row r="450" spans="28:29">
+      <c r="AB450" s="19"/>
+      <c r="AC450" s="19"/>
+    </row>
+    <row r="451" spans="28:29">
+      <c r="AB451" s="19"/>
+      <c r="AC451" s="19"/>
+    </row>
+    <row r="452" spans="28:29">
+      <c r="AB452" s="19"/>
+      <c r="AC452" s="19"/>
+    </row>
+    <row r="453" spans="28:29">
+      <c r="AB453" s="19"/>
+      <c r="AC453" s="19"/>
+    </row>
+    <row r="454" spans="28:29">
+      <c r="AB454" s="19"/>
+      <c r="AC454" s="19"/>
+    </row>
+    <row r="455" spans="28:29">
+      <c r="AB455" s="19"/>
+      <c r="AC455" s="19"/>
+    </row>
+    <row r="456" spans="28:29">
+      <c r="AB456" s="19"/>
+      <c r="AC456" s="19"/>
+    </row>
+    <row r="457" spans="28:29">
+      <c r="AB457" s="19"/>
+      <c r="AC457" s="19"/>
+    </row>
+    <row r="458" spans="28:29">
+      <c r="AB458" s="19"/>
+      <c r="AC458" s="19"/>
+    </row>
+    <row r="459" spans="28:29">
+      <c r="AB459" s="19"/>
+      <c r="AC459" s="19"/>
+    </row>
+    <row r="460" spans="28:29">
+      <c r="AB460" s="19"/>
+      <c r="AC460" s="19"/>
+    </row>
+    <row r="461" spans="28:29">
+      <c r="AB461" s="19"/>
+      <c r="AC461" s="19"/>
+    </row>
+    <row r="462" spans="28:29">
+      <c r="AB462" s="19"/>
+      <c r="AC462" s="19"/>
+    </row>
+    <row r="463" spans="28:29">
+      <c r="AB463" s="19"/>
+      <c r="AC463" s="19"/>
+    </row>
+    <row r="464" spans="28:29">
+      <c r="AB464" s="19"/>
+      <c r="AC464" s="19"/>
+    </row>
+    <row r="465" spans="28:29">
+      <c r="AB465" s="19"/>
+      <c r="AC465" s="19"/>
+    </row>
+    <row r="466" spans="28:29">
+      <c r="AB466" s="19"/>
+      <c r="AC466" s="19"/>
+    </row>
+    <row r="467" spans="28:29">
+      <c r="AB467" s="19"/>
+      <c r="AC467" s="19"/>
+    </row>
+    <row r="468" spans="28:29">
+      <c r="AB468" s="19"/>
+      <c r="AC468" s="19"/>
+    </row>
+    <row r="469" spans="28:29">
+      <c r="AB469" s="19"/>
+      <c r="AC469" s="19"/>
+    </row>
+    <row r="470" spans="28:29">
+      <c r="AB470" s="19"/>
+      <c r="AC470" s="19"/>
+    </row>
+    <row r="471" spans="28:29">
+      <c r="AB471" s="19"/>
+      <c r="AC471" s="19"/>
+    </row>
+    <row r="472" spans="28:29">
+      <c r="AB472" s="19"/>
+      <c r="AC472" s="19"/>
+    </row>
+    <row r="473" spans="28:29">
+      <c r="AB473" s="19"/>
+      <c r="AC473" s="19"/>
+    </row>
+    <row r="474" spans="28:29">
+      <c r="AB474" s="19"/>
+      <c r="AC474" s="19"/>
+    </row>
+    <row r="475" spans="28:29">
+      <c r="AB475" s="19"/>
+      <c r="AC475" s="19"/>
+    </row>
+    <row r="476" spans="28:29">
+      <c r="AB476" s="19"/>
+      <c r="AC476" s="19"/>
+    </row>
+    <row r="477" spans="28:29">
+      <c r="AB477" s="19"/>
+      <c r="AC477" s="19"/>
+    </row>
+    <row r="478" spans="28:29">
+      <c r="AB478" s="19"/>
+      <c r="AC478" s="19"/>
+    </row>
+    <row r="479" spans="28:29">
+      <c r="AB479" s="19"/>
+      <c r="AC479" s="19"/>
+    </row>
+    <row r="480" spans="28:29">
+      <c r="AB480" s="19"/>
+      <c r="AC480" s="19"/>
+    </row>
+    <row r="481" spans="28:29">
+      <c r="AB481" s="19"/>
+      <c r="AC481" s="19"/>
+    </row>
+    <row r="482" spans="28:29">
+      <c r="AB482" s="19"/>
+      <c r="AC482" s="19"/>
+    </row>
+    <row r="483" spans="28:29">
+      <c r="AB483" s="19"/>
+      <c r="AC483" s="19"/>
+    </row>
+    <row r="484" spans="28:29">
+      <c r="AB484" s="19"/>
+      <c r="AC484" s="19"/>
+    </row>
+    <row r="485" spans="28:29">
+      <c r="AB485" s="19"/>
+      <c r="AC485" s="19"/>
+    </row>
+    <row r="486" spans="28:29">
+      <c r="AB486" s="19"/>
+      <c r="AC486" s="19"/>
+    </row>
+    <row r="487" spans="28:29">
+      <c r="AB487" s="19"/>
+      <c r="AC487" s="19"/>
+    </row>
+    <row r="488" spans="28:29">
+      <c r="AB488" s="19"/>
+      <c r="AC488" s="19"/>
+    </row>
+    <row r="489" spans="28:29">
+      <c r="AB489" s="19"/>
+      <c r="AC489" s="19"/>
+    </row>
+    <row r="490" spans="28:29">
+      <c r="AB490" s="19"/>
+      <c r="AC490" s="19"/>
+    </row>
+    <row r="491" spans="28:29">
+      <c r="AB491" s="19"/>
+      <c r="AC491" s="19"/>
+    </row>
+    <row r="492" spans="28:29">
+      <c r="AB492" s="19"/>
+      <c r="AC492" s="19"/>
+    </row>
+    <row r="493" spans="28:29">
+      <c r="AB493" s="19"/>
+      <c r="AC493" s="19"/>
+    </row>
+    <row r="494" spans="28:29">
+      <c r="AB494" s="19"/>
+      <c r="AC494" s="19"/>
+    </row>
+    <row r="495" spans="28:29">
+      <c r="AB495" s="19"/>
+      <c r="AC495" s="19"/>
+    </row>
+    <row r="496" spans="28:29">
+      <c r="AB496" s="19"/>
+      <c r="AC496" s="19"/>
+    </row>
+    <row r="497" spans="28:29">
+      <c r="AB497" s="19"/>
+      <c r="AC497" s="19"/>
+    </row>
+    <row r="498" spans="28:29">
+      <c r="AB498" s="19"/>
+      <c r="AC498" s="19"/>
+    </row>
+    <row r="499" spans="28:29">
+      <c r="AB499" s="19"/>
+      <c r="AC499" s="19"/>
+    </row>
+    <row r="500" spans="28:29">
+      <c r="AB500" s="19"/>
+      <c r="AC500" s="19"/>
+    </row>
+    <row r="501" spans="28:29">
+      <c r="AB501" s="19"/>
+      <c r="AC501" s="19"/>
+    </row>
+    <row r="502" spans="28:29">
+      <c r="AB502" s="19"/>
+      <c r="AC502" s="19"/>
+    </row>
+    <row r="503" spans="28:29">
+      <c r="AB503" s="19"/>
+      <c r="AC503" s="19"/>
+    </row>
+    <row r="504" spans="28:29">
+      <c r="AB504" s="19"/>
+      <c r="AC504" s="19"/>
+    </row>
+    <row r="505" spans="28:29">
+      <c r="AB505" s="19"/>
+      <c r="AC505" s="19"/>
+    </row>
+    <row r="506" spans="28:29">
+      <c r="AB506" s="19"/>
+      <c r="AC506" s="19"/>
+    </row>
+    <row r="507" spans="28:29">
+      <c r="AB507" s="19"/>
+      <c r="AC507" s="19"/>
+    </row>
+    <row r="508" spans="28:29">
+      <c r="AB508" s="19"/>
+      <c r="AC508" s="19"/>
+    </row>
+    <row r="509" spans="28:29">
+      <c r="AB509" s="19"/>
+      <c r="AC509" s="19"/>
+    </row>
+    <row r="510" spans="28:29">
+      <c r="AB510" s="19"/>
+      <c r="AC510" s="19"/>
+    </row>
+    <row r="511" spans="28:29">
+      <c r="AB511" s="19"/>
+      <c r="AC511" s="19"/>
+    </row>
+    <row r="512" spans="28:29">
+      <c r="AB512" s="19"/>
+      <c r="AC512" s="19"/>
+    </row>
+    <row r="513" spans="28:29">
+      <c r="AB513" s="19"/>
+      <c r="AC513" s="19"/>
+    </row>
+    <row r="514" spans="28:29">
+      <c r="AB514" s="19"/>
+      <c r="AC514" s="19"/>
+    </row>
+    <row r="515" spans="28:29">
+      <c r="AB515" s="19"/>
+      <c r="AC515" s="19"/>
+    </row>
+    <row r="516" spans="28:29">
+      <c r="AB516" s="19"/>
+      <c r="AC516" s="19"/>
+    </row>
+    <row r="517" spans="28:29">
+      <c r="AB517" s="19"/>
+      <c r="AC517" s="19"/>
+    </row>
+    <row r="518" spans="28:29">
+      <c r="AB518" s="19"/>
+      <c r="AC518" s="19"/>
+    </row>
+    <row r="519" spans="28:29">
+      <c r="AB519" s="19"/>
+      <c r="AC519" s="19"/>
+    </row>
+    <row r="520" spans="28:29">
+      <c r="AB520" s="19"/>
+      <c r="AC520" s="19"/>
+    </row>
+    <row r="521" spans="28:29">
+      <c r="AB521" s="19"/>
+      <c r="AC521" s="19"/>
+    </row>
+    <row r="522" spans="28:29">
+      <c r="AB522" s="19"/>
+      <c r="AC522" s="19"/>
+    </row>
+    <row r="523" spans="28:29">
+      <c r="AB523" s="19"/>
+      <c r="AC523" s="19"/>
+    </row>
+    <row r="524" spans="28:29">
+      <c r="AB524" s="19"/>
+      <c r="AC524" s="19"/>
+    </row>
+    <row r="525" spans="28:29">
+      <c r="AB525" s="19"/>
+      <c r="AC525" s="19"/>
+    </row>
+    <row r="526" spans="28:29">
+      <c r="AB526" s="19"/>
+      <c r="AC526" s="19"/>
+    </row>
+    <row r="527" spans="28:29">
+      <c r="AB527" s="19"/>
+      <c r="AC527" s="19"/>
+    </row>
+    <row r="528" spans="28:29">
+      <c r="AB528" s="19"/>
+      <c r="AC528" s="19"/>
+    </row>
+    <row r="529" spans="28:29">
+      <c r="AB529" s="19"/>
+      <c r="AC529" s="19"/>
+    </row>
+    <row r="530" spans="28:29">
+      <c r="AB530" s="19"/>
+      <c r="AC530" s="19"/>
+    </row>
+    <row r="531" spans="28:29">
+      <c r="AB531" s="19"/>
+      <c r="AC531" s="19"/>
+    </row>
+    <row r="532" spans="28:29">
+      <c r="AB532" s="19"/>
+      <c r="AC532" s="19"/>
+    </row>
+    <row r="533" spans="28:29">
+      <c r="AB533" s="19"/>
+      <c r="AC533" s="19"/>
+    </row>
+    <row r="534" spans="28:29">
+      <c r="AB534" s="19"/>
+      <c r="AC534" s="19"/>
+    </row>
+    <row r="535" spans="28:29">
+      <c r="AB535" s="19"/>
+      <c r="AC535" s="19"/>
+    </row>
+    <row r="536" spans="28:29">
+      <c r="AB536" s="19"/>
+      <c r="AC536" s="19"/>
+    </row>
+    <row r="537" spans="28:29">
+      <c r="AB537" s="19"/>
+      <c r="AC537" s="19"/>
+    </row>
+    <row r="538" spans="28:29">
+      <c r="AB538" s="19"/>
+      <c r="AC538" s="19"/>
+    </row>
+    <row r="539" spans="28:29">
+      <c r="AB539" s="19"/>
+      <c r="AC539" s="19"/>
+    </row>
+    <row r="540" spans="28:29">
+      <c r="AB540" s="19"/>
+      <c r="AC540" s="19"/>
+    </row>
+    <row r="541" spans="28:29">
+      <c r="AB541" s="19"/>
+      <c r="AC541" s="19"/>
+    </row>
+    <row r="542" spans="28:29">
+      <c r="AB542" s="19"/>
+      <c r="AC542" s="19"/>
+    </row>
+    <row r="543" spans="28:29">
+      <c r="AB543" s="19"/>
+      <c r="AC543" s="19"/>
+    </row>
+    <row r="544" spans="28:29">
+      <c r="AB544" s="19"/>
+      <c r="AC544" s="19"/>
+    </row>
+    <row r="545" spans="28:29">
+      <c r="AB545" s="19"/>
+      <c r="AC545" s="19"/>
+    </row>
+    <row r="546" spans="28:29">
+      <c r="AB546" s="19"/>
+      <c r="AC546" s="19"/>
+    </row>
+    <row r="547" spans="28:29">
+      <c r="AB547" s="19"/>
+      <c r="AC547" s="19"/>
+    </row>
+    <row r="548" spans="28:29">
+      <c r="AB548" s="19"/>
+      <c r="AC548" s="19"/>
+    </row>
+    <row r="549" spans="28:29">
+      <c r="AB549" s="19"/>
+      <c r="AC549" s="19"/>
+    </row>
+    <row r="550" spans="28:29">
+      <c r="AB550" s="19"/>
+      <c r="AC550" s="19"/>
+    </row>
+    <row r="551" spans="28:29">
+      <c r="AB551" s="19"/>
+      <c r="AC551" s="19"/>
+    </row>
+    <row r="552" spans="28:29">
+      <c r="AB552" s="19"/>
+      <c r="AC552" s="19"/>
+    </row>
+    <row r="553" spans="28:29">
+      <c r="AB553" s="19"/>
+      <c r="AC553" s="19"/>
+    </row>
+    <row r="554" spans="28:29">
+      <c r="AB554" s="19"/>
+      <c r="AC554" s="19"/>
+    </row>
+    <row r="555" spans="28:29">
+      <c r="AB555" s="19"/>
+      <c r="AC555" s="19"/>
+    </row>
+    <row r="556" spans="28:29">
+      <c r="AB556" s="19"/>
+      <c r="AC556" s="19"/>
+    </row>
+    <row r="557" spans="28:29">
+      <c r="AB557" s="19"/>
+      <c r="AC557" s="19"/>
+    </row>
+    <row r="558" spans="28:29">
+      <c r="AB558" s="19"/>
+      <c r="AC558" s="19"/>
+    </row>
+    <row r="559" spans="28:29">
+      <c r="AB559" s="19"/>
+      <c r="AC559" s="19"/>
+    </row>
+    <row r="560" spans="28:29">
+      <c r="AB560" s="19"/>
+      <c r="AC560" s="19"/>
+    </row>
+    <row r="561" spans="28:29">
+      <c r="AB561" s="19"/>
+      <c r="AC561" s="19"/>
+    </row>
+    <row r="562" spans="28:29">
+      <c r="AB562" s="19"/>
+      <c r="AC562" s="19"/>
+    </row>
+    <row r="563" spans="28:29">
+      <c r="AB563" s="19"/>
+      <c r="AC563" s="19"/>
+    </row>
+    <row r="564" spans="28:29">
+      <c r="AB564" s="19"/>
+      <c r="AC564" s="19"/>
+    </row>
+    <row r="565" spans="28:29">
+      <c r="AB565" s="19"/>
+      <c r="AC565" s="19"/>
+    </row>
+    <row r="566" spans="28:29">
+      <c r="AB566" s="19"/>
+      <c r="AC566" s="19"/>
+    </row>
+    <row r="567" spans="28:29">
+      <c r="AB567" s="19"/>
+      <c r="AC567" s="19"/>
+    </row>
+    <row r="568" spans="28:29">
+      <c r="AB568" s="19"/>
+      <c r="AC568" s="19"/>
+    </row>
+    <row r="569" spans="28:29">
+      <c r="AB569" s="19"/>
+      <c r="AC569" s="19"/>
+    </row>
+    <row r="570" spans="28:29">
+      <c r="AB570" s="19"/>
+      <c r="AC570" s="19"/>
+    </row>
+    <row r="571" spans="28:29">
+      <c r="AB571" s="19"/>
+      <c r="AC571" s="19"/>
+    </row>
+    <row r="572" spans="28:29">
+      <c r="AB572" s="19"/>
+      <c r="AC572" s="19"/>
+    </row>
+    <row r="573" spans="28:29">
+      <c r="AB573" s="19"/>
+      <c r="AC573" s="19"/>
+    </row>
+    <row r="574" spans="28:29">
+      <c r="AB574" s="19"/>
+      <c r="AC574" s="19"/>
+    </row>
+    <row r="575" spans="28:29">
+      <c r="AB575" s="19"/>
+      <c r="AC575" s="19"/>
+    </row>
+    <row r="576" spans="28:29">
+      <c r="AB576" s="19"/>
+      <c r="AC576" s="19"/>
+    </row>
+    <row r="577" spans="28:29">
+      <c r="AB577" s="19"/>
+      <c r="AC577" s="19"/>
+    </row>
+    <row r="578" spans="28:29">
+      <c r="AB578" s="19"/>
+      <c r="AC578" s="19"/>
+    </row>
+    <row r="579" spans="28:29">
+      <c r="AB579" s="19"/>
+      <c r="AC579" s="19"/>
+    </row>
+    <row r="580" spans="28:29">
+      <c r="AB580" s="19"/>
+      <c r="AC580" s="19"/>
+    </row>
+    <row r="581" spans="28:29">
+      <c r="AB581" s="19"/>
+      <c r="AC581" s="19"/>
+    </row>
+    <row r="582" spans="28:29">
+      <c r="AB582" s="19"/>
+      <c r="AC582" s="19"/>
+    </row>
+    <row r="583" spans="28:29">
+      <c r="AB583" s="19"/>
+      <c r="AC583" s="19"/>
+    </row>
+    <row r="584" spans="28:29">
+      <c r="AB584" s="19"/>
+      <c r="AC584" s="19"/>
+    </row>
+    <row r="585" spans="28:29">
+      <c r="AB585" s="19"/>
+      <c r="AC585" s="19"/>
+    </row>
+    <row r="586" spans="28:29">
+      <c r="AB586" s="19"/>
+      <c r="AC586" s="19"/>
+    </row>
+    <row r="587" spans="28:29">
+      <c r="AB587" s="19"/>
+      <c r="AC587" s="19"/>
+    </row>
+    <row r="588" spans="28:29">
+      <c r="AB588" s="19"/>
+      <c r="AC588" s="19"/>
+    </row>
+    <row r="589" spans="28:29">
+      <c r="AB589" s="19"/>
+      <c r="AC589" s="19"/>
+    </row>
+    <row r="590" spans="28:29">
+      <c r="AB590" s="19"/>
+      <c r="AC590" s="19"/>
+    </row>
+    <row r="591" spans="28:29">
+      <c r="AB591" s="19"/>
+      <c r="AC591" s="19"/>
+    </row>
+    <row r="592" spans="28:29">
+      <c r="AB592" s="19"/>
+      <c r="AC592" s="19"/>
+    </row>
+    <row r="593" spans="28:29">
+      <c r="AB593" s="19"/>
+      <c r="AC593" s="19"/>
+    </row>
+    <row r="594" spans="28:29">
+      <c r="AB594" s="19"/>
+      <c r="AC594" s="19"/>
+    </row>
+    <row r="595" spans="28:29">
+      <c r="AB595" s="19"/>
+      <c r="AC595" s="19"/>
+    </row>
+    <row r="596" spans="28:29">
+      <c r="AB596" s="19"/>
+      <c r="AC596" s="19"/>
+    </row>
+    <row r="597" spans="28:29">
+      <c r="AB597" s="19"/>
+      <c r="AC597" s="19"/>
+    </row>
+    <row r="598" spans="28:29">
+      <c r="AB598" s="19"/>
+      <c r="AC598" s="19"/>
+    </row>
+    <row r="599" spans="28:29">
+      <c r="AB599" s="19"/>
+      <c r="AC599" s="19"/>
+    </row>
+    <row r="600" spans="28:29">
+      <c r="AB600" s="19"/>
+      <c r="AC600" s="19"/>
+    </row>
+    <row r="601" spans="28:29">
+      <c r="AB601" s="19"/>
+      <c r="AC601" s="19"/>
+    </row>
+    <row r="602" spans="28:29">
+      <c r="AB602" s="19"/>
+      <c r="AC602" s="19"/>
+    </row>
+    <row r="603" spans="28:29">
+      <c r="AB603" s="19"/>
+      <c r="AC603" s="19"/>
+    </row>
+    <row r="604" spans="28:29">
+      <c r="AB604" s="19"/>
+      <c r="AC604" s="19"/>
+    </row>
+    <row r="605" spans="28:29">
+      <c r="AB605" s="19"/>
+      <c r="AC605" s="19"/>
+    </row>
+    <row r="606" spans="28:29">
+      <c r="AB606" s="19"/>
+      <c r="AC606" s="19"/>
+    </row>
+    <row r="607" spans="28:29">
+      <c r="AB607" s="19"/>
+      <c r="AC607" s="19"/>
+    </row>
+    <row r="608" spans="28:29">
+      <c r="AB608" s="19"/>
+      <c r="AC608" s="19"/>
+    </row>
+    <row r="609" spans="28:29">
+      <c r="AB609" s="19"/>
+      <c r="AC609" s="19"/>
+    </row>
+    <row r="610" spans="28:29">
+      <c r="AB610" s="19"/>
+      <c r="AC610" s="19"/>
+    </row>
+    <row r="611" spans="28:29">
+      <c r="AB611" s="19"/>
+      <c r="AC611" s="19"/>
+    </row>
+    <row r="612" spans="28:29">
+      <c r="AB612" s="19"/>
+      <c r="AC612" s="19"/>
+    </row>
+    <row r="613" spans="28:29">
+      <c r="AB613" s="19"/>
+      <c r="AC613" s="19"/>
+    </row>
+    <row r="614" spans="28:29">
+      <c r="AB614" s="19"/>
+      <c r="AC614" s="19"/>
+    </row>
+    <row r="615" spans="28:29">
+      <c r="AB615" s="19"/>
+      <c r="AC615" s="19"/>
+    </row>
+    <row r="616" spans="28:29">
+      <c r="AB616" s="19"/>
+      <c r="AC616" s="19"/>
+    </row>
+    <row r="617" spans="28:29">
+      <c r="AB617" s="19"/>
+      <c r="AC617" s="19"/>
+    </row>
+    <row r="618" spans="28:29">
+      <c r="AB618" s="19"/>
+      <c r="AC618" s="19"/>
+    </row>
+    <row r="619" spans="28:29">
+      <c r="AB619" s="19"/>
+      <c r="AC619" s="19"/>
+    </row>
+    <row r="620" spans="28:29">
+      <c r="AB620" s="19"/>
+      <c r="AC620" s="19"/>
+    </row>
+    <row r="621" spans="28:29">
+      <c r="AB621" s="19"/>
+      <c r="AC621" s="19"/>
+    </row>
+    <row r="622" spans="28:29">
+      <c r="AB622" s="19"/>
+      <c r="AC622" s="19"/>
+    </row>
+    <row r="623" spans="28:29">
+      <c r="AB623" s="19"/>
+      <c r="AC623" s="19"/>
+    </row>
+    <row r="624" spans="28:29">
+      <c r="AB624" s="19"/>
+      <c r="AC624" s="19"/>
+    </row>
+    <row r="625" spans="28:29">
+      <c r="AB625" s="19"/>
+      <c r="AC625" s="19"/>
+    </row>
+    <row r="626" spans="28:29">
+      <c r="AB626" s="19"/>
+      <c r="AC626" s="19"/>
+    </row>
+    <row r="627" spans="28:29">
+      <c r="AB627" s="19"/>
+      <c r="AC627" s="19"/>
+    </row>
+    <row r="628" spans="28:29">
+      <c r="AB628" s="19"/>
+      <c r="AC628" s="19"/>
+    </row>
+    <row r="629" spans="28:29">
+      <c r="AB629" s="19"/>
+      <c r="AC629" s="19"/>
+    </row>
+    <row r="630" spans="28:29">
+      <c r="AB630" s="19"/>
+      <c r="AC630" s="19"/>
+    </row>
+    <row r="631" spans="28:29">
+      <c r="AB631" s="19"/>
+      <c r="AC631" s="19"/>
+    </row>
+    <row r="632" spans="28:29">
+      <c r="AB632" s="19"/>
+      <c r="AC632" s="19"/>
+    </row>
+    <row r="633" spans="28:29">
+      <c r="AB633" s="19"/>
+      <c r="AC633" s="19"/>
+    </row>
+    <row r="634" spans="28:29">
+      <c r="AB634" s="19"/>
+      <c r="AC634" s="19"/>
+    </row>
+    <row r="635" spans="28:29">
+      <c r="AB635" s="19"/>
+      <c r="AC635" s="19"/>
+    </row>
+    <row r="636" spans="28:29">
+      <c r="AB636" s="19"/>
+      <c r="AC636" s="19"/>
+    </row>
+    <row r="637" spans="28:29">
+      <c r="AB637" s="19"/>
+      <c r="AC637" s="19"/>
+    </row>
+    <row r="638" spans="28:29">
+      <c r="AB638" s="19"/>
+      <c r="AC638" s="19"/>
+    </row>
+    <row r="639" spans="28:29">
+      <c r="AB639" s="19"/>
+      <c r="AC639" s="19"/>
+    </row>
+    <row r="640" spans="28:29">
+      <c r="AB640" s="19"/>
+      <c r="AC640" s="19"/>
+    </row>
+    <row r="641" spans="28:29">
+      <c r="AB641" s="19"/>
+      <c r="AC641" s="19"/>
+    </row>
+    <row r="642" spans="28:29">
+      <c r="AB642" s="19"/>
+      <c r="AC642" s="19"/>
+    </row>
+    <row r="643" spans="28:29">
+      <c r="AB643" s="19"/>
+      <c r="AC643" s="19"/>
+    </row>
+    <row r="644" spans="28:29">
+      <c r="AB644" s="19"/>
+      <c r="AC644" s="19"/>
+    </row>
+    <row r="645" spans="28:29">
+      <c r="AB645" s="19"/>
+      <c r="AC645" s="19"/>
+    </row>
+    <row r="646" spans="28:29">
+      <c r="AB646" s="19"/>
+      <c r="AC646" s="19"/>
+    </row>
+    <row r="647" spans="28:29">
+      <c r="AB647" s="19"/>
+      <c r="AC647" s="19"/>
+    </row>
+    <row r="648" spans="28:29">
+      <c r="AB648" s="19"/>
+      <c r="AC648" s="19"/>
+    </row>
+    <row r="649" spans="28:29">
+      <c r="AB649" s="19"/>
+      <c r="AC649" s="19"/>
+    </row>
+    <row r="650" spans="28:29">
+      <c r="AB650" s="19"/>
+      <c r="AC650" s="19"/>
+    </row>
+    <row r="651" spans="28:29">
+      <c r="AB651" s="19"/>
+      <c r="AC651" s="19"/>
+    </row>
+    <row r="652" spans="28:29">
+      <c r="AB652" s="19"/>
+      <c r="AC652" s="19"/>
+    </row>
+    <row r="653" spans="28:29">
+      <c r="AB653" s="19"/>
+      <c r="AC653" s="19"/>
+    </row>
+    <row r="654" spans="28:29">
+      <c r="AB654" s="19"/>
+      <c r="AC654" s="19"/>
+    </row>
+    <row r="655" spans="28:29">
+      <c r="AB655" s="19"/>
+      <c r="AC655" s="19"/>
+    </row>
+    <row r="656" spans="28:29">
+      <c r="AB656" s="19"/>
+      <c r="AC656" s="19"/>
+    </row>
+    <row r="657" spans="28:29">
+      <c r="AB657" s="19"/>
+      <c r="AC657" s="19"/>
+    </row>
+    <row r="658" spans="28:29">
+      <c r="AB658" s="19"/>
+      <c r="AC658" s="19"/>
+    </row>
+    <row r="659" spans="28:29">
+      <c r="AB659" s="19"/>
+      <c r="AC659" s="19"/>
+    </row>
+    <row r="660" spans="28:29">
+      <c r="AB660" s="19"/>
+      <c r="AC660" s="19"/>
+    </row>
+    <row r="661" spans="28:29">
+      <c r="AB661" s="19"/>
+      <c r="AC661" s="19"/>
+    </row>
+    <row r="662" spans="28:29">
+      <c r="AB662" s="19"/>
+      <c r="AC662" s="19"/>
+    </row>
+    <row r="663" spans="28:29">
+      <c r="AB663" s="19"/>
+      <c r="AC663" s="19"/>
+    </row>
+    <row r="664" spans="28:29">
+      <c r="AB664" s="19"/>
+      <c r="AC664" s="19"/>
+    </row>
+    <row r="665" spans="28:29">
+      <c r="AB665" s="19"/>
+      <c r="AC665" s="19"/>
+    </row>
+    <row r="666" spans="28:29">
+      <c r="AB666" s="19"/>
+      <c r="AC666" s="19"/>
+    </row>
+    <row r="667" spans="28:29">
+      <c r="AB667" s="19"/>
+      <c r="AC667" s="19"/>
+    </row>
+    <row r="668" spans="28:29">
+      <c r="AB668" s="19"/>
+      <c r="AC668" s="19"/>
+    </row>
+    <row r="669" spans="28:29">
+      <c r="AB669" s="19"/>
+      <c r="AC669" s="19"/>
+    </row>
+    <row r="670" spans="28:29">
+      <c r="AB670" s="19"/>
+      <c r="AC670" s="19"/>
+    </row>
+    <row r="671" spans="28:29">
+      <c r="AB671" s="19"/>
+      <c r="AC671" s="19"/>
+    </row>
+    <row r="672" spans="28:29">
+      <c r="AB672" s="19"/>
+      <c r="AC672" s="19"/>
+    </row>
+    <row r="673" spans="28:29">
+      <c r="AB673" s="19"/>
+      <c r="AC673" s="19"/>
+    </row>
+    <row r="674" spans="28:29">
+      <c r="AB674" s="19"/>
+      <c r="AC674" s="19"/>
+    </row>
+    <row r="675" spans="28:29">
+      <c r="AB675" s="19"/>
+      <c r="AC675" s="19"/>
+    </row>
+    <row r="676" spans="28:29">
+      <c r="AB676" s="19"/>
+      <c r="AC676" s="19"/>
+    </row>
+    <row r="677" spans="28:29">
+      <c r="AB677" s="19"/>
+      <c r="AC677" s="19"/>
+    </row>
+    <row r="678" spans="28:29">
+      <c r="AB678" s="19"/>
+      <c r="AC678" s="19"/>
+    </row>
+    <row r="679" spans="28:29">
+      <c r="AB679" s="19"/>
+      <c r="AC679" s="19"/>
+    </row>
+    <row r="680" spans="28:29">
+      <c r="AB680" s="19"/>
+      <c r="AC680" s="19"/>
+    </row>
+    <row r="681" spans="28:29">
+      <c r="AB681" s="19"/>
+      <c r="AC681" s="19"/>
+    </row>
+    <row r="682" spans="28:29">
+      <c r="AB682" s="19"/>
+      <c r="AC682" s="19"/>
+    </row>
+    <row r="683" spans="28:29">
+      <c r="AB683" s="19"/>
+      <c r="AC683" s="19"/>
+    </row>
+    <row r="684" spans="28:29">
+      <c r="AB684" s="19"/>
+      <c r="AC684" s="19"/>
+    </row>
+    <row r="685" spans="28:29">
+      <c r="AB685" s="19"/>
+      <c r="AC685" s="19"/>
+    </row>
+    <row r="686" spans="28:29">
+      <c r="AB686" s="19"/>
+      <c r="AC686" s="19"/>
+    </row>
+    <row r="687" spans="28:29">
+      <c r="AB687" s="19"/>
+      <c r="AC687" s="19"/>
+    </row>
+    <row r="688" spans="28:29">
+      <c r="AB688" s="19"/>
+      <c r="AC688" s="19"/>
+    </row>
+    <row r="689" spans="28:29">
+      <c r="AB689" s="19"/>
+      <c r="AC689" s="19"/>
+    </row>
+    <row r="690" spans="28:29">
+      <c r="AB690" s="19"/>
+      <c r="AC690" s="19"/>
+    </row>
+    <row r="691" spans="28:29">
+      <c r="AB691" s="19"/>
+      <c r="AC691" s="19"/>
+    </row>
+    <row r="692" spans="28:29">
+      <c r="AB692" s="19"/>
+      <c r="AC692" s="19"/>
+    </row>
+    <row r="693" spans="28:29">
+      <c r="AB693" s="19"/>
+      <c r="AC693" s="19"/>
+    </row>
+    <row r="694" spans="28:29">
+      <c r="AB694" s="19"/>
+      <c r="AC694" s="19"/>
+    </row>
+    <row r="695" spans="28:29">
+      <c r="AB695" s="19"/>
+      <c r="AC695" s="19"/>
+    </row>
+    <row r="696" spans="28:29">
+      <c r="AB696" s="19"/>
+      <c r="AC696" s="19"/>
+    </row>
+    <row r="697" spans="28:29">
+      <c r="AB697" s="19"/>
+      <c r="AC697" s="19"/>
+    </row>
+    <row r="698" spans="28:29">
+      <c r="AB698" s="19"/>
+      <c r="AC698" s="19"/>
+    </row>
+    <row r="699" spans="28:29">
+      <c r="AB699" s="19"/>
+      <c r="AC699" s="19"/>
+    </row>
+    <row r="700" spans="28:29">
+      <c r="AB700" s="19"/>
+      <c r="AC700" s="19"/>
+    </row>
+    <row r="701" spans="28:29">
+      <c r="AB701" s="19"/>
+      <c r="AC701" s="19"/>
+    </row>
+    <row r="702" spans="28:29">
+      <c r="AB702" s="19"/>
+      <c r="AC702" s="19"/>
+    </row>
+    <row r="703" spans="28:29">
+      <c r="AB703" s="19"/>
+      <c r="AC703" s="19"/>
+    </row>
+    <row r="704" spans="28:29">
+      <c r="AB704" s="19"/>
+      <c r="AC704" s="19"/>
+    </row>
+    <row r="705" spans="28:29">
+      <c r="AB705" s="19"/>
+      <c r="AC705" s="19"/>
+    </row>
+    <row r="706" spans="28:29">
+      <c r="AB706" s="19"/>
+      <c r="AC706" s="19"/>
+    </row>
+    <row r="707" spans="28:29">
+      <c r="AB707" s="19"/>
+      <c r="AC707" s="19"/>
+    </row>
+    <row r="708" spans="28:29">
+      <c r="AB708" s="19"/>
+      <c r="AC708" s="19"/>
+    </row>
+    <row r="709" spans="28:29">
+      <c r="AB709" s="19"/>
+      <c r="AC709" s="19"/>
+    </row>
+    <row r="710" spans="28:29">
+      <c r="AB710" s="19"/>
+      <c r="AC710" s="19"/>
+    </row>
+    <row r="711" spans="28:29">
+      <c r="AB711" s="19"/>
+      <c r="AC711" s="19"/>
+    </row>
+    <row r="712" spans="28:29">
+      <c r="AB712" s="19"/>
+      <c r="AC712" s="19"/>
+    </row>
+    <row r="713" spans="28:29">
+      <c r="AB713" s="19"/>
+      <c r="AC713" s="19"/>
+    </row>
+    <row r="714" spans="28:29">
+      <c r="AB714" s="19"/>
+      <c r="AC714" s="19"/>
+    </row>
+    <row r="715" spans="28:29">
+      <c r="AB715" s="19"/>
+      <c r="AC715" s="19"/>
+    </row>
+    <row r="716" spans="28:29">
+      <c r="AB716" s="19"/>
+      <c r="AC716" s="19"/>
+    </row>
+    <row r="717" spans="28:29">
+      <c r="AB717" s="19"/>
+      <c r="AC717" s="19"/>
+    </row>
+    <row r="718" spans="28:29">
+      <c r="AB718" s="19"/>
+      <c r="AC718" s="19"/>
+    </row>
+    <row r="719" spans="28:29">
+      <c r="AB719" s="19"/>
+      <c r="AC719" s="19"/>
+    </row>
+    <row r="720" spans="28:29">
+      <c r="AB720" s="19"/>
+      <c r="AC720" s="19"/>
+    </row>
+    <row r="721" spans="28:29">
+      <c r="AB721" s="19"/>
+      <c r="AC721" s="19"/>
+    </row>
+    <row r="722" spans="28:29">
+      <c r="AB722" s="19"/>
+      <c r="AC722" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
